--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +754,1224 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5557165</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45048.79166666666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Floresta</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5557169</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45048.79166666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5557173</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45048.89583333334</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Náutico</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['82', '90+4']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5557168</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45049.79166666666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>América RN</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>['2', '49']</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5557174</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45049.79166666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5557166</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45049.89583333334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aparecidense</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['52', '63']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,6 +1972,818 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5557170</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45050.75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Confiança</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5557171</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45050.79166666666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['37', '45']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5557167</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45050.89583333334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['5', '53', '83']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5557172</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45050.89583333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Altos</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2784,6 +2784,818 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5557184</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>América RN</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['47', '85']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>13</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5557181</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45052.6875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Floresta</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['4', '23']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5557179</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45052.79166666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5557178</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45052.79166666666</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Náutico</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['36', '53']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3596,6 +3596,1224 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5557177</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45053.6875</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['41', '65']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5557175</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45053.6875</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>11</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>16</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5557176</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45053.79166666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['20', '83']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>14</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5557182</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45053.79166666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Aparecidense</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['26', '80']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5557180</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Confiança</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Altos</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['43', '67']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5557183</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['42', '90+6']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5557167</v>
+        <v>5557172</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2403,119 +2403,119 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>São Bernardo</t>
+          <t>Altos</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Figueirense</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['5', '53', '83']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
         <v>1.05</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>7.35</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2539,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
         <v>1.53</v>
       </c>
-      <c r="AY10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1.47</v>
-      </c>
       <c r="BC10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BD10" t="n">
         <v>2.34</v>
@@ -2563,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BG10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BJ10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5557172</v>
+        <v>5557167</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2606,119 +2606,119 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Altos</t>
+          <t>São Bernardo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Figueirense</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '53', '83']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="AB11" t="n">
         <v>1.05</v>
       </c>
       <c r="AC11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI11" t="n">
         <v>2.75</v>
       </c>
-      <c r="AD11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>2.57</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="AY11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.12</v>
+        <v>2.83</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BD11" t="n">
         <v>2.34</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BJ11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5557179</v>
+        <v>5557178</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3215,59 +3215,59 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pouso Alegre</t>
+          <t>Náutico</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>EC São José</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['36', '53']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="W14" t="n">
         <v>1.44</v>
@@ -3288,46 +3288,46 @@
         <v>1.04</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.95</v>
+        <v>3.9</v>
       </c>
       <c r="AF14" t="n">
         <v>1.07</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.85</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH14" t="n">
         <v>1.37</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -3351,46 +3351,46 @@
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AY14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.57</v>
+        <v>3.45</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BI14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ14" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BK14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3398,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5557178</v>
+        <v>5557179</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3418,59 +3418,59 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Náutico</t>
+          <t>Pouso Alegre</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>EC São José</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['36', '53']</t>
+          <t>['86']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
         <v>4</v>
       </c>
-      <c r="R15" t="n">
-        <v>9</v>
-      </c>
       <c r="S15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T15" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="W15" t="n">
         <v>1.44</v>
@@ -3491,46 +3491,46 @@
         <v>1.04</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
       <c r="AF15" t="n">
         <v>1.07</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.699999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="AH15" t="n">
         <v>1.37</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -3554,46 +3554,46 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3.45</v>
+        <v>2.57</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BF15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK15" t="n">
         <v>6</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3601,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5557177</v>
+        <v>5557175</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3621,182 +3621,182 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Operário PR</t>
+          <t>Ypiranga Erechim</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>CSA</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['41', '65']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="AE16" t="n">
-        <v>4.46</v>
+        <v>2.9</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AK16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC16" t="n">
         <v>1.54</v>
       </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BF16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH16" t="n">
         <v>9</v>
       </c>
       <c r="BI16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BK16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5557175</v>
+        <v>5557177</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3824,119 +3824,119 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ypiranga Erechim</t>
+          <t>Operário PR</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CSA</t>
+          <t>Manaus</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['41', '65']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.9</v>
+        <v>3.26</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.9</v>
+        <v>4.46</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -3960,46 +3960,46 @@
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH17" t="n">
         <v>9</v>
       </c>
       <c r="BI17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BK17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5557176</v>
+        <v>5557182</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4027,22 +4027,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Aparecidense</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Botafogo PB</t>
+          <t>São Bernardo</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -4055,91 +4055,91 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['20', '83']</t>
+          <t>['26', '80']</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U18" t="n">
         <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.7</v>
+        <v>8.85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AO18" t="n">
         <v>1.3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -4163,46 +4163,46 @@
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>3.1</v>
+        <v>2.13</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="BD18" t="n">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="BE18" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH18" t="n">
         <v>5</v>
       </c>
-      <c r="BH18" t="n">
-        <v>6</v>
-      </c>
       <c r="BI18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK18" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5557182</v>
+        <v>5557176</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4230,22 +4230,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Aparecidense</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>São Bernardo</t>
+          <t>Botafogo PB</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -4258,91 +4258,91 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['26', '80']</t>
+          <t>['20', '83']</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T19" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
       </c>
       <c r="V19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="n">
         <v>3.6</v>
       </c>
-      <c r="W19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AF19" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.85</v>
+        <v>7.7</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AO19" t="n">
         <v>1.3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
@@ -4366,46 +4366,46 @@
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="AY19" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK19" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -4413,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5557180</v>
+        <v>5557183</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4433,119 +4433,119 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Confiança</t>
+          <t>Figueirense</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Altos</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['43', '67']</t>
+          <t>['42', '90+6']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="AE20" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AI20" t="n">
         <v>2.55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO20" t="n">
         <v>1.3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -4572,43 +4572,43 @@
         <v>1.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="BC20" t="n">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="BD20" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.7</v>
+        <v>2.23</v>
       </c>
       <c r="BF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ20" t="n">
         <v>10</v>
       </c>
-      <c r="BG20" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>15</v>
-      </c>
       <c r="BK20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5557183</v>
+        <v>5557180</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4636,119 +4636,119 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Figueirense</t>
+          <t>Confiança</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Altos</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['42', '90+6']</t>
+          <t>['41', '67']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>12</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH21" t="n">
         <v>1.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.47</v>
       </c>
       <c r="AI21" t="n">
         <v>2.55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO21" t="n">
         <v>1.3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -4775,43 +4775,43 @@
         <v>1.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.46</v>
+        <v>1.98</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="BE21" t="n">
-        <v>2.23</v>
+        <v>3.7</v>
       </c>
       <c r="BF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG21" t="n">
         <v>6</v>
       </c>
-      <c r="BG21" t="n">
-        <v>2</v>
-      </c>
       <c r="BH21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK21" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4812,6 +4812,209 @@
       </c>
       <c r="BK21" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5557185</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45057.83333333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['32', '52', '54', '62', '78']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5015,6 +5015,1833 @@
       </c>
       <c r="BK22" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5557190</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45059.6875</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Confiança</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5557189</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45059.6875</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['71', '81']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5557192</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45059.79166666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Aparecidense</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Náutico</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['48', '74', '90+8']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5557188</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45059.89583333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>América RN</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['13', '57']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['35', '52']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>13</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5557193</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Altos</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5557186</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45060.6875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['32', '48']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5557191</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45060.79166666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Floresta</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['30', '89']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5557194</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45060.79166666666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['8', '53', '60']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['73', '80']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5557187</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45061.83333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -6842,6 +6842,1021 @@
       </c>
       <c r="BK31" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5557202</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Altos</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['39', '45', '47']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['83', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5557197</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Confiança</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['17', '66', '90+7']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>7</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5557203</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45066.6875</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Aparecidense</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['47', '81']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5557201</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45066.79166666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5557200</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45066.79166666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -7857,6 +7857,615 @@
       </c>
       <c r="BK36" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5557204</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['70', '72']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['3', '6']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5557196</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45067.79166666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5557199</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45067.79166666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>América RN</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['6', '40', '51']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>6</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -8466,6 +8466,412 @@
       </c>
       <c r="BK39" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5557198</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45068.83333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Náutico</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Floresta</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['6', '32', '88']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V40" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5557195</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45068.83333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['13', '90+5']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>2.19</v>
@@ -5775,7 +5775,7 @@
         <v>0.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU26" t="n">
         <v>2.95</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>2.25</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.34</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.55</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -8872,6 +8872,1427 @@
       </c>
       <c r="BK41" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5557205</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45073.6875</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['26', '72']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5557214</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45073.70833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>EC São José</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>11</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>16</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5557208</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45073.79166666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Náutico</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>América RN</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>9</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5557210</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45074.6875</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>São Bernardo</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5557213</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45074.6875</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Botafogo PB</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['14', '59']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5557207</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45074.79166666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Operário PR</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>11</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5557209</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45074.79166666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['19', '26', '52']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V48" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,27 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['69', '76']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -476,6 +497,18 @@
   </si>
   <si>
     <t>['24', '90+5']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['22', '36', '59']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK51"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1272,7 +1305,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1463,7 +1496,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1553,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1654,7 +1687,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1741,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>1.5</v>
@@ -1932,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2036,7 +2069,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2123,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2418,7 +2451,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2505,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2696,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2800,7 +2833,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2890,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3373,7 +3406,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3463,7 +3496,7 @@
         <v>2.33</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3651,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>0.5</v>
@@ -3755,7 +3788,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -3842,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4137,7 +4170,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4328,7 +4361,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4710,7 +4743,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4797,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -4988,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5179,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU23">
         <v>2.03</v>
@@ -5283,7 +5316,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5370,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>2</v>
@@ -5564,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>2.16</v>
@@ -5665,7 +5698,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5752,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
         <v>2.33</v>
@@ -6047,7 +6080,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6137,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6238,7 +6271,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6328,7 +6361,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6429,7 +6462,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6516,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -6620,7 +6653,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6710,7 +6743,7 @@
         <v>2.33</v>
       </c>
       <c r="AT31">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>2.25</v>
@@ -6811,7 +6844,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6898,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
         <v>1.5</v>
@@ -7002,7 +7035,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7193,7 +7226,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7283,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.46</v>
@@ -7384,7 +7417,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7471,7 +7504,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT35">
         <v>1.33</v>
@@ -7766,7 +7799,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -7856,7 +7889,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8044,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8339,7 +8372,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8429,7 +8462,7 @@
         <v>2.33</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -8620,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -8808,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -8912,7 +8945,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>11</v>
@@ -8999,10 +9032,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9485,7 +9518,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10058,7 +10091,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10148,7 +10181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10249,7 +10282,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10581,6 +10614,1916 @@
         <v>15</v>
       </c>
       <c r="BK51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5557218</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45079.83333333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>3.4</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>3.1</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>2.45</v>
+      </c>
+      <c r="AD52">
+        <v>3</v>
+      </c>
+      <c r="AE52">
+        <v>2.68</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>2.19</v>
+      </c>
+      <c r="AK52">
+        <v>1.6</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0.5</v>
+      </c>
+      <c r="AR52">
+        <v>0.5</v>
+      </c>
+      <c r="AS52">
+        <v>1.33</v>
+      </c>
+      <c r="AT52">
+        <v>0.33</v>
+      </c>
+      <c r="AU52">
+        <v>2.39</v>
+      </c>
+      <c r="AV52">
+        <v>1.62</v>
+      </c>
+      <c r="AW52">
+        <v>4.01</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>6</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>7</v>
+      </c>
+      <c r="BI52">
+        <v>8</v>
+      </c>
+      <c r="BJ52">
+        <v>13</v>
+      </c>
+      <c r="BK52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5557223</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>13</v>
+      </c>
+      <c r="T53">
+        <v>3.02</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>3.54</v>
+      </c>
+      <c r="W53">
+        <v>1.48</v>
+      </c>
+      <c r="X53">
+        <v>2.5</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>1.36</v>
+      </c>
+      <c r="AA53">
+        <v>7.5</v>
+      </c>
+      <c r="AB53">
+        <v>1.07</v>
+      </c>
+      <c r="AC53">
+        <v>2.53</v>
+      </c>
+      <c r="AD53">
+        <v>3.04</v>
+      </c>
+      <c r="AE53">
+        <v>2.77</v>
+      </c>
+      <c r="AF53">
+        <v>1.08</v>
+      </c>
+      <c r="AG53">
+        <v>7</v>
+      </c>
+      <c r="AH53">
+        <v>1.36</v>
+      </c>
+      <c r="AI53">
+        <v>3</v>
+      </c>
+      <c r="AJ53">
+        <v>2.4</v>
+      </c>
+      <c r="AK53">
+        <v>1.5</v>
+      </c>
+      <c r="AL53">
+        <v>1.8</v>
+      </c>
+      <c r="AM53">
+        <v>1.9</v>
+      </c>
+      <c r="AN53">
+        <v>1.33</v>
+      </c>
+      <c r="AO53">
+        <v>1.3</v>
+      </c>
+      <c r="AP53">
+        <v>1.44</v>
+      </c>
+      <c r="AQ53">
+        <v>3</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>3</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>1.42</v>
+      </c>
+      <c r="AV53">
+        <v>1.7</v>
+      </c>
+      <c r="AW53">
+        <v>3.12</v>
+      </c>
+      <c r="AX53">
+        <v>1.77</v>
+      </c>
+      <c r="AY53">
+        <v>8.6</v>
+      </c>
+      <c r="AZ53">
+        <v>2.29</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>1.46</v>
+      </c>
+      <c r="BC53">
+        <v>1.79</v>
+      </c>
+      <c r="BD53">
+        <v>2.3</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>4</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>11</v>
+      </c>
+      <c r="BI53">
+        <v>9</v>
+      </c>
+      <c r="BJ53">
+        <v>15</v>
+      </c>
+      <c r="BK53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5557222</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>3.64</v>
+      </c>
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
+        <v>3.12</v>
+      </c>
+      <c r="W54">
+        <v>1.5</v>
+      </c>
+      <c r="X54">
+        <v>2.4</v>
+      </c>
+      <c r="Y54">
+        <v>3.2</v>
+      </c>
+      <c r="Z54">
+        <v>1.3</v>
+      </c>
+      <c r="AA54">
+        <v>8.5</v>
+      </c>
+      <c r="AB54">
+        <v>1.05</v>
+      </c>
+      <c r="AC54">
+        <v>2.8</v>
+      </c>
+      <c r="AD54">
+        <v>2.87</v>
+      </c>
+      <c r="AE54">
+        <v>2.4</v>
+      </c>
+      <c r="AF54">
+        <v>1.1</v>
+      </c>
+      <c r="AG54">
+        <v>6.5</v>
+      </c>
+      <c r="AH54">
+        <v>1.45</v>
+      </c>
+      <c r="AI54">
+        <v>2.63</v>
+      </c>
+      <c r="AJ54">
+        <v>2.35</v>
+      </c>
+      <c r="AK54">
+        <v>1.53</v>
+      </c>
+      <c r="AL54">
+        <v>1.95</v>
+      </c>
+      <c r="AM54">
+        <v>1.78</v>
+      </c>
+      <c r="AN54">
+        <v>1.44</v>
+      </c>
+      <c r="AO54">
+        <v>1.3</v>
+      </c>
+      <c r="AP54">
+        <v>1.35</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>2</v>
+      </c>
+      <c r="AS54">
+        <v>1.67</v>
+      </c>
+      <c r="AT54">
+        <v>1.67</v>
+      </c>
+      <c r="AU54">
+        <v>1.84</v>
+      </c>
+      <c r="AV54">
+        <v>1.35</v>
+      </c>
+      <c r="AW54">
+        <v>3.19</v>
+      </c>
+      <c r="AX54">
+        <v>2.03</v>
+      </c>
+      <c r="AY54">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ54">
+        <v>1.96</v>
+      </c>
+      <c r="BA54">
+        <v>1.22</v>
+      </c>
+      <c r="BB54">
+        <v>1.39</v>
+      </c>
+      <c r="BC54">
+        <v>1.76</v>
+      </c>
+      <c r="BD54">
+        <v>2.19</v>
+      </c>
+      <c r="BE54">
+        <v>3</v>
+      </c>
+      <c r="BF54">
+        <v>9</v>
+      </c>
+      <c r="BG54">
+        <v>4</v>
+      </c>
+      <c r="BH54">
+        <v>6</v>
+      </c>
+      <c r="BI54">
+        <v>2</v>
+      </c>
+      <c r="BJ54">
+        <v>15</v>
+      </c>
+      <c r="BK54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5557219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45080.6875</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>4</v>
+      </c>
+      <c r="S55">
+        <v>9</v>
+      </c>
+      <c r="T55">
+        <v>3.12</v>
+      </c>
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
+        <v>3.64</v>
+      </c>
+      <c r="W55">
+        <v>1.51</v>
+      </c>
+      <c r="X55">
+        <v>2.4</v>
+      </c>
+      <c r="Y55">
+        <v>3.2</v>
+      </c>
+      <c r="Z55">
+        <v>1.3</v>
+      </c>
+      <c r="AA55">
+        <v>8.5</v>
+      </c>
+      <c r="AB55">
+        <v>1.05</v>
+      </c>
+      <c r="AC55">
+        <v>2.4</v>
+      </c>
+      <c r="AD55">
+        <v>2.87</v>
+      </c>
+      <c r="AE55">
+        <v>2.8</v>
+      </c>
+      <c r="AF55">
+        <v>1.1</v>
+      </c>
+      <c r="AG55">
+        <v>6.5</v>
+      </c>
+      <c r="AH55">
+        <v>1.45</v>
+      </c>
+      <c r="AI55">
+        <v>2.63</v>
+      </c>
+      <c r="AJ55">
+        <v>2.35</v>
+      </c>
+      <c r="AK55">
+        <v>1.53</v>
+      </c>
+      <c r="AL55">
+        <v>1.95</v>
+      </c>
+      <c r="AM55">
+        <v>1.78</v>
+      </c>
+      <c r="AN55">
+        <v>1.33</v>
+      </c>
+      <c r="AO55">
+        <v>1.3</v>
+      </c>
+      <c r="AP55">
+        <v>1.45</v>
+      </c>
+      <c r="AQ55">
+        <v>1.5</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
+      <c r="AU55">
+        <v>1.9</v>
+      </c>
+      <c r="AV55">
+        <v>1.53</v>
+      </c>
+      <c r="AW55">
+        <v>3.43</v>
+      </c>
+      <c r="AX55">
+        <v>1.81</v>
+      </c>
+      <c r="AY55">
+        <v>9</v>
+      </c>
+      <c r="AZ55">
+        <v>2.26</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>1.3</v>
+      </c>
+      <c r="BC55">
+        <v>1.61</v>
+      </c>
+      <c r="BD55">
+        <v>1.97</v>
+      </c>
+      <c r="BE55">
+        <v>2.46</v>
+      </c>
+      <c r="BF55">
+        <v>4</v>
+      </c>
+      <c r="BG55">
+        <v>6</v>
+      </c>
+      <c r="BH55">
+        <v>10</v>
+      </c>
+      <c r="BI55">
+        <v>7</v>
+      </c>
+      <c r="BJ55">
+        <v>14</v>
+      </c>
+      <c r="BK55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5557224</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45080.79166666666</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q56">
+        <v>14</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>17</v>
+      </c>
+      <c r="T56">
+        <v>2.17</v>
+      </c>
+      <c r="U56">
+        <v>2.05</v>
+      </c>
+      <c r="V56">
+        <v>6.1</v>
+      </c>
+      <c r="W56">
+        <v>1.54</v>
+      </c>
+      <c r="X56">
+        <v>2.36</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>1.36</v>
+      </c>
+      <c r="AA56">
+        <v>7.5</v>
+      </c>
+      <c r="AB56">
+        <v>1.07</v>
+      </c>
+      <c r="AC56">
+        <v>1.53</v>
+      </c>
+      <c r="AD56">
+        <v>3.3</v>
+      </c>
+      <c r="AE56">
+        <v>6</v>
+      </c>
+      <c r="AF56">
+        <v>1.1</v>
+      </c>
+      <c r="AG56">
+        <v>6.5</v>
+      </c>
+      <c r="AH56">
+        <v>1.45</v>
+      </c>
+      <c r="AI56">
+        <v>2.63</v>
+      </c>
+      <c r="AJ56">
+        <v>2.35</v>
+      </c>
+      <c r="AK56">
+        <v>1.53</v>
+      </c>
+      <c r="AL56">
+        <v>2.3</v>
+      </c>
+      <c r="AM56">
+        <v>1.55</v>
+      </c>
+      <c r="AN56">
+        <v>1.06</v>
+      </c>
+      <c r="AO56">
+        <v>1.22</v>
+      </c>
+      <c r="AP56">
+        <v>2.2</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>1.75</v>
+      </c>
+      <c r="AT56">
+        <v>0.33</v>
+      </c>
+      <c r="AU56">
+        <v>1.43</v>
+      </c>
+      <c r="AV56">
+        <v>1.57</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>1.5</v>
+      </c>
+      <c r="AY56">
+        <v>9.4</v>
+      </c>
+      <c r="AZ56">
+        <v>2.9</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>1.33</v>
+      </c>
+      <c r="BC56">
+        <v>1.62</v>
+      </c>
+      <c r="BD56">
+        <v>1.99</v>
+      </c>
+      <c r="BE56">
+        <v>2.49</v>
+      </c>
+      <c r="BF56">
+        <v>4</v>
+      </c>
+      <c r="BG56">
+        <v>3</v>
+      </c>
+      <c r="BH56">
+        <v>8</v>
+      </c>
+      <c r="BI56">
+        <v>5</v>
+      </c>
+      <c r="BJ56">
+        <v>12</v>
+      </c>
+      <c r="BK56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5557216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45081.6875</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>125</v>
+      </c>
+      <c r="P57" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q57">
+        <v>8</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>2.52</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>4.62</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>2.4</v>
+      </c>
+      <c r="Y57">
+        <v>3.24</v>
+      </c>
+      <c r="Z57">
+        <v>1.33</v>
+      </c>
+      <c r="AA57">
+        <v>8</v>
+      </c>
+      <c r="AB57">
+        <v>1.06</v>
+      </c>
+      <c r="AC57">
+        <v>1.81</v>
+      </c>
+      <c r="AD57">
+        <v>3.34</v>
+      </c>
+      <c r="AE57">
+        <v>4.4</v>
+      </c>
+      <c r="AF57">
+        <v>1.09</v>
+      </c>
+      <c r="AG57">
+        <v>7.85</v>
+      </c>
+      <c r="AH57">
+        <v>1.41</v>
+      </c>
+      <c r="AI57">
+        <v>2.69</v>
+      </c>
+      <c r="AJ57">
+        <v>2.35</v>
+      </c>
+      <c r="AK57">
+        <v>1.53</v>
+      </c>
+      <c r="AL57">
+        <v>2</v>
+      </c>
+      <c r="AM57">
+        <v>1.72</v>
+      </c>
+      <c r="AN57">
+        <v>1.2</v>
+      </c>
+      <c r="AO57">
+        <v>1.28</v>
+      </c>
+      <c r="AP57">
+        <v>1.72</v>
+      </c>
+      <c r="AQ57">
+        <v>3</v>
+      </c>
+      <c r="AR57">
+        <v>1.33</v>
+      </c>
+      <c r="AS57">
+        <v>2.33</v>
+      </c>
+      <c r="AT57">
+        <v>1.25</v>
+      </c>
+      <c r="AU57">
+        <v>1.25</v>
+      </c>
+      <c r="AV57">
+        <v>1.03</v>
+      </c>
+      <c r="AW57">
+        <v>2.28</v>
+      </c>
+      <c r="AX57">
+        <v>1.47</v>
+      </c>
+      <c r="AY57">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ57">
+        <v>3.04</v>
+      </c>
+      <c r="BA57">
+        <v>1.22</v>
+      </c>
+      <c r="BB57">
+        <v>1.4</v>
+      </c>
+      <c r="BC57">
+        <v>1.76</v>
+      </c>
+      <c r="BD57">
+        <v>2.19</v>
+      </c>
+      <c r="BE57">
+        <v>3.05</v>
+      </c>
+      <c r="BF57">
+        <v>3</v>
+      </c>
+      <c r="BG57">
+        <v>2</v>
+      </c>
+      <c r="BH57">
+        <v>4</v>
+      </c>
+      <c r="BI57">
+        <v>1</v>
+      </c>
+      <c r="BJ57">
+        <v>7</v>
+      </c>
+      <c r="BK57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5557221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45081.6875</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>9</v>
+      </c>
+      <c r="S58">
+        <v>14</v>
+      </c>
+      <c r="T58">
+        <v>2.17</v>
+      </c>
+      <c r="U58">
+        <v>2.1</v>
+      </c>
+      <c r="V58">
+        <v>5.75</v>
+      </c>
+      <c r="W58">
+        <v>1.45</v>
+      </c>
+      <c r="X58">
+        <v>2.6</v>
+      </c>
+      <c r="Y58">
+        <v>2.75</v>
+      </c>
+      <c r="Z58">
+        <v>1.4</v>
+      </c>
+      <c r="AA58">
+        <v>7</v>
+      </c>
+      <c r="AB58">
+        <v>1.08</v>
+      </c>
+      <c r="AC58">
+        <v>1.71</v>
+      </c>
+      <c r="AD58">
+        <v>3.38</v>
+      </c>
+      <c r="AE58">
+        <v>5</v>
+      </c>
+      <c r="AF58">
+        <v>1.07</v>
+      </c>
+      <c r="AG58">
+        <v>9</v>
+      </c>
+      <c r="AH58">
+        <v>1.48</v>
+      </c>
+      <c r="AI58">
+        <v>2.5</v>
+      </c>
+      <c r="AJ58">
+        <v>2.15</v>
+      </c>
+      <c r="AK58">
+        <v>1.61</v>
+      </c>
+      <c r="AL58">
+        <v>2.05</v>
+      </c>
+      <c r="AM58">
+        <v>1.68</v>
+      </c>
+      <c r="AN58">
+        <v>1.1</v>
+      </c>
+      <c r="AO58">
+        <v>1.22</v>
+      </c>
+      <c r="AP58">
+        <v>2.1</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>0.5</v>
+      </c>
+      <c r="AS58">
+        <v>1.67</v>
+      </c>
+      <c r="AT58">
+        <v>0.67</v>
+      </c>
+      <c r="AU58">
+        <v>1.52</v>
+      </c>
+      <c r="AV58">
+        <v>1.41</v>
+      </c>
+      <c r="AW58">
+        <v>2.93</v>
+      </c>
+      <c r="AX58">
+        <v>1.46</v>
+      </c>
+      <c r="AY58">
+        <v>8.9</v>
+      </c>
+      <c r="AZ58">
+        <v>3.13</v>
+      </c>
+      <c r="BA58">
+        <v>1.29</v>
+      </c>
+      <c r="BB58">
+        <v>1.56</v>
+      </c>
+      <c r="BC58">
+        <v>1.95</v>
+      </c>
+      <c r="BD58">
+        <v>2.57</v>
+      </c>
+      <c r="BE58">
+        <v>3.6</v>
+      </c>
+      <c r="BF58">
+        <v>4</v>
+      </c>
+      <c r="BG58">
+        <v>5</v>
+      </c>
+      <c r="BH58">
+        <v>6</v>
+      </c>
+      <c r="BI58">
+        <v>7</v>
+      </c>
+      <c r="BJ58">
+        <v>10</v>
+      </c>
+      <c r="BK58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5557215</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45081.79166666666</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>11</v>
+      </c>
+      <c r="T59">
+        <v>2.12</v>
+      </c>
+      <c r="U59">
+        <v>2.15</v>
+      </c>
+      <c r="V59">
+        <v>5.75</v>
+      </c>
+      <c r="W59">
+        <v>1.43</v>
+      </c>
+      <c r="X59">
+        <v>2.65</v>
+      </c>
+      <c r="Y59">
+        <v>2.62</v>
+      </c>
+      <c r="Z59">
+        <v>1.44</v>
+      </c>
+      <c r="AA59">
+        <v>6.5</v>
+      </c>
+      <c r="AB59">
+        <v>1.1</v>
+      </c>
+      <c r="AC59">
+        <v>1.62</v>
+      </c>
+      <c r="AD59">
+        <v>3.78</v>
+      </c>
+      <c r="AE59">
+        <v>5.05</v>
+      </c>
+      <c r="AF59">
+        <v>1.07</v>
+      </c>
+      <c r="AG59">
+        <v>7.5</v>
+      </c>
+      <c r="AH59">
+        <v>1.32</v>
+      </c>
+      <c r="AI59">
+        <v>3.15</v>
+      </c>
+      <c r="AJ59">
+        <v>1.93</v>
+      </c>
+      <c r="AK59">
+        <v>1.85</v>
+      </c>
+      <c r="AL59">
+        <v>2</v>
+      </c>
+      <c r="AM59">
+        <v>1.72</v>
+      </c>
+      <c r="AN59">
+        <v>1.09</v>
+      </c>
+      <c r="AO59">
+        <v>1.2</v>
+      </c>
+      <c r="AP59">
+        <v>2.2</v>
+      </c>
+      <c r="AQ59">
+        <v>2.33</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>1.75</v>
+      </c>
+      <c r="AT59">
+        <v>1</v>
+      </c>
+      <c r="AU59">
+        <v>1.89</v>
+      </c>
+      <c r="AV59">
+        <v>1.16</v>
+      </c>
+      <c r="AW59">
+        <v>3.05</v>
+      </c>
+      <c r="AX59">
+        <v>1.42</v>
+      </c>
+      <c r="AY59">
+        <v>9.1</v>
+      </c>
+      <c r="AZ59">
+        <v>3.42</v>
+      </c>
+      <c r="BA59">
+        <v>1.34</v>
+      </c>
+      <c r="BB59">
+        <v>1.69</v>
+      </c>
+      <c r="BC59">
+        <v>2.11</v>
+      </c>
+      <c r="BD59">
+        <v>2.71</v>
+      </c>
+      <c r="BE59">
+        <v>3.95</v>
+      </c>
+      <c r="BF59">
+        <v>5</v>
+      </c>
+      <c r="BG59">
+        <v>4</v>
+      </c>
+      <c r="BH59">
+        <v>3</v>
+      </c>
+      <c r="BI59">
+        <v>2</v>
+      </c>
+      <c r="BJ59">
+        <v>8</v>
+      </c>
+      <c r="BK59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5557220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45081.79166666666</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>2.52</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <v>4.62</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>2.62</v>
+      </c>
+      <c r="Y60">
+        <v>3.25</v>
+      </c>
+      <c r="Z60">
+        <v>1.33</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60">
+        <v>1.06</v>
+      </c>
+      <c r="AC60">
+        <v>2.06</v>
+      </c>
+      <c r="AD60">
+        <v>3.13</v>
+      </c>
+      <c r="AE60">
+        <v>3.64</v>
+      </c>
+      <c r="AF60">
+        <v>1.1</v>
+      </c>
+      <c r="AG60">
+        <v>6.5</v>
+      </c>
+      <c r="AH60">
+        <v>1.44</v>
+      </c>
+      <c r="AI60">
+        <v>2.62</v>
+      </c>
+      <c r="AJ60">
+        <v>2.36</v>
+      </c>
+      <c r="AK60">
+        <v>1.52</v>
+      </c>
+      <c r="AL60">
+        <v>2.05</v>
+      </c>
+      <c r="AM60">
+        <v>1.73</v>
+      </c>
+      <c r="AN60">
+        <v>1.2</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>1.83</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>1.33</v>
+      </c>
+      <c r="AS60">
+        <v>2</v>
+      </c>
+      <c r="AT60">
+        <v>1.75</v>
+      </c>
+      <c r="AU60">
+        <v>1.61</v>
+      </c>
+      <c r="AV60">
+        <v>1.29</v>
+      </c>
+      <c r="AW60">
+        <v>2.9</v>
+      </c>
+      <c r="AX60">
+        <v>1.59</v>
+      </c>
+      <c r="AY60">
+        <v>8.6</v>
+      </c>
+      <c r="AZ60">
+        <v>2.78</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>1.61</v>
+      </c>
+      <c r="BC60">
+        <v>1.98</v>
+      </c>
+      <c r="BD60">
+        <v>2.5</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>4</v>
+      </c>
+      <c r="BG60">
+        <v>7</v>
+      </c>
+      <c r="BH60">
+        <v>3</v>
+      </c>
+      <c r="BI60">
+        <v>8</v>
+      </c>
+      <c r="BJ60">
+        <v>7</v>
+      </c>
+      <c r="BK60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5557217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45082.83333333334</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61">
+        <v>8</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>2.15</v>
+      </c>
+      <c r="U61">
+        <v>2.03</v>
+      </c>
+      <c r="V61">
+        <v>6.8</v>
+      </c>
+      <c r="W61">
+        <v>1.51</v>
+      </c>
+      <c r="X61">
+        <v>2.4</v>
+      </c>
+      <c r="Y61">
+        <v>2.75</v>
+      </c>
+      <c r="Z61">
+        <v>1.4</v>
+      </c>
+      <c r="AA61">
+        <v>7.5</v>
+      </c>
+      <c r="AB61">
+        <v>1.07</v>
+      </c>
+      <c r="AC61">
+        <v>1.45</v>
+      </c>
+      <c r="AD61">
+        <v>3.75</v>
+      </c>
+      <c r="AE61">
+        <v>7</v>
+      </c>
+      <c r="AF61">
+        <v>1.08</v>
+      </c>
+      <c r="AG61">
+        <v>7</v>
+      </c>
+      <c r="AH61">
+        <v>1.4</v>
+      </c>
+      <c r="AI61">
+        <v>2.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2.05</v>
+      </c>
+      <c r="AK61">
+        <v>1.68</v>
+      </c>
+      <c r="AL61">
+        <v>2.3</v>
+      </c>
+      <c r="AM61">
+        <v>1.55</v>
+      </c>
+      <c r="AN61">
+        <v>1.08</v>
+      </c>
+      <c r="AO61">
+        <v>1.22</v>
+      </c>
+      <c r="AP61">
+        <v>2.2</v>
+      </c>
+      <c r="AQ61">
+        <v>3</v>
+      </c>
+      <c r="AR61">
+        <v>0.5</v>
+      </c>
+      <c r="AS61">
+        <v>3</v>
+      </c>
+      <c r="AT61">
+        <v>0.33</v>
+      </c>
+      <c r="AU61">
+        <v>1.81</v>
+      </c>
+      <c r="AV61">
+        <v>1.25</v>
+      </c>
+      <c r="AW61">
+        <v>3.06</v>
+      </c>
+      <c r="AX61">
+        <v>1.38</v>
+      </c>
+      <c r="AY61">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ61">
+        <v>3.5</v>
+      </c>
+      <c r="BA61">
+        <v>1.27</v>
+      </c>
+      <c r="BB61">
+        <v>1.52</v>
+      </c>
+      <c r="BC61">
+        <v>1.93</v>
+      </c>
+      <c r="BD61">
+        <v>2.48</v>
+      </c>
+      <c r="BE61">
+        <v>3.45</v>
+      </c>
+      <c r="BF61">
+        <v>5</v>
+      </c>
+      <c r="BG61">
+        <v>3</v>
+      </c>
+      <c r="BH61">
+        <v>7</v>
+      </c>
+      <c r="BI61">
+        <v>3</v>
+      </c>
+      <c r="BJ61">
+        <v>12</v>
+      </c>
+      <c r="BK61">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,15 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['47', '59']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['23', '45+4', '52', '63']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -427,9 +436,6 @@
     <t>['2', '49']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
   </si>
   <si>
     <t>['22', '36', '59']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -1305,7 +1314,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1496,7 +1505,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1687,7 +1696,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2069,7 +2078,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2451,7 +2460,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2833,7 +2842,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3111,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT12">
         <v>0.33</v>
@@ -3406,7 +3415,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3493,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>1.25</v>
@@ -3788,7 +3797,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -4066,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4170,7 +4179,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4361,7 +4370,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4451,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4642,7 +4651,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4743,7 +4752,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4833,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5024,7 +5033,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU22">
         <v>1.79</v>
@@ -5316,7 +5325,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5698,7 +5707,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5788,7 +5797,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>2.95</v>
@@ -5979,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6080,7 +6089,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6271,7 +6280,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6462,7 +6471,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6653,7 +6662,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6740,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -6844,7 +6853,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7035,7 +7044,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7226,7 +7235,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7417,7 +7426,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7799,7 +7808,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -7886,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
         <v>0.33</v>
@@ -8372,7 +8381,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8459,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
         <v>0.67</v>
@@ -8650,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT41">
         <v>0.33</v>
@@ -8945,7 +8954,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>11</v>
@@ -9223,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
         <v>0.33</v>
@@ -9518,7 +9527,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9608,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.28</v>
@@ -9796,7 +9805,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -9990,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU48">
         <v>1.56</v>
@@ -10091,7 +10100,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10282,7 +10291,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10372,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU50">
         <v>1.97</v>
@@ -11237,7 +11246,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11428,7 +11437,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11810,7 +11819,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12001,7 +12010,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12192,7 +12201,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12525,6 +12534,961 @@
       </c>
       <c r="BK61">
         <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5557228</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45083.83333333334</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>2.6</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>4.5</v>
+      </c>
+      <c r="W62">
+        <v>1.52</v>
+      </c>
+      <c r="X62">
+        <v>2.51</v>
+      </c>
+      <c r="Y62">
+        <v>3.15</v>
+      </c>
+      <c r="Z62">
+        <v>1.31</v>
+      </c>
+      <c r="AA62">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB62">
+        <v>1.03</v>
+      </c>
+      <c r="AC62">
+        <v>1.81</v>
+      </c>
+      <c r="AD62">
+        <v>3.35</v>
+      </c>
+      <c r="AE62">
+        <v>4.25</v>
+      </c>
+      <c r="AF62">
+        <v>1.07</v>
+      </c>
+      <c r="AG62">
+        <v>8</v>
+      </c>
+      <c r="AH62">
+        <v>1.41</v>
+      </c>
+      <c r="AI62">
+        <v>2.65</v>
+      </c>
+      <c r="AJ62">
+        <v>2.38</v>
+      </c>
+      <c r="AK62">
+        <v>1.55</v>
+      </c>
+      <c r="AL62">
+        <v>2.05</v>
+      </c>
+      <c r="AM62">
+        <v>1.68</v>
+      </c>
+      <c r="AN62">
+        <v>1.21</v>
+      </c>
+      <c r="AO62">
+        <v>1.31</v>
+      </c>
+      <c r="AP62">
+        <v>1.86</v>
+      </c>
+      <c r="AQ62">
+        <v>2.33</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>2.5</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>1.54</v>
+      </c>
+      <c r="AV62">
+        <v>1.45</v>
+      </c>
+      <c r="AW62">
+        <v>2.99</v>
+      </c>
+      <c r="AX62">
+        <v>1.59</v>
+      </c>
+      <c r="AY62">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ62">
+        <v>2.66</v>
+      </c>
+      <c r="BA62">
+        <v>1.22</v>
+      </c>
+      <c r="BB62">
+        <v>1.49</v>
+      </c>
+      <c r="BC62">
+        <v>1.81</v>
+      </c>
+      <c r="BD62">
+        <v>2.25</v>
+      </c>
+      <c r="BE62">
+        <v>3.05</v>
+      </c>
+      <c r="BF62">
+        <v>6</v>
+      </c>
+      <c r="BG62">
+        <v>3</v>
+      </c>
+      <c r="BH62">
+        <v>7</v>
+      </c>
+      <c r="BI62">
+        <v>6</v>
+      </c>
+      <c r="BJ62">
+        <v>13</v>
+      </c>
+      <c r="BK62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5557234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45084.66666666666</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>85</v>
+      </c>
+      <c r="P63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63">
+        <v>-1</v>
+      </c>
+      <c r="R63">
+        <v>-1</v>
+      </c>
+      <c r="S63">
+        <v>-1</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>4.2</v>
+      </c>
+      <c r="W63">
+        <v>1.55</v>
+      </c>
+      <c r="X63">
+        <v>2.43</v>
+      </c>
+      <c r="Y63">
+        <v>3.48</v>
+      </c>
+      <c r="Z63">
+        <v>1.26</v>
+      </c>
+      <c r="AA63">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB63">
+        <v>1.03</v>
+      </c>
+      <c r="AC63">
+        <v>2.45</v>
+      </c>
+      <c r="AD63">
+        <v>2.9</v>
+      </c>
+      <c r="AE63">
+        <v>2.8</v>
+      </c>
+      <c r="AF63">
+        <v>1.07</v>
+      </c>
+      <c r="AG63">
+        <v>8.6</v>
+      </c>
+      <c r="AH63">
+        <v>1.38</v>
+      </c>
+      <c r="AI63">
+        <v>2.82</v>
+      </c>
+      <c r="AJ63">
+        <v>2.2</v>
+      </c>
+      <c r="AK63">
+        <v>1.65</v>
+      </c>
+      <c r="AL63">
+        <v>2.05</v>
+      </c>
+      <c r="AM63">
+        <v>1.73</v>
+      </c>
+      <c r="AN63">
+        <v>1.28</v>
+      </c>
+      <c r="AO63">
+        <v>1.32</v>
+      </c>
+      <c r="AP63">
+        <v>1.61</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>2.33</v>
+      </c>
+      <c r="AS63">
+        <v>1.67</v>
+      </c>
+      <c r="AT63">
+        <v>2</v>
+      </c>
+      <c r="AU63">
+        <v>1.58</v>
+      </c>
+      <c r="AV63">
+        <v>1.67</v>
+      </c>
+      <c r="AW63">
+        <v>3.25</v>
+      </c>
+      <c r="AX63">
+        <v>1.82</v>
+      </c>
+      <c r="AY63">
+        <v>8.5</v>
+      </c>
+      <c r="AZ63">
+        <v>2.22</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>1.55</v>
+      </c>
+      <c r="BC63">
+        <v>1.98</v>
+      </c>
+      <c r="BD63">
+        <v>2.37</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>-1</v>
+      </c>
+      <c r="BG63">
+        <v>-1</v>
+      </c>
+      <c r="BH63">
+        <v>-1</v>
+      </c>
+      <c r="BI63">
+        <v>-1</v>
+      </c>
+      <c r="BJ63">
+        <v>-1</v>
+      </c>
+      <c r="BK63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5557229</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45084.75</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q64">
+        <v>7</v>
+      </c>
+      <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>13</v>
+      </c>
+      <c r="T64">
+        <v>2.55</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>5.05</v>
+      </c>
+      <c r="W64">
+        <v>1.54</v>
+      </c>
+      <c r="X64">
+        <v>2.32</v>
+      </c>
+      <c r="Y64">
+        <v>3.56</v>
+      </c>
+      <c r="Z64">
+        <v>1.25</v>
+      </c>
+      <c r="AA64">
+        <v>9.5</v>
+      </c>
+      <c r="AB64">
+        <v>1.04</v>
+      </c>
+      <c r="AC64">
+        <v>2</v>
+      </c>
+      <c r="AD64">
+        <v>3</v>
+      </c>
+      <c r="AE64">
+        <v>3.8</v>
+      </c>
+      <c r="AF64">
+        <v>1.07</v>
+      </c>
+      <c r="AG64">
+        <v>6.35</v>
+      </c>
+      <c r="AH64">
+        <v>1.47</v>
+      </c>
+      <c r="AI64">
+        <v>2.55</v>
+      </c>
+      <c r="AJ64">
+        <v>2.55</v>
+      </c>
+      <c r="AK64">
+        <v>1.5</v>
+      </c>
+      <c r="AL64">
+        <v>2.17</v>
+      </c>
+      <c r="AM64">
+        <v>1.58</v>
+      </c>
+      <c r="AN64">
+        <v>1.18</v>
+      </c>
+      <c r="AO64">
+        <v>1.31</v>
+      </c>
+      <c r="AP64">
+        <v>1.8</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>1.86</v>
+      </c>
+      <c r="AV64">
+        <v>0.86</v>
+      </c>
+      <c r="AW64">
+        <v>2.72</v>
+      </c>
+      <c r="AX64">
+        <v>1.53</v>
+      </c>
+      <c r="AY64">
+        <v>9.1</v>
+      </c>
+      <c r="AZ64">
+        <v>2.82</v>
+      </c>
+      <c r="BA64">
+        <v>1.2</v>
+      </c>
+      <c r="BB64">
+        <v>1.37</v>
+      </c>
+      <c r="BC64">
+        <v>1.88</v>
+      </c>
+      <c r="BD64">
+        <v>2.02</v>
+      </c>
+      <c r="BE64">
+        <v>2.64</v>
+      </c>
+      <c r="BF64">
+        <v>4</v>
+      </c>
+      <c r="BG64">
+        <v>4</v>
+      </c>
+      <c r="BH64">
+        <v>11</v>
+      </c>
+      <c r="BI64">
+        <v>9</v>
+      </c>
+      <c r="BJ64">
+        <v>15</v>
+      </c>
+      <c r="BK64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5557227</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45084.79166666666</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>85</v>
+      </c>
+      <c r="P65" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q65">
+        <v>19</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>19</v>
+      </c>
+      <c r="T65">
+        <v>2.6</v>
+      </c>
+      <c r="U65">
+        <v>1.95</v>
+      </c>
+      <c r="V65">
+        <v>4.5</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>1.9</v>
+      </c>
+      <c r="AD65">
+        <v>3.3</v>
+      </c>
+      <c r="AE65">
+        <v>3.7</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>1.5</v>
+      </c>
+      <c r="AI65">
+        <v>2.5</v>
+      </c>
+      <c r="AJ65">
+        <v>2.3</v>
+      </c>
+      <c r="AK65">
+        <v>1.57</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>2.33</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>2</v>
+      </c>
+      <c r="AT65">
+        <v>0.25</v>
+      </c>
+      <c r="AU65">
+        <v>1.95</v>
+      </c>
+      <c r="AV65">
+        <v>1</v>
+      </c>
+      <c r="AW65">
+        <v>2.95</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>8</v>
+      </c>
+      <c r="BG65">
+        <v>2</v>
+      </c>
+      <c r="BH65">
+        <v>17</v>
+      </c>
+      <c r="BI65">
+        <v>1</v>
+      </c>
+      <c r="BJ65">
+        <v>25</v>
+      </c>
+      <c r="BK65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5557225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45084.89583333334</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>2.6</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>4.5</v>
+      </c>
+      <c r="W66">
+        <v>1.48</v>
+      </c>
+      <c r="X66">
+        <v>2.5</v>
+      </c>
+      <c r="Y66">
+        <v>3.1</v>
+      </c>
+      <c r="Z66">
+        <v>1.32</v>
+      </c>
+      <c r="AA66">
+        <v>7.25</v>
+      </c>
+      <c r="AB66">
+        <v>1.06</v>
+      </c>
+      <c r="AC66">
+        <v>1.73</v>
+      </c>
+      <c r="AD66">
+        <v>3.3</v>
+      </c>
+      <c r="AE66">
+        <v>4.6</v>
+      </c>
+      <c r="AF66">
+        <v>1.07</v>
+      </c>
+      <c r="AG66">
+        <v>8.75</v>
+      </c>
+      <c r="AH66">
+        <v>1.37</v>
+      </c>
+      <c r="AI66">
+        <v>2.84</v>
+      </c>
+      <c r="AJ66">
+        <v>2.3</v>
+      </c>
+      <c r="AK66">
+        <v>1.57</v>
+      </c>
+      <c r="AL66">
+        <v>2</v>
+      </c>
+      <c r="AM66">
+        <v>1.72</v>
+      </c>
+      <c r="AN66">
+        <v>1.2</v>
+      </c>
+      <c r="AO66">
+        <v>1.3</v>
+      </c>
+      <c r="AP66">
+        <v>1.9</v>
+      </c>
+      <c r="AQ66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66">
+        <v>2.33</v>
+      </c>
+      <c r="AT66">
+        <v>0.75</v>
+      </c>
+      <c r="AU66">
+        <v>1.74</v>
+      </c>
+      <c r="AV66">
+        <v>1.41</v>
+      </c>
+      <c r="AW66">
+        <v>3.15</v>
+      </c>
+      <c r="AX66">
+        <v>1.58</v>
+      </c>
+      <c r="AY66">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ66">
+        <v>2.69</v>
+      </c>
+      <c r="BA66">
+        <v>1.25</v>
+      </c>
+      <c r="BB66">
+        <v>1.44</v>
+      </c>
+      <c r="BC66">
+        <v>1.83</v>
+      </c>
+      <c r="BD66">
+        <v>2.27</v>
+      </c>
+      <c r="BE66">
+        <v>3.2</v>
+      </c>
+      <c r="BF66">
+        <v>13</v>
+      </c>
+      <c r="BG66">
+        <v>4</v>
+      </c>
+      <c r="BH66">
+        <v>5</v>
+      </c>
+      <c r="BI66">
+        <v>9</v>
+      </c>
+      <c r="BJ66">
+        <v>18</v>
+      </c>
+      <c r="BK66">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,15 @@
     <t>['23', '45+4', '52', '63']</t>
   </si>
   <si>
+    <t>['3', '90+6']</t>
+  </si>
+  <si>
+    <t>['60', '69']</t>
+  </si>
+  <si>
+    <t>['6', '90+5']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -518,6 +527,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['50', '73']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK66"/>
+  <dimension ref="A1:BK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1505,7 +1517,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1696,7 +1708,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1786,7 +1798,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2356,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2460,7 +2472,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2842,7 +2854,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3123,7 +3135,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3311,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -3415,7 +3427,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3696,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3797,7 +3809,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -4179,7 +4191,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4266,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4370,7 +4382,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4648,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT20">
         <v>0.25</v>
@@ -4752,7 +4764,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5325,7 +5337,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5415,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>2.19</v>
@@ -5603,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5707,7 +5719,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6089,7 +6101,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6280,7 +6292,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6367,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>1.67</v>
@@ -6471,7 +6483,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6662,7 +6674,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6853,7 +6865,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6943,7 +6955,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7044,7 +7056,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7235,7 +7247,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7322,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7426,7 +7438,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7704,10 +7716,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
+        <v>1.75</v>
+      </c>
+      <c r="AT36">
         <v>1.33</v>
-      </c>
-      <c r="AT36">
-        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>2.77</v>
@@ -7808,7 +7820,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8280,7 +8292,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8381,7 +8393,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8954,7 +8966,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>11</v>
@@ -9235,7 +9247,7 @@
         <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU44">
         <v>1.5</v>
@@ -9423,10 +9435,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9527,7 +9539,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9614,7 +9626,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -10100,7 +10112,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10187,7 +10199,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
         <v>1.75</v>
@@ -10291,7 +10303,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10378,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT50">
         <v>0.75</v>
@@ -11246,7 +11258,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11437,7 +11449,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11819,7 +11831,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12010,7 +12022,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12201,7 +12213,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12777,13 +12789,13 @@
         <v>85</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S63">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T63">
         <v>3</v>
@@ -12900,22 +12912,22 @@
         <v>0</v>
       </c>
       <c r="BF63">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH63">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI63">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ63">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK63">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:63">
@@ -12965,7 +12977,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13489,6 +13501,961 @@
       </c>
       <c r="BK66">
         <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5557226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45085.6875</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>8</v>
+      </c>
+      <c r="T67">
+        <v>2.4</v>
+      </c>
+      <c r="U67">
+        <v>1.95</v>
+      </c>
+      <c r="V67">
+        <v>5.75</v>
+      </c>
+      <c r="W67">
+        <v>1.56</v>
+      </c>
+      <c r="X67">
+        <v>2.3</v>
+      </c>
+      <c r="Y67">
+        <v>3.4</v>
+      </c>
+      <c r="Z67">
+        <v>1.3</v>
+      </c>
+      <c r="AA67">
+        <v>8</v>
+      </c>
+      <c r="AB67">
+        <v>1.06</v>
+      </c>
+      <c r="AC67">
+        <v>1.9</v>
+      </c>
+      <c r="AD67">
+        <v>3.25</v>
+      </c>
+      <c r="AE67">
+        <v>3.8</v>
+      </c>
+      <c r="AF67">
+        <v>1.11</v>
+      </c>
+      <c r="AG67">
+        <v>6</v>
+      </c>
+      <c r="AH67">
+        <v>1.48</v>
+      </c>
+      <c r="AI67">
+        <v>2.46</v>
+      </c>
+      <c r="AJ67">
+        <v>2.4</v>
+      </c>
+      <c r="AK67">
+        <v>1.52</v>
+      </c>
+      <c r="AL67">
+        <v>2.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.59</v>
+      </c>
+      <c r="AN67">
+        <v>1.14</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>0.33</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>0.5</v>
+      </c>
+      <c r="AU67">
+        <v>2.01</v>
+      </c>
+      <c r="AV67">
+        <v>1.9</v>
+      </c>
+      <c r="AW67">
+        <v>3.91</v>
+      </c>
+      <c r="AX67">
+        <v>1.61</v>
+      </c>
+      <c r="AY67">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ67">
+        <v>2.58</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>1.32</v>
+      </c>
+      <c r="BC67">
+        <v>1.65</v>
+      </c>
+      <c r="BD67">
+        <v>2.02</v>
+      </c>
+      <c r="BE67">
+        <v>2.5</v>
+      </c>
+      <c r="BF67">
+        <v>7</v>
+      </c>
+      <c r="BG67">
+        <v>2</v>
+      </c>
+      <c r="BH67">
+        <v>12</v>
+      </c>
+      <c r="BI67">
+        <v>8</v>
+      </c>
+      <c r="BJ67">
+        <v>19</v>
+      </c>
+      <c r="BK67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5557231</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45085.77083333334</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>7</v>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>3.6</v>
+      </c>
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
+        <v>3.15</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>2.4</v>
+      </c>
+      <c r="Y68">
+        <v>3.3</v>
+      </c>
+      <c r="Z68">
+        <v>1.28</v>
+      </c>
+      <c r="AA68">
+        <v>7.75</v>
+      </c>
+      <c r="AB68">
+        <v>1.05</v>
+      </c>
+      <c r="AC68">
+        <v>3.35</v>
+      </c>
+      <c r="AD68">
+        <v>3.05</v>
+      </c>
+      <c r="AE68">
+        <v>2.15</v>
+      </c>
+      <c r="AF68">
+        <v>1.1</v>
+      </c>
+      <c r="AG68">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH68">
+        <v>1.45</v>
+      </c>
+      <c r="AI68">
+        <v>2.68</v>
+      </c>
+      <c r="AJ68">
+        <v>2.4</v>
+      </c>
+      <c r="AK68">
+        <v>1.52</v>
+      </c>
+      <c r="AL68">
+        <v>1.95</v>
+      </c>
+      <c r="AM68">
+        <v>1.75</v>
+      </c>
+      <c r="AN68">
+        <v>1.5</v>
+      </c>
+      <c r="AO68">
+        <v>1.35</v>
+      </c>
+      <c r="AP68">
+        <v>1.38</v>
+      </c>
+      <c r="AQ68">
+        <v>1.33</v>
+      </c>
+      <c r="AR68">
+        <v>2</v>
+      </c>
+      <c r="AS68">
+        <v>1.75</v>
+      </c>
+      <c r="AT68">
+        <v>1.5</v>
+      </c>
+      <c r="AU68">
+        <v>1.65</v>
+      </c>
+      <c r="AV68">
+        <v>1.61</v>
+      </c>
+      <c r="AW68">
+        <v>3.26</v>
+      </c>
+      <c r="AX68">
+        <v>2.12</v>
+      </c>
+      <c r="AY68">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ68">
+        <v>1.91</v>
+      </c>
+      <c r="BA68">
+        <v>1.38</v>
+      </c>
+      <c r="BB68">
+        <v>1.8</v>
+      </c>
+      <c r="BC68">
+        <v>2.12</v>
+      </c>
+      <c r="BD68">
+        <v>3</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <v>8</v>
+      </c>
+      <c r="BH68">
+        <v>12</v>
+      </c>
+      <c r="BI68">
+        <v>9</v>
+      </c>
+      <c r="BJ68">
+        <v>17</v>
+      </c>
+      <c r="BK68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5557232</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45085.79166666666</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69">
+        <v>11</v>
+      </c>
+      <c r="T69">
+        <v>3.1</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
+        <v>3.7</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>2.62</v>
+      </c>
+      <c r="Y69">
+        <v>3.2</v>
+      </c>
+      <c r="Z69">
+        <v>1.3</v>
+      </c>
+      <c r="AA69">
+        <v>8.5</v>
+      </c>
+      <c r="AB69">
+        <v>1.05</v>
+      </c>
+      <c r="AC69">
+        <v>2.3</v>
+      </c>
+      <c r="AD69">
+        <v>2.8</v>
+      </c>
+      <c r="AE69">
+        <v>3.3</v>
+      </c>
+      <c r="AF69">
+        <v>1.1</v>
+      </c>
+      <c r="AG69">
+        <v>6.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.5</v>
+      </c>
+      <c r="AI69">
+        <v>2.45</v>
+      </c>
+      <c r="AJ69">
+        <v>2.43</v>
+      </c>
+      <c r="AK69">
+        <v>1.5</v>
+      </c>
+      <c r="AL69">
+        <v>1.95</v>
+      </c>
+      <c r="AM69">
+        <v>1.77</v>
+      </c>
+      <c r="AN69">
+        <v>1.35</v>
+      </c>
+      <c r="AO69">
+        <v>1.35</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>0.5</v>
+      </c>
+      <c r="AS69">
+        <v>0.75</v>
+      </c>
+      <c r="AT69">
+        <v>1.33</v>
+      </c>
+      <c r="AU69">
+        <v>1.78</v>
+      </c>
+      <c r="AV69">
+        <v>1.11</v>
+      </c>
+      <c r="AW69">
+        <v>2.89</v>
+      </c>
+      <c r="AX69">
+        <v>1.74</v>
+      </c>
+      <c r="AY69">
+        <v>8.6</v>
+      </c>
+      <c r="AZ69">
+        <v>2.34</v>
+      </c>
+      <c r="BA69">
+        <v>1.23</v>
+      </c>
+      <c r="BB69">
+        <v>1.41</v>
+      </c>
+      <c r="BC69">
+        <v>1.93</v>
+      </c>
+      <c r="BD69">
+        <v>2.05</v>
+      </c>
+      <c r="BE69">
+        <v>3.1</v>
+      </c>
+      <c r="BF69">
+        <v>6</v>
+      </c>
+      <c r="BG69">
+        <v>8</v>
+      </c>
+      <c r="BH69">
+        <v>7</v>
+      </c>
+      <c r="BI69">
+        <v>5</v>
+      </c>
+      <c r="BJ69">
+        <v>13</v>
+      </c>
+      <c r="BK69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5557230</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45085.83333333334</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
+      </c>
+      <c r="S70">
+        <v>11</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
+        <v>7</v>
+      </c>
+      <c r="W70">
+        <v>1.58</v>
+      </c>
+      <c r="X70">
+        <v>2.25</v>
+      </c>
+      <c r="Y70">
+        <v>3.7</v>
+      </c>
+      <c r="Z70">
+        <v>1.24</v>
+      </c>
+      <c r="AA70">
+        <v>8.75</v>
+      </c>
+      <c r="AB70">
+        <v>1.04</v>
+      </c>
+      <c r="AC70">
+        <v>1.5</v>
+      </c>
+      <c r="AD70">
+        <v>3.1</v>
+      </c>
+      <c r="AE70">
+        <v>7</v>
+      </c>
+      <c r="AF70">
+        <v>1.13</v>
+      </c>
+      <c r="AG70">
+        <v>6.45</v>
+      </c>
+      <c r="AH70">
+        <v>1.55</v>
+      </c>
+      <c r="AI70">
+        <v>2.31</v>
+      </c>
+      <c r="AJ70">
+        <v>2.45</v>
+      </c>
+      <c r="AK70">
+        <v>1.48</v>
+      </c>
+      <c r="AL70">
+        <v>2.65</v>
+      </c>
+      <c r="AM70">
+        <v>1.42</v>
+      </c>
+      <c r="AN70">
+        <v>1.11</v>
+      </c>
+      <c r="AO70">
+        <v>1.3</v>
+      </c>
+      <c r="AP70">
+        <v>2.2</v>
+      </c>
+      <c r="AQ70">
+        <v>1.33</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>1.75</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>1.71</v>
+      </c>
+      <c r="AV70">
+        <v>1.1</v>
+      </c>
+      <c r="AW70">
+        <v>2.81</v>
+      </c>
+      <c r="AX70">
+        <v>1.44</v>
+      </c>
+      <c r="AY70">
+        <v>9.5</v>
+      </c>
+      <c r="AZ70">
+        <v>3.14</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>1.63</v>
+      </c>
+      <c r="BD70">
+        <v>2</v>
+      </c>
+      <c r="BE70">
+        <v>2.6</v>
+      </c>
+      <c r="BF70">
+        <v>7</v>
+      </c>
+      <c r="BG70">
+        <v>4</v>
+      </c>
+      <c r="BH70">
+        <v>7</v>
+      </c>
+      <c r="BI70">
+        <v>6</v>
+      </c>
+      <c r="BJ70">
+        <v>14</v>
+      </c>
+      <c r="BK70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5557233</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45085.89583333334</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q71">
+        <v>5</v>
+      </c>
+      <c r="R71">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <v>12</v>
+      </c>
+      <c r="T71">
+        <v>2.52</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>4.62</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>2.62</v>
+      </c>
+      <c r="Y71">
+        <v>3.24</v>
+      </c>
+      <c r="Z71">
+        <v>1.33</v>
+      </c>
+      <c r="AA71">
+        <v>8</v>
+      </c>
+      <c r="AB71">
+        <v>1.06</v>
+      </c>
+      <c r="AC71">
+        <v>2.1</v>
+      </c>
+      <c r="AD71">
+        <v>3.1</v>
+      </c>
+      <c r="AE71">
+        <v>3.35</v>
+      </c>
+      <c r="AF71">
+        <v>1.1</v>
+      </c>
+      <c r="AG71">
+        <v>6.5</v>
+      </c>
+      <c r="AH71">
+        <v>1.45</v>
+      </c>
+      <c r="AI71">
+        <v>2.63</v>
+      </c>
+      <c r="AJ71">
+        <v>2.28</v>
+      </c>
+      <c r="AK71">
+        <v>1.58</v>
+      </c>
+      <c r="AL71">
+        <v>2.05</v>
+      </c>
+      <c r="AM71">
+        <v>1.73</v>
+      </c>
+      <c r="AN71">
+        <v>1.2</v>
+      </c>
+      <c r="AO71">
+        <v>1.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.83</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.5</v>
+      </c>
+      <c r="AS71">
+        <v>2.25</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+      <c r="AU71">
+        <v>1.52</v>
+      </c>
+      <c r="AV71">
+        <v>1.31</v>
+      </c>
+      <c r="AW71">
+        <v>2.83</v>
+      </c>
+      <c r="AX71">
+        <v>1.68</v>
+      </c>
+      <c r="AY71">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ71">
+        <v>2.45</v>
+      </c>
+      <c r="BA71">
+        <v>1.21</v>
+      </c>
+      <c r="BB71">
+        <v>1.4</v>
+      </c>
+      <c r="BC71">
+        <v>1.67</v>
+      </c>
+      <c r="BD71">
+        <v>2</v>
+      </c>
+      <c r="BE71">
+        <v>2.95</v>
+      </c>
+      <c r="BF71">
+        <v>7</v>
+      </c>
+      <c r="BG71">
+        <v>7</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>10</v>
+      </c>
+      <c r="BJ71">
+        <v>7</v>
+      </c>
+      <c r="BK71">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -891,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK71"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT3">
         <v>1.33</v>
@@ -4472,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU26">
         <v>2.95</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -9629,7 +9629,7 @@
         <v>2.25</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU46">
         <v>1.28</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT48">
         <v>0.25</v>
@@ -12876,7 +12876,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -14456,6 +14456,197 @@
       </c>
       <c r="BK71">
         <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5557239</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45087.79166666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>98</v>
+      </c>
+      <c r="P72" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q72">
+        <v>6</v>
+      </c>
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72">
+        <v>12</v>
+      </c>
+      <c r="T72">
+        <v>2.88</v>
+      </c>
+      <c r="U72">
+        <v>1.91</v>
+      </c>
+      <c r="V72">
+        <v>4</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>2.62</v>
+      </c>
+      <c r="Y72">
+        <v>3.25</v>
+      </c>
+      <c r="Z72">
+        <v>1.33</v>
+      </c>
+      <c r="AA72">
+        <v>8</v>
+      </c>
+      <c r="AB72">
+        <v>1.06</v>
+      </c>
+      <c r="AC72">
+        <v>2.05</v>
+      </c>
+      <c r="AD72">
+        <v>2.88</v>
+      </c>
+      <c r="AE72">
+        <v>3.4</v>
+      </c>
+      <c r="AF72">
+        <v>1.1</v>
+      </c>
+      <c r="AG72">
+        <v>6.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.4</v>
+      </c>
+      <c r="AI72">
+        <v>2.75</v>
+      </c>
+      <c r="AJ72">
+        <v>2.3</v>
+      </c>
+      <c r="AK72">
+        <v>1.53</v>
+      </c>
+      <c r="AL72">
+        <v>2</v>
+      </c>
+      <c r="AM72">
+        <v>1.73</v>
+      </c>
+      <c r="AN72">
+        <v>1.22</v>
+      </c>
+      <c r="AO72">
+        <v>1.36</v>
+      </c>
+      <c r="AP72">
+        <v>1.67</v>
+      </c>
+      <c r="AQ72">
+        <v>2</v>
+      </c>
+      <c r="AR72">
+        <v>2</v>
+      </c>
+      <c r="AS72">
+        <v>2.25</v>
+      </c>
+      <c r="AT72">
+        <v>1.6</v>
+      </c>
+      <c r="AU72">
+        <v>1.45</v>
+      </c>
+      <c r="AV72">
+        <v>1.53</v>
+      </c>
+      <c r="AW72">
+        <v>2.98</v>
+      </c>
+      <c r="AX72">
+        <v>1.46</v>
+      </c>
+      <c r="AY72">
+        <v>9.1</v>
+      </c>
+      <c r="AZ72">
+        <v>3.1</v>
+      </c>
+      <c r="BA72">
+        <v>1.28</v>
+      </c>
+      <c r="BB72">
+        <v>1.58</v>
+      </c>
+      <c r="BC72">
+        <v>1.94</v>
+      </c>
+      <c r="BD72">
+        <v>2.38</v>
+      </c>
+      <c r="BE72">
+        <v>3.5</v>
+      </c>
+      <c r="BF72">
+        <v>4</v>
+      </c>
+      <c r="BG72">
+        <v>5</v>
+      </c>
+      <c r="BH72">
+        <v>11</v>
+      </c>
+      <c r="BI72">
+        <v>13</v>
+      </c>
+      <c r="BJ72">
+        <v>15</v>
+      </c>
+      <c r="BK72">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['6', '90+5']</t>
   </si>
   <si>
+    <t>['37', '90']</t>
+  </si>
+  <si>
+    <t>['10', '88']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -530,6 +536,9 @@
   </si>
   <si>
     <t>['50', '73']</t>
+  </si>
+  <si>
+    <t>['5', '65']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1517,7 +1526,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1708,7 +1717,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1795,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2472,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2854,7 +2863,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2944,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3132,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>0.5</v>
@@ -3323,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -3427,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3517,7 +3526,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3708,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3809,7 +3818,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -3896,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4087,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4191,7 +4200,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4278,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4382,7 +4391,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4764,7 +4773,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4854,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5042,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.25</v>
@@ -5337,7 +5346,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5615,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5719,7 +5728,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5806,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -6000,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6101,7 +6110,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6292,7 +6301,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6379,10 +6388,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6483,7 +6492,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6674,7 +6683,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6761,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>2.25</v>
@@ -6865,7 +6874,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7056,7 +7065,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7247,7 +7256,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7438,7 +7447,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7719,7 +7728,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>2.77</v>
@@ -7820,7 +7829,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -7907,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>0.33</v>
@@ -8393,7 +8402,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8674,7 +8683,7 @@
         <v>2.33</v>
       </c>
       <c r="AT41">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -8862,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -8966,7 +8975,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>11</v>
@@ -9056,7 +9065,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9539,7 +9548,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9817,7 +9826,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10112,7 +10121,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10199,7 +10208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT49">
         <v>1.75</v>
@@ -10303,7 +10312,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10390,10 +10399,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT50">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU50">
         <v>1.97</v>
@@ -10772,7 +10781,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
         <v>0.33</v>
@@ -11157,7 +11166,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11258,7 +11267,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11449,7 +11458,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11539,7 +11548,7 @@
         <v>1.75</v>
       </c>
       <c r="AT56">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11730,7 +11739,7 @@
         <v>2.33</v>
       </c>
       <c r="AT57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.25</v>
@@ -11831,7 +11840,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12022,7 +12031,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12109,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12213,7 +12222,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12873,7 +12882,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT63">
         <v>1.6</v>
@@ -12977,7 +12986,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13255,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT65">
         <v>0.25</v>
@@ -13449,7 +13458,7 @@
         <v>2.33</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13828,7 +13837,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -13932,7 +13941,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14019,10 +14028,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT69">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14123,7 +14132,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14647,6 +14656,1152 @@
       </c>
       <c r="BK72">
         <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5557244</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>-1</v>
+      </c>
+      <c r="S73">
+        <v>-1</v>
+      </c>
+      <c r="T73">
+        <v>2.8</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
+        <v>3.9</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.62</v>
+      </c>
+      <c r="Y73">
+        <v>3.25</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>8</v>
+      </c>
+      <c r="AB73">
+        <v>1.06</v>
+      </c>
+      <c r="AC73">
+        <v>2.17</v>
+      </c>
+      <c r="AD73">
+        <v>2.95</v>
+      </c>
+      <c r="AE73">
+        <v>3.35</v>
+      </c>
+      <c r="AF73">
+        <v>1.1</v>
+      </c>
+      <c r="AG73">
+        <v>6.5</v>
+      </c>
+      <c r="AH73">
+        <v>1.4</v>
+      </c>
+      <c r="AI73">
+        <v>2.75</v>
+      </c>
+      <c r="AJ73">
+        <v>2.25</v>
+      </c>
+      <c r="AK73">
+        <v>1.53</v>
+      </c>
+      <c r="AL73">
+        <v>2</v>
+      </c>
+      <c r="AM73">
+        <v>1.73</v>
+      </c>
+      <c r="AN73">
+        <v>1.29</v>
+      </c>
+      <c r="AO73">
+        <v>1.36</v>
+      </c>
+      <c r="AP73">
+        <v>1.62</v>
+      </c>
+      <c r="AQ73">
+        <v>1.67</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>2</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>1.74</v>
+      </c>
+      <c r="AV73">
+        <v>1.17</v>
+      </c>
+      <c r="AW73">
+        <v>2.91</v>
+      </c>
+      <c r="AX73">
+        <v>1.57</v>
+      </c>
+      <c r="AY73">
+        <v>8.9</v>
+      </c>
+      <c r="AZ73">
+        <v>2.71</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>1.47</v>
+      </c>
+      <c r="BC73">
+        <v>1.88</v>
+      </c>
+      <c r="BD73">
+        <v>2.34</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>-1</v>
+      </c>
+      <c r="BG73">
+        <v>-1</v>
+      </c>
+      <c r="BH73">
+        <v>-1</v>
+      </c>
+      <c r="BI73">
+        <v>-1</v>
+      </c>
+      <c r="BJ73">
+        <v>-1</v>
+      </c>
+      <c r="BK73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5557242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45088.6875</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>82</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q74">
+        <v>-1</v>
+      </c>
+      <c r="R74">
+        <v>-1</v>
+      </c>
+      <c r="S74">
+        <v>-1</v>
+      </c>
+      <c r="T74">
+        <v>2.9</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
+        <v>3.7</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>2.4</v>
+      </c>
+      <c r="Y74">
+        <v>3.25</v>
+      </c>
+      <c r="Z74">
+        <v>1.33</v>
+      </c>
+      <c r="AA74">
+        <v>8</v>
+      </c>
+      <c r="AB74">
+        <v>1.06</v>
+      </c>
+      <c r="AC74">
+        <v>2.32</v>
+      </c>
+      <c r="AD74">
+        <v>3.1</v>
+      </c>
+      <c r="AE74">
+        <v>2.9</v>
+      </c>
+      <c r="AF74">
+        <v>1.1</v>
+      </c>
+      <c r="AG74">
+        <v>6.5</v>
+      </c>
+      <c r="AH74">
+        <v>1.4</v>
+      </c>
+      <c r="AI74">
+        <v>2.75</v>
+      </c>
+      <c r="AJ74">
+        <v>2.25</v>
+      </c>
+      <c r="AK74">
+        <v>1.53</v>
+      </c>
+      <c r="AL74">
+        <v>1.95</v>
+      </c>
+      <c r="AM74">
+        <v>1.75</v>
+      </c>
+      <c r="AN74">
+        <v>1.3</v>
+      </c>
+      <c r="AO74">
+        <v>1.28</v>
+      </c>
+      <c r="AP74">
+        <v>1.5</v>
+      </c>
+      <c r="AQ74">
+        <v>0.75</v>
+      </c>
+      <c r="AR74">
+        <v>0.33</v>
+      </c>
+      <c r="AS74">
+        <v>0.6</v>
+      </c>
+      <c r="AT74">
+        <v>1</v>
+      </c>
+      <c r="AU74">
+        <v>1.79</v>
+      </c>
+      <c r="AV74">
+        <v>1.4</v>
+      </c>
+      <c r="AW74">
+        <v>3.19</v>
+      </c>
+      <c r="AX74">
+        <v>1.76</v>
+      </c>
+      <c r="AY74">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ74">
+        <v>2.3</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>1.43</v>
+      </c>
+      <c r="BC74">
+        <v>1.75</v>
+      </c>
+      <c r="BD74">
+        <v>2.23</v>
+      </c>
+      <c r="BE74">
+        <v>2.7</v>
+      </c>
+      <c r="BF74">
+        <v>-1</v>
+      </c>
+      <c r="BG74">
+        <v>-1</v>
+      </c>
+      <c r="BH74">
+        <v>-1</v>
+      </c>
+      <c r="BI74">
+        <v>-1</v>
+      </c>
+      <c r="BJ74">
+        <v>-1</v>
+      </c>
+      <c r="BK74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>5557237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45088.6875</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q75">
+        <v>-1</v>
+      </c>
+      <c r="R75">
+        <v>-1</v>
+      </c>
+      <c r="S75">
+        <v>-1</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
+        <v>1.91</v>
+      </c>
+      <c r="V75">
+        <v>4.5</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>2.04</v>
+      </c>
+      <c r="AD75">
+        <v>3.1</v>
+      </c>
+      <c r="AE75">
+        <v>3.5</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>1.5</v>
+      </c>
+      <c r="AI75">
+        <v>2.4</v>
+      </c>
+      <c r="AJ75">
+        <v>2.52</v>
+      </c>
+      <c r="AK75">
+        <v>1.46</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>1.67</v>
+      </c>
+      <c r="AS75">
+        <v>2.2</v>
+      </c>
+      <c r="AT75">
+        <v>1.25</v>
+      </c>
+      <c r="AU75">
+        <v>2.22</v>
+      </c>
+      <c r="AV75">
+        <v>1.2</v>
+      </c>
+      <c r="AW75">
+        <v>3.42</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>0</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>-1</v>
+      </c>
+      <c r="BG75">
+        <v>-1</v>
+      </c>
+      <c r="BH75">
+        <v>-1</v>
+      </c>
+      <c r="BI75">
+        <v>-1</v>
+      </c>
+      <c r="BJ75">
+        <v>-1</v>
+      </c>
+      <c r="BK75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5557241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45088.79166666666</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76">
+        <v>8</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>12</v>
+      </c>
+      <c r="T76">
+        <v>2.8</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>3.9</v>
+      </c>
+      <c r="W76">
+        <v>1.54</v>
+      </c>
+      <c r="X76">
+        <v>2.36</v>
+      </c>
+      <c r="Y76">
+        <v>3.25</v>
+      </c>
+      <c r="Z76">
+        <v>1.33</v>
+      </c>
+      <c r="AA76">
+        <v>8</v>
+      </c>
+      <c r="AB76">
+        <v>1.06</v>
+      </c>
+      <c r="AC76">
+        <v>2.22</v>
+      </c>
+      <c r="AD76">
+        <v>3</v>
+      </c>
+      <c r="AE76">
+        <v>3.2</v>
+      </c>
+      <c r="AF76">
+        <v>1.1</v>
+      </c>
+      <c r="AG76">
+        <v>6.5</v>
+      </c>
+      <c r="AH76">
+        <v>1.4</v>
+      </c>
+      <c r="AI76">
+        <v>2.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2.25</v>
+      </c>
+      <c r="AK76">
+        <v>1.53</v>
+      </c>
+      <c r="AL76">
+        <v>1.95</v>
+      </c>
+      <c r="AM76">
+        <v>1.75</v>
+      </c>
+      <c r="AN76">
+        <v>1.25</v>
+      </c>
+      <c r="AO76">
+        <v>1.3</v>
+      </c>
+      <c r="AP76">
+        <v>1.57</v>
+      </c>
+      <c r="AQ76">
+        <v>1.75</v>
+      </c>
+      <c r="AR76">
+        <v>0.75</v>
+      </c>
+      <c r="AS76">
+        <v>1.6</v>
+      </c>
+      <c r="AT76">
+        <v>0.8</v>
+      </c>
+      <c r="AU76">
+        <v>1.71</v>
+      </c>
+      <c r="AV76">
+        <v>1.41</v>
+      </c>
+      <c r="AW76">
+        <v>3.12</v>
+      </c>
+      <c r="AX76">
+        <v>1.57</v>
+      </c>
+      <c r="AY76">
+        <v>8.6</v>
+      </c>
+      <c r="AZ76">
+        <v>2.74</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>1.57</v>
+      </c>
+      <c r="BC76">
+        <v>1.97</v>
+      </c>
+      <c r="BD76">
+        <v>2.6</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>12</v>
+      </c>
+      <c r="BG76">
+        <v>5</v>
+      </c>
+      <c r="BH76">
+        <v>6</v>
+      </c>
+      <c r="BI76">
+        <v>6</v>
+      </c>
+      <c r="BJ76">
+        <v>18</v>
+      </c>
+      <c r="BK76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5557235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45088.79166666666</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>65</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>124</v>
+      </c>
+      <c r="P77" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>9</v>
+      </c>
+      <c r="S77">
+        <v>14</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>4.5</v>
+      </c>
+      <c r="W77">
+        <v>1.44</v>
+      </c>
+      <c r="X77">
+        <v>2.62</v>
+      </c>
+      <c r="Y77">
+        <v>3.2</v>
+      </c>
+      <c r="Z77">
+        <v>1.3</v>
+      </c>
+      <c r="AA77">
+        <v>8.5</v>
+      </c>
+      <c r="AB77">
+        <v>1.05</v>
+      </c>
+      <c r="AC77">
+        <v>1.79</v>
+      </c>
+      <c r="AD77">
+        <v>3.3</v>
+      </c>
+      <c r="AE77">
+        <v>4.2</v>
+      </c>
+      <c r="AF77">
+        <v>1.05</v>
+      </c>
+      <c r="AG77">
+        <v>8</v>
+      </c>
+      <c r="AH77">
+        <v>1.36</v>
+      </c>
+      <c r="AI77">
+        <v>2.88</v>
+      </c>
+      <c r="AJ77">
+        <v>2.25</v>
+      </c>
+      <c r="AK77">
+        <v>1.53</v>
+      </c>
+      <c r="AL77">
+        <v>1.95</v>
+      </c>
+      <c r="AM77">
+        <v>1.81</v>
+      </c>
+      <c r="AN77">
+        <v>1.18</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.85</v>
+      </c>
+      <c r="AQ77">
+        <v>1.75</v>
+      </c>
+      <c r="AR77">
+        <v>1.25</v>
+      </c>
+      <c r="AS77">
+        <v>2</v>
+      </c>
+      <c r="AT77">
+        <v>1</v>
+      </c>
+      <c r="AU77">
+        <v>1.76</v>
+      </c>
+      <c r="AV77">
+        <v>0.92</v>
+      </c>
+      <c r="AW77">
+        <v>2.68</v>
+      </c>
+      <c r="AX77">
+        <v>1.36</v>
+      </c>
+      <c r="AY77">
+        <v>9.5</v>
+      </c>
+      <c r="AZ77">
+        <v>3.6</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>1.43</v>
+      </c>
+      <c r="BC77">
+        <v>1.8</v>
+      </c>
+      <c r="BD77">
+        <v>2.23</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>5</v>
+      </c>
+      <c r="BG77">
+        <v>5</v>
+      </c>
+      <c r="BH77">
+        <v>4</v>
+      </c>
+      <c r="BI77">
+        <v>5</v>
+      </c>
+      <c r="BJ77">
+        <v>9</v>
+      </c>
+      <c r="BK77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>5557238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45088.79166666666</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>141</v>
+      </c>
+      <c r="P78" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q78">
+        <v>8</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78">
+        <v>3.12</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
+        <v>3.64</v>
+      </c>
+      <c r="W78">
+        <v>1.56</v>
+      </c>
+      <c r="X78">
+        <v>2.3</v>
+      </c>
+      <c r="Y78">
+        <v>3.25</v>
+      </c>
+      <c r="Z78">
+        <v>1.29</v>
+      </c>
+      <c r="AA78">
+        <v>9.5</v>
+      </c>
+      <c r="AB78">
+        <v>1.04</v>
+      </c>
+      <c r="AC78">
+        <v>2.5</v>
+      </c>
+      <c r="AD78">
+        <v>2.8</v>
+      </c>
+      <c r="AE78">
+        <v>2.9</v>
+      </c>
+      <c r="AF78">
+        <v>1.06</v>
+      </c>
+      <c r="AG78">
+        <v>7.5</v>
+      </c>
+      <c r="AH78">
+        <v>1.49</v>
+      </c>
+      <c r="AI78">
+        <v>2.48</v>
+      </c>
+      <c r="AJ78">
+        <v>2.3</v>
+      </c>
+      <c r="AK78">
+        <v>1.5</v>
+      </c>
+      <c r="AL78">
+        <v>1.91</v>
+      </c>
+      <c r="AM78">
+        <v>1.85</v>
+      </c>
+      <c r="AN78">
+        <v>1.33</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>1.44</v>
+      </c>
+      <c r="AQ78">
+        <v>1.33</v>
+      </c>
+      <c r="AR78">
+        <v>1.33</v>
+      </c>
+      <c r="AS78">
+        <v>1.75</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+      <c r="AU78">
+        <v>2.18</v>
+      </c>
+      <c r="AV78">
+        <v>1.32</v>
+      </c>
+      <c r="AW78">
+        <v>3.5</v>
+      </c>
+      <c r="AX78">
+        <v>1.52</v>
+      </c>
+      <c r="AY78">
+        <v>9.5</v>
+      </c>
+      <c r="AZ78">
+        <v>2.82</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>1.28</v>
+      </c>
+      <c r="BC78">
+        <v>1.49</v>
+      </c>
+      <c r="BD78">
+        <v>1.88</v>
+      </c>
+      <c r="BE78">
+        <v>2.32</v>
+      </c>
+      <c r="BF78">
+        <v>10</v>
+      </c>
+      <c r="BG78">
+        <v>7</v>
+      </c>
+      <c r="BH78">
+        <v>9</v>
+      </c>
+      <c r="BI78">
+        <v>7</v>
+      </c>
+      <c r="BJ78">
+        <v>19</v>
+      </c>
+      <c r="BK78">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['10', '88']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['49', '90+4']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -520,9 +529,6 @@
     <t>['24', '90+5']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -539,6 +545,12 @@
   </si>
   <si>
     <t>['5', '65']</t>
+  </si>
+  <si>
+    <t>['33', '81']</t>
+  </si>
+  <si>
+    <t>['6', '32']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1425,7 +1437,7 @@
         <v>2.25</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1526,7 +1538,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1717,7 +1729,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2186,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2481,7 +2493,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2863,7 +2875,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3436,7 +3448,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3818,7 +3830,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -4200,7 +4212,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4290,7 +4302,7 @@
         <v>0.6</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4391,7 +4403,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4669,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT20">
         <v>0.25</v>
@@ -4773,7 +4785,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4860,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
         <v>0.8</v>
@@ -5242,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
         <v>0.33</v>
@@ -5346,7 +5358,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5436,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>2.19</v>
@@ -5728,7 +5740,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6110,7 +6122,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6301,7 +6313,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6492,7 +6504,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6683,7 +6695,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6874,7 +6886,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7065,7 +7077,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7256,7 +7268,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7343,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7447,7 +7459,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7537,7 +7549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7829,7 +7841,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8107,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8402,7 +8414,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8975,7 +8987,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>11</v>
@@ -9447,7 +9459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9548,7 +9560,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9635,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT46">
         <v>1.6</v>
@@ -9829,7 +9841,7 @@
         <v>2.2</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10121,7 +10133,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10312,7 +10324,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11267,7 +11279,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11458,7 +11470,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11736,7 +11748,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -11840,7 +11852,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12031,7 +12043,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12222,7 +12234,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12309,7 +12321,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT60">
         <v>1.75</v>
@@ -12986,7 +12998,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13840,7 +13852,7 @@
         <v>1.6</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -13941,7 +13953,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14132,7 +14144,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14410,7 +14422,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14708,13 +14720,13 @@
         <v>85</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S73">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T73">
         <v>2.8</v>
@@ -14831,22 +14843,22 @@
         <v>0</v>
       </c>
       <c r="BF73">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI73">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ73">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK73">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -14896,16 +14908,16 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T74">
         <v>2.9</v>
@@ -15022,22 +15034,22 @@
         <v>2.7</v>
       </c>
       <c r="BF74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH74">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ74">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK74">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:63">
@@ -15090,13 +15102,13 @@
         <v>85</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R75">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S75">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -15213,22 +15225,22 @@
         <v>0</v>
       </c>
       <c r="BF75">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG75">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH75">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI75">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ75">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK75">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:63">
@@ -15660,7 +15672,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15802,6 +15814,579 @@
       </c>
       <c r="BK78">
         <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5557236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45089.83333333334</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>142</v>
+      </c>
+      <c r="P79" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q79">
+        <v>8</v>
+      </c>
+      <c r="R79">
+        <v>10</v>
+      </c>
+      <c r="S79">
+        <v>18</v>
+      </c>
+      <c r="T79">
+        <v>2.8</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>3.7</v>
+      </c>
+      <c r="W79">
+        <v>1.51</v>
+      </c>
+      <c r="X79">
+        <v>2.4</v>
+      </c>
+      <c r="Y79">
+        <v>3</v>
+      </c>
+      <c r="Z79">
+        <v>1.36</v>
+      </c>
+      <c r="AA79">
+        <v>7.5</v>
+      </c>
+      <c r="AB79">
+        <v>1.07</v>
+      </c>
+      <c r="AC79">
+        <v>2.15</v>
+      </c>
+      <c r="AD79">
+        <v>2.9</v>
+      </c>
+      <c r="AE79">
+        <v>3.2</v>
+      </c>
+      <c r="AF79">
+        <v>1.08</v>
+      </c>
+      <c r="AG79">
+        <v>7</v>
+      </c>
+      <c r="AH79">
+        <v>1.4</v>
+      </c>
+      <c r="AI79">
+        <v>2.75</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.53</v>
+      </c>
+      <c r="AL79">
+        <v>1.95</v>
+      </c>
+      <c r="AM79">
+        <v>1.78</v>
+      </c>
+      <c r="AN79">
+        <v>1.25</v>
+      </c>
+      <c r="AO79">
+        <v>1.3</v>
+      </c>
+      <c r="AP79">
+        <v>1.55</v>
+      </c>
+      <c r="AQ79">
+        <v>2.33</v>
+      </c>
+      <c r="AR79">
+        <v>1.5</v>
+      </c>
+      <c r="AS79">
+        <v>2</v>
+      </c>
+      <c r="AT79">
+        <v>1.4</v>
+      </c>
+      <c r="AU79">
+        <v>1.18</v>
+      </c>
+      <c r="AV79">
+        <v>1.78</v>
+      </c>
+      <c r="AW79">
+        <v>2.96</v>
+      </c>
+      <c r="AX79">
+        <v>1.86</v>
+      </c>
+      <c r="AY79">
+        <v>7.1</v>
+      </c>
+      <c r="AZ79">
+        <v>2.35</v>
+      </c>
+      <c r="BA79">
+        <v>1.3</v>
+      </c>
+      <c r="BB79">
+        <v>1.56</v>
+      </c>
+      <c r="BC79">
+        <v>1.97</v>
+      </c>
+      <c r="BD79">
+        <v>2.6</v>
+      </c>
+      <c r="BE79">
+        <v>3.65</v>
+      </c>
+      <c r="BF79">
+        <v>2</v>
+      </c>
+      <c r="BG79">
+        <v>4</v>
+      </c>
+      <c r="BH79">
+        <v>5</v>
+      </c>
+      <c r="BI79">
+        <v>6</v>
+      </c>
+      <c r="BJ79">
+        <v>7</v>
+      </c>
+      <c r="BK79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>5557243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45089.83333333334</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>143</v>
+      </c>
+      <c r="P80" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <v>6</v>
+      </c>
+      <c r="T80">
+        <v>2.38</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>4.75</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>2.4</v>
+      </c>
+      <c r="Y80">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <v>1.36</v>
+      </c>
+      <c r="AA80">
+        <v>7.5</v>
+      </c>
+      <c r="AB80">
+        <v>1.07</v>
+      </c>
+      <c r="AC80">
+        <v>1.75</v>
+      </c>
+      <c r="AD80">
+        <v>3.1</v>
+      </c>
+      <c r="AE80">
+        <v>4.5</v>
+      </c>
+      <c r="AF80">
+        <v>1.08</v>
+      </c>
+      <c r="AG80">
+        <v>7</v>
+      </c>
+      <c r="AH80">
+        <v>1.4</v>
+      </c>
+      <c r="AI80">
+        <v>2.75</v>
+      </c>
+      <c r="AJ80">
+        <v>2.2</v>
+      </c>
+      <c r="AK80">
+        <v>1.53</v>
+      </c>
+      <c r="AL80">
+        <v>2.05</v>
+      </c>
+      <c r="AM80">
+        <v>1.68</v>
+      </c>
+      <c r="AN80">
+        <v>1.14</v>
+      </c>
+      <c r="AO80">
+        <v>1.25</v>
+      </c>
+      <c r="AP80">
+        <v>1.87</v>
+      </c>
+      <c r="AQ80">
+        <v>2.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.33</v>
+      </c>
+      <c r="AS80">
+        <v>1.8</v>
+      </c>
+      <c r="AT80">
+        <v>1.75</v>
+      </c>
+      <c r="AU80">
+        <v>1.45</v>
+      </c>
+      <c r="AV80">
+        <v>1.22</v>
+      </c>
+      <c r="AW80">
+        <v>2.67</v>
+      </c>
+      <c r="AX80">
+        <v>1.45</v>
+      </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>3.28</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>1.29</v>
+      </c>
+      <c r="BC80">
+        <v>1.5</v>
+      </c>
+      <c r="BD80">
+        <v>1.83</v>
+      </c>
+      <c r="BE80">
+        <v>2.34</v>
+      </c>
+      <c r="BF80">
+        <v>2</v>
+      </c>
+      <c r="BG80">
+        <v>6</v>
+      </c>
+      <c r="BH80">
+        <v>5</v>
+      </c>
+      <c r="BI80">
+        <v>11</v>
+      </c>
+      <c r="BJ80">
+        <v>7</v>
+      </c>
+      <c r="BK80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5557240</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45089.89583333334</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>144</v>
+      </c>
+      <c r="P81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>2.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>3.7</v>
+      </c>
+      <c r="W81">
+        <v>1.51</v>
+      </c>
+      <c r="X81">
+        <v>2.4</v>
+      </c>
+      <c r="Y81">
+        <v>3</v>
+      </c>
+      <c r="Z81">
+        <v>1.36</v>
+      </c>
+      <c r="AA81">
+        <v>7.5</v>
+      </c>
+      <c r="AB81">
+        <v>1.07</v>
+      </c>
+      <c r="AC81">
+        <v>2.2</v>
+      </c>
+      <c r="AD81">
+        <v>3</v>
+      </c>
+      <c r="AE81">
+        <v>3.2</v>
+      </c>
+      <c r="AF81">
+        <v>1.08</v>
+      </c>
+      <c r="AG81">
+        <v>7</v>
+      </c>
+      <c r="AH81">
+        <v>1.44</v>
+      </c>
+      <c r="AI81">
+        <v>2.37</v>
+      </c>
+      <c r="AJ81">
+        <v>2.25</v>
+      </c>
+      <c r="AK81">
+        <v>1.57</v>
+      </c>
+      <c r="AL81">
+        <v>1.9</v>
+      </c>
+      <c r="AM81">
+        <v>1.8</v>
+      </c>
+      <c r="AN81">
+        <v>1.25</v>
+      </c>
+      <c r="AO81">
+        <v>1.3</v>
+      </c>
+      <c r="AP81">
+        <v>1.53</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1</v>
+      </c>
+      <c r="AS81">
+        <v>1.75</v>
+      </c>
+      <c r="AT81">
+        <v>1</v>
+      </c>
+      <c r="AU81">
+        <v>1.43</v>
+      </c>
+      <c r="AV81">
+        <v>1.58</v>
+      </c>
+      <c r="AW81">
+        <v>3.01</v>
+      </c>
+      <c r="AX81">
+        <v>1.71</v>
+      </c>
+      <c r="AY81">
+        <v>7.3</v>
+      </c>
+      <c r="AZ81">
+        <v>2.61</v>
+      </c>
+      <c r="BA81">
+        <v>1.23</v>
+      </c>
+      <c r="BB81">
+        <v>1.4</v>
+      </c>
+      <c r="BC81">
+        <v>1.71</v>
+      </c>
+      <c r="BD81">
+        <v>2.17</v>
+      </c>
+      <c r="BE81">
+        <v>3.05</v>
+      </c>
+      <c r="BF81">
+        <v>9</v>
+      </c>
+      <c r="BG81">
+        <v>6</v>
+      </c>
+      <c r="BH81">
+        <v>10</v>
+      </c>
+      <c r="BI81">
+        <v>10</v>
+      </c>
+      <c r="BJ81">
+        <v>19</v>
+      </c>
+      <c r="BK81">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,12 @@
     <t>['49', '90+4']</t>
   </si>
   <si>
+    <t>['2', '4']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -517,9 +523,6 @@
     <t>['38']</t>
   </si>
   <si>
-    <t>['2']</t>
-  </si>
-  <si>
     <t>['14', '59']</t>
   </si>
   <si>
@@ -551,6 +554,18 @@
   </si>
   <si>
     <t>['6', '32']</t>
+  </si>
+  <si>
+    <t>['26', '60', '86']</t>
+  </si>
+  <si>
+    <t>['53', '90+8']</t>
+  </si>
+  <si>
+    <t>['45+2', '54', '81', '85']</t>
+  </si>
+  <si>
+    <t>['45+3', '62']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,7 +1362,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1538,7 +1553,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1625,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1729,7 +1744,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1816,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2007,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2392,7 +2407,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2493,7 +2508,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2583,7 +2598,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2771,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2875,7 +2890,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2965,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3448,7 +3463,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3538,7 +3553,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3726,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3830,7 +3845,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -3917,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>1.25</v>
@@ -4212,7 +4227,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4403,7 +4418,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4785,7 +4800,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5063,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
         <v>0.25</v>
@@ -5257,7 +5272,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>2.03</v>
@@ -5358,7 +5373,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5445,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -5740,7 +5755,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5827,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -6018,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT27">
         <v>0.8</v>
@@ -6122,7 +6137,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6212,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6313,7 +6328,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6504,7 +6519,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6591,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -6695,7 +6710,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6785,7 +6800,7 @@
         <v>2.2</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU31">
         <v>2.25</v>
@@ -6886,7 +6901,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6973,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7077,7 +7092,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7167,7 +7182,7 @@
         <v>3</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>2.06</v>
@@ -7268,7 +7283,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7459,7 +7474,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7841,7 +7856,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -7931,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8414,7 +8429,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8695,7 +8710,7 @@
         <v>2.33</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -8883,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -8987,7 +9002,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>11</v>
@@ -9074,10 +9089,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9560,7 +9575,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10133,7 +10148,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10223,7 +10238,7 @@
         <v>1.6</v>
       </c>
       <c r="AT49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10324,7 +10339,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10605,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU51">
         <v>2.07</v>
@@ -10793,10 +10808,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>2.39</v>
@@ -10984,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT53">
         <v>0</v>
@@ -11175,7 +11190,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
         <v>1.25</v>
@@ -11366,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11470,7 +11485,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11557,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11751,7 +11766,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU57">
         <v>1.25</v>
@@ -11852,7 +11867,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12043,7 +12058,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12130,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12234,7 +12249,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12324,7 +12339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -12515,7 +12530,7 @@
         <v>3</v>
       </c>
       <c r="AT61">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.81</v>
@@ -12998,7 +13013,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13085,10 +13100,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU64">
         <v>1.86</v>
@@ -13953,7 +13968,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14144,7 +14159,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14908,7 +14923,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -14998,7 +15013,7 @@
         <v>0.6</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15568,10 +15583,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU77">
         <v>1.76</v>
@@ -15672,7 +15687,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15759,7 +15774,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16054,7 +16069,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16245,7 +16260,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16387,6 +16402,1152 @@
       </c>
       <c r="BK81">
         <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5557248</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45094.66666666666</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>85</v>
+      </c>
+      <c r="P82" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>9</v>
+      </c>
+      <c r="T82">
+        <v>2.47</v>
+      </c>
+      <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
+        <v>5.25</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>2.5</v>
+      </c>
+      <c r="Y82">
+        <v>3.4</v>
+      </c>
+      <c r="Z82">
+        <v>1.3</v>
+      </c>
+      <c r="AA82">
+        <v>9</v>
+      </c>
+      <c r="AB82">
+        <v>1.05</v>
+      </c>
+      <c r="AC82">
+        <v>1.8</v>
+      </c>
+      <c r="AD82">
+        <v>3.1</v>
+      </c>
+      <c r="AE82">
+        <v>4</v>
+      </c>
+      <c r="AF82">
+        <v>1.11</v>
+      </c>
+      <c r="AG82">
+        <v>6</v>
+      </c>
+      <c r="AH82">
+        <v>1.5</v>
+      </c>
+      <c r="AI82">
+        <v>2.5</v>
+      </c>
+      <c r="AJ82">
+        <v>2.35</v>
+      </c>
+      <c r="AK82">
+        <v>1.53</v>
+      </c>
+      <c r="AL82">
+        <v>2.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.6</v>
+      </c>
+      <c r="AN82">
+        <v>1.12</v>
+      </c>
+      <c r="AO82">
+        <v>1.28</v>
+      </c>
+      <c r="AP82">
+        <v>1.9</v>
+      </c>
+      <c r="AQ82">
+        <v>1.75</v>
+      </c>
+      <c r="AR82">
+        <v>1</v>
+      </c>
+      <c r="AS82">
+        <v>1.4</v>
+      </c>
+      <c r="AT82">
+        <v>1.4</v>
+      </c>
+      <c r="AU82">
+        <v>2.25</v>
+      </c>
+      <c r="AV82">
+        <v>1.03</v>
+      </c>
+      <c r="AW82">
+        <v>3.28</v>
+      </c>
+      <c r="AX82">
+        <v>1.43</v>
+      </c>
+      <c r="AY82">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ82">
+        <v>3.28</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>1.4</v>
+      </c>
+      <c r="BC82">
+        <v>1.63</v>
+      </c>
+      <c r="BD82">
+        <v>2.03</v>
+      </c>
+      <c r="BE82">
+        <v>2.64</v>
+      </c>
+      <c r="BF82">
+        <v>5</v>
+      </c>
+      <c r="BG82">
+        <v>7</v>
+      </c>
+      <c r="BH82">
+        <v>14</v>
+      </c>
+      <c r="BI82">
+        <v>8</v>
+      </c>
+      <c r="BJ82">
+        <v>19</v>
+      </c>
+      <c r="BK82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5557252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45094.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>145</v>
+      </c>
+      <c r="P83" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>3.2</v>
+      </c>
+      <c r="U83">
+        <v>1.91</v>
+      </c>
+      <c r="V83">
+        <v>3.5</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>2.5</v>
+      </c>
+      <c r="Y83">
+        <v>3.25</v>
+      </c>
+      <c r="Z83">
+        <v>1.33</v>
+      </c>
+      <c r="AA83">
+        <v>8</v>
+      </c>
+      <c r="AB83">
+        <v>1.06</v>
+      </c>
+      <c r="AC83">
+        <v>2.45</v>
+      </c>
+      <c r="AD83">
+        <v>2.87</v>
+      </c>
+      <c r="AE83">
+        <v>2.75</v>
+      </c>
+      <c r="AF83">
+        <v>1.1</v>
+      </c>
+      <c r="AG83">
+        <v>6.5</v>
+      </c>
+      <c r="AH83">
+        <v>1.44</v>
+      </c>
+      <c r="AI83">
+        <v>2.62</v>
+      </c>
+      <c r="AJ83">
+        <v>2.3</v>
+      </c>
+      <c r="AK83">
+        <v>1.5</v>
+      </c>
+      <c r="AL83">
+        <v>2</v>
+      </c>
+      <c r="AM83">
+        <v>1.73</v>
+      </c>
+      <c r="AN83">
+        <v>1.4</v>
+      </c>
+      <c r="AO83">
+        <v>1.36</v>
+      </c>
+      <c r="AP83">
+        <v>1.44</v>
+      </c>
+      <c r="AQ83">
+        <v>1.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.75</v>
+      </c>
+      <c r="AS83">
+        <v>1.25</v>
+      </c>
+      <c r="AT83">
+        <v>2</v>
+      </c>
+      <c r="AU83">
+        <v>1.87</v>
+      </c>
+      <c r="AV83">
+        <v>1.4</v>
+      </c>
+      <c r="AW83">
+        <v>3.27</v>
+      </c>
+      <c r="AX83">
+        <v>1.79</v>
+      </c>
+      <c r="AY83">
+        <v>7</v>
+      </c>
+      <c r="AZ83">
+        <v>2.4</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>1.57</v>
+      </c>
+      <c r="BC83">
+        <v>1.98</v>
+      </c>
+      <c r="BD83">
+        <v>2.64</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>6</v>
+      </c>
+      <c r="BG83">
+        <v>5</v>
+      </c>
+      <c r="BH83">
+        <v>7</v>
+      </c>
+      <c r="BI83">
+        <v>9</v>
+      </c>
+      <c r="BJ83">
+        <v>13</v>
+      </c>
+      <c r="BK83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5557249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45094.6875</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>85</v>
+      </c>
+      <c r="P84" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q84">
+        <v>11</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>14</v>
+      </c>
+      <c r="T84">
+        <v>3.02</v>
+      </c>
+      <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
+        <v>4.19</v>
+      </c>
+      <c r="W84">
+        <v>1.53</v>
+      </c>
+      <c r="X84">
+        <v>2.38</v>
+      </c>
+      <c r="Y84">
+        <v>3.5</v>
+      </c>
+      <c r="Z84">
+        <v>1.29</v>
+      </c>
+      <c r="AA84">
+        <v>9</v>
+      </c>
+      <c r="AB84">
+        <v>1.05</v>
+      </c>
+      <c r="AC84">
+        <v>2.2</v>
+      </c>
+      <c r="AD84">
+        <v>2.8</v>
+      </c>
+      <c r="AE84">
+        <v>3.2</v>
+      </c>
+      <c r="AF84">
+        <v>1.12</v>
+      </c>
+      <c r="AG84">
+        <v>5.5</v>
+      </c>
+      <c r="AH84">
+        <v>1.55</v>
+      </c>
+      <c r="AI84">
+        <v>2.38</v>
+      </c>
+      <c r="AJ84">
+        <v>2.69</v>
+      </c>
+      <c r="AK84">
+        <v>1.41</v>
+      </c>
+      <c r="AL84">
+        <v>2.2</v>
+      </c>
+      <c r="AM84">
+        <v>1.62</v>
+      </c>
+      <c r="AN84">
+        <v>1.25</v>
+      </c>
+      <c r="AO84">
+        <v>1.3</v>
+      </c>
+      <c r="AP84">
+        <v>1.55</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
+        <v>0.8</v>
+      </c>
+      <c r="AT84">
+        <v>1.4</v>
+      </c>
+      <c r="AU84">
+        <v>1.81</v>
+      </c>
+      <c r="AV84">
+        <v>1.27</v>
+      </c>
+      <c r="AW84">
+        <v>3.08</v>
+      </c>
+      <c r="AX84">
+        <v>1.64</v>
+      </c>
+      <c r="AY84">
+        <v>8.5</v>
+      </c>
+      <c r="AZ84">
+        <v>2.56</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>1.55</v>
+      </c>
+      <c r="BD84">
+        <v>1.91</v>
+      </c>
+      <c r="BE84">
+        <v>2.45</v>
+      </c>
+      <c r="BF84">
+        <v>7</v>
+      </c>
+      <c r="BG84">
+        <v>5</v>
+      </c>
+      <c r="BH84">
+        <v>7</v>
+      </c>
+      <c r="BI84">
+        <v>3</v>
+      </c>
+      <c r="BJ84">
+        <v>14</v>
+      </c>
+      <c r="BK84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5557254</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45094.79166666666</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>85</v>
+      </c>
+      <c r="P85" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q85">
+        <v>6</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>2.62</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
+        <v>4.71</v>
+      </c>
+      <c r="W85">
+        <v>1.51</v>
+      </c>
+      <c r="X85">
+        <v>2.4</v>
+      </c>
+      <c r="Y85">
+        <v>3.25</v>
+      </c>
+      <c r="Z85">
+        <v>1.33</v>
+      </c>
+      <c r="AA85">
+        <v>8</v>
+      </c>
+      <c r="AB85">
+        <v>1.06</v>
+      </c>
+      <c r="AC85">
+        <v>1.98</v>
+      </c>
+      <c r="AD85">
+        <v>3</v>
+      </c>
+      <c r="AE85">
+        <v>3.5</v>
+      </c>
+      <c r="AF85">
+        <v>1.1</v>
+      </c>
+      <c r="AG85">
+        <v>6.5</v>
+      </c>
+      <c r="AH85">
+        <v>1.5</v>
+      </c>
+      <c r="AI85">
+        <v>2.5</v>
+      </c>
+      <c r="AJ85">
+        <v>2.35</v>
+      </c>
+      <c r="AK85">
+        <v>1.53</v>
+      </c>
+      <c r="AL85">
+        <v>2.1</v>
+      </c>
+      <c r="AM85">
+        <v>1.65</v>
+      </c>
+      <c r="AN85">
+        <v>1.16</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.8</v>
+      </c>
+      <c r="AQ85">
+        <v>1.75</v>
+      </c>
+      <c r="AR85">
+        <v>0.33</v>
+      </c>
+      <c r="AS85">
+        <v>1.4</v>
+      </c>
+      <c r="AT85">
+        <v>1</v>
+      </c>
+      <c r="AU85">
+        <v>1.48</v>
+      </c>
+      <c r="AV85">
+        <v>1.12</v>
+      </c>
+      <c r="AW85">
+        <v>2.6</v>
+      </c>
+      <c r="AX85">
+        <v>1.44</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>3.2</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>1.47</v>
+      </c>
+      <c r="BD85">
+        <v>1.79</v>
+      </c>
+      <c r="BE85">
+        <v>2.25</v>
+      </c>
+      <c r="BF85">
+        <v>5</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>12</v>
+      </c>
+      <c r="BI85">
+        <v>3</v>
+      </c>
+      <c r="BJ85">
+        <v>17</v>
+      </c>
+      <c r="BK85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5557253</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45095.66666666666</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>146</v>
+      </c>
+      <c r="P86" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q86">
+        <v>10</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
+        <v>13</v>
+      </c>
+      <c r="T86">
+        <v>2.62</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>4.71</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>2.5</v>
+      </c>
+      <c r="Y86">
+        <v>3.25</v>
+      </c>
+      <c r="Z86">
+        <v>1.33</v>
+      </c>
+      <c r="AA86">
+        <v>8</v>
+      </c>
+      <c r="AB86">
+        <v>1.06</v>
+      </c>
+      <c r="AC86">
+        <v>1.89</v>
+      </c>
+      <c r="AD86">
+        <v>2.95</v>
+      </c>
+      <c r="AE86">
+        <v>4.3</v>
+      </c>
+      <c r="AF86">
+        <v>1.1</v>
+      </c>
+      <c r="AG86">
+        <v>6.5</v>
+      </c>
+      <c r="AH86">
+        <v>1.44</v>
+      </c>
+      <c r="AI86">
+        <v>2.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.35</v>
+      </c>
+      <c r="AK86">
+        <v>1.53</v>
+      </c>
+      <c r="AL86">
+        <v>2.1</v>
+      </c>
+      <c r="AM86">
+        <v>1.7</v>
+      </c>
+      <c r="AN86">
+        <v>1.2</v>
+      </c>
+      <c r="AO86">
+        <v>1.35</v>
+      </c>
+      <c r="AP86">
+        <v>1.83</v>
+      </c>
+      <c r="AQ86">
+        <v>3</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AS86">
+        <v>2.25</v>
+      </c>
+      <c r="AT86">
+        <v>1.33</v>
+      </c>
+      <c r="AU86">
+        <v>1.58</v>
+      </c>
+      <c r="AV86">
+        <v>1.05</v>
+      </c>
+      <c r="AW86">
+        <v>2.63</v>
+      </c>
+      <c r="AX86">
+        <v>1.53</v>
+      </c>
+      <c r="AY86">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ86">
+        <v>2.81</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>1.63</v>
+      </c>
+      <c r="BD86">
+        <v>2.04</v>
+      </c>
+      <c r="BE86">
+        <v>2.67</v>
+      </c>
+      <c r="BF86">
+        <v>3</v>
+      </c>
+      <c r="BG86">
+        <v>5</v>
+      </c>
+      <c r="BH86">
+        <v>7</v>
+      </c>
+      <c r="BI86">
+        <v>8</v>
+      </c>
+      <c r="BJ86">
+        <v>10</v>
+      </c>
+      <c r="BK86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5557245</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45095.6875</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>85</v>
+      </c>
+      <c r="P87" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q87">
+        <v>12</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>17</v>
+      </c>
+      <c r="T87">
+        <v>2.63</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
+        <v>4.5</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>1.91</v>
+      </c>
+      <c r="AD87">
+        <v>3</v>
+      </c>
+      <c r="AE87">
+        <v>4.1</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>1.53</v>
+      </c>
+      <c r="AI87">
+        <v>2.35</v>
+      </c>
+      <c r="AJ87">
+        <v>2.4</v>
+      </c>
+      <c r="AK87">
+        <v>1.53</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>0.33</v>
+      </c>
+      <c r="AS87">
+        <v>1.67</v>
+      </c>
+      <c r="AT87">
+        <v>1</v>
+      </c>
+      <c r="AU87">
+        <v>1.68</v>
+      </c>
+      <c r="AV87">
+        <v>1.37</v>
+      </c>
+      <c r="AW87">
+        <v>3.05</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>6</v>
+      </c>
+      <c r="BG87">
+        <v>5</v>
+      </c>
+      <c r="BH87">
+        <v>4</v>
+      </c>
+      <c r="BI87">
+        <v>4</v>
+      </c>
+      <c r="BJ87">
+        <v>10</v>
+      </c>
+      <c r="BK87">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,12 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['69', '77']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -526,9 +532,6 @@
     <t>['14', '59']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['24', '90+5']</t>
   </si>
   <si>
@@ -565,7 +568,16 @@
     <t>['45+2', '54', '81', '85']</t>
   </si>
   <si>
-    <t>['45+3', '62']</t>
+    <t>['45+3', '61']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['29', '69', '79']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1273,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1362,7 +1374,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1553,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1744,7 +1756,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2213,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2404,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT8">
         <v>1.4</v>
@@ -2508,7 +2520,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2595,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2890,7 +2902,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2977,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
         <v>1.4</v>
@@ -3362,7 +3374,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3463,7 +3475,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3845,7 +3857,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -4227,7 +4239,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4418,7 +4430,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4800,7 +4812,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5373,7 +5385,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5755,7 +5767,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6137,7 +6149,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6328,7 +6340,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6519,7 +6531,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6609,7 +6621,7 @@
         <v>1.4</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU30">
         <v>1.52</v>
@@ -6710,7 +6722,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6901,7 +6913,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7092,7 +7104,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7179,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
         <v>1.4</v>
@@ -7283,7 +7295,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7474,7 +7486,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7561,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>1.75</v>
@@ -7752,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -7856,7 +7868,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8134,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8429,7 +8441,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8519,7 +8531,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -9471,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT45">
         <v>1.4</v>
@@ -9575,7 +9587,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10148,7 +10160,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10339,7 +10351,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11002,7 +11014,7 @@
         <v>2.25</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU53">
         <v>1.42</v>
@@ -11485,7 +11497,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11763,7 +11775,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT57">
         <v>1.33</v>
@@ -11867,7 +11879,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -11954,10 +11966,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12058,7 +12070,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12249,7 +12261,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12527,7 +12539,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12721,7 +12733,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13013,7 +13025,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13968,7 +13980,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14159,7 +14171,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14246,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
         <v>0</v>
@@ -14923,7 +14935,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15687,7 +15699,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15965,7 +15977,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT79">
         <v>1.4</v>
@@ -16069,7 +16081,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16260,7 +16272,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16451,7 +16463,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16642,7 +16654,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16833,7 +16845,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17024,7 +17036,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17215,7 +17227,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17406,7 +17418,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17548,6 +17560,770 @@
       </c>
       <c r="BK87">
         <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5557246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45095.79166666666</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>76</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>147</v>
+      </c>
+      <c r="P88" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>2.3</v>
+      </c>
+      <c r="U88">
+        <v>1.91</v>
+      </c>
+      <c r="V88">
+        <v>5.8</v>
+      </c>
+      <c r="W88">
+        <v>1.53</v>
+      </c>
+      <c r="X88">
+        <v>2.38</v>
+      </c>
+      <c r="Y88">
+        <v>3.4</v>
+      </c>
+      <c r="Z88">
+        <v>1.3</v>
+      </c>
+      <c r="AA88">
+        <v>9</v>
+      </c>
+      <c r="AB88">
+        <v>1.05</v>
+      </c>
+      <c r="AC88">
+        <v>1.65</v>
+      </c>
+      <c r="AD88">
+        <v>3.25</v>
+      </c>
+      <c r="AE88">
+        <v>5.6</v>
+      </c>
+      <c r="AF88">
+        <v>1.12</v>
+      </c>
+      <c r="AG88">
+        <v>5.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.57</v>
+      </c>
+      <c r="AI88">
+        <v>2.28</v>
+      </c>
+      <c r="AJ88">
+        <v>2.53</v>
+      </c>
+      <c r="AK88">
+        <v>1.42</v>
+      </c>
+      <c r="AL88">
+        <v>2.5</v>
+      </c>
+      <c r="AM88">
+        <v>1.5</v>
+      </c>
+      <c r="AN88">
+        <v>1.11</v>
+      </c>
+      <c r="AO88">
+        <v>1.33</v>
+      </c>
+      <c r="AP88">
+        <v>2.1</v>
+      </c>
+      <c r="AQ88">
+        <v>2</v>
+      </c>
+      <c r="AR88">
+        <v>0.67</v>
+      </c>
+      <c r="AS88">
+        <v>2.2</v>
+      </c>
+      <c r="AT88">
+        <v>0.5</v>
+      </c>
+      <c r="AU88">
+        <v>1.15</v>
+      </c>
+      <c r="AV88">
+        <v>1.53</v>
+      </c>
+      <c r="AW88">
+        <v>2.68</v>
+      </c>
+      <c r="AX88">
+        <v>1.47</v>
+      </c>
+      <c r="AY88">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ88">
+        <v>3.1</v>
+      </c>
+      <c r="BA88">
+        <v>1.4</v>
+      </c>
+      <c r="BB88">
+        <v>1.6</v>
+      </c>
+      <c r="BC88">
+        <v>2.01</v>
+      </c>
+      <c r="BD88">
+        <v>2.67</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>5</v>
+      </c>
+      <c r="BG88">
+        <v>4</v>
+      </c>
+      <c r="BH88">
+        <v>5</v>
+      </c>
+      <c r="BI88">
+        <v>9</v>
+      </c>
+      <c r="BJ88">
+        <v>10</v>
+      </c>
+      <c r="BK88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5557251</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45096.83333333334</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>148</v>
+      </c>
+      <c r="P89" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>1.85</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>1.59</v>
+      </c>
+      <c r="X89">
+        <v>2.25</v>
+      </c>
+      <c r="Y89">
+        <v>3.5</v>
+      </c>
+      <c r="Z89">
+        <v>1.29</v>
+      </c>
+      <c r="AA89">
+        <v>9</v>
+      </c>
+      <c r="AB89">
+        <v>1.05</v>
+      </c>
+      <c r="AC89">
+        <v>2.25</v>
+      </c>
+      <c r="AD89">
+        <v>2.8</v>
+      </c>
+      <c r="AE89">
+        <v>3.35</v>
+      </c>
+      <c r="AF89">
+        <v>1.12</v>
+      </c>
+      <c r="AG89">
+        <v>5.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.5</v>
+      </c>
+      <c r="AI89">
+        <v>2.4</v>
+      </c>
+      <c r="AJ89">
+        <v>2.59</v>
+      </c>
+      <c r="AK89">
+        <v>1.38</v>
+      </c>
+      <c r="AL89">
+        <v>2.1</v>
+      </c>
+      <c r="AM89">
+        <v>1.66</v>
+      </c>
+      <c r="AN89">
+        <v>1.25</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>1.5</v>
+      </c>
+      <c r="AQ89">
+        <v>1.67</v>
+      </c>
+      <c r="AR89">
+        <v>1</v>
+      </c>
+      <c r="AS89">
+        <v>1.5</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+      <c r="AU89">
+        <v>1.49</v>
+      </c>
+      <c r="AV89">
+        <v>1.64</v>
+      </c>
+      <c r="AW89">
+        <v>3.13</v>
+      </c>
+      <c r="AX89">
+        <v>1.72</v>
+      </c>
+      <c r="AY89">
+        <v>8.9</v>
+      </c>
+      <c r="AZ89">
+        <v>2.36</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>1.33</v>
+      </c>
+      <c r="BC89">
+        <v>1.64</v>
+      </c>
+      <c r="BD89">
+        <v>2.01</v>
+      </c>
+      <c r="BE89">
+        <v>2.5</v>
+      </c>
+      <c r="BF89">
+        <v>6</v>
+      </c>
+      <c r="BG89">
+        <v>3</v>
+      </c>
+      <c r="BH89">
+        <v>8</v>
+      </c>
+      <c r="BI89">
+        <v>1</v>
+      </c>
+      <c r="BJ89">
+        <v>14</v>
+      </c>
+      <c r="BK89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5557247</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45096.89583333334</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>85</v>
+      </c>
+      <c r="P90" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q90">
+        <v>10</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>15</v>
+      </c>
+      <c r="T90">
+        <v>2.34</v>
+      </c>
+      <c r="U90">
+        <v>1.91</v>
+      </c>
+      <c r="V90">
+        <v>6.49</v>
+      </c>
+      <c r="W90">
+        <v>1.02</v>
+      </c>
+      <c r="X90">
+        <v>1.49</v>
+      </c>
+      <c r="Y90">
+        <v>3.65</v>
+      </c>
+      <c r="Z90">
+        <v>1.24</v>
+      </c>
+      <c r="AA90">
+        <v>9.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.02</v>
+      </c>
+      <c r="AC90">
+        <v>1.65</v>
+      </c>
+      <c r="AD90">
+        <v>3.1</v>
+      </c>
+      <c r="AE90">
+        <v>6</v>
+      </c>
+      <c r="AF90">
+        <v>1.07</v>
+      </c>
+      <c r="AG90">
+        <v>6.15</v>
+      </c>
+      <c r="AH90">
+        <v>1.5</v>
+      </c>
+      <c r="AI90">
+        <v>2.3</v>
+      </c>
+      <c r="AJ90">
+        <v>2.18</v>
+      </c>
+      <c r="AK90">
+        <v>1.63</v>
+      </c>
+      <c r="AL90">
+        <v>2.4</v>
+      </c>
+      <c r="AM90">
+        <v>1.54</v>
+      </c>
+      <c r="AN90">
+        <v>1.1</v>
+      </c>
+      <c r="AO90">
+        <v>1.28</v>
+      </c>
+      <c r="AP90">
+        <v>2.04</v>
+      </c>
+      <c r="AQ90">
+        <v>3</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>2.25</v>
+      </c>
+      <c r="AT90">
+        <v>0.6</v>
+      </c>
+      <c r="AU90">
+        <v>1.76</v>
+      </c>
+      <c r="AV90">
+        <v>1.35</v>
+      </c>
+      <c r="AW90">
+        <v>3.11</v>
+      </c>
+      <c r="AX90">
+        <v>1.53</v>
+      </c>
+      <c r="AY90">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ90">
+        <v>2.86</v>
+      </c>
+      <c r="BA90">
+        <v>1.36</v>
+      </c>
+      <c r="BB90">
+        <v>1.56</v>
+      </c>
+      <c r="BC90">
+        <v>1.93</v>
+      </c>
+      <c r="BD90">
+        <v>2.4</v>
+      </c>
+      <c r="BE90">
+        <v>3.35</v>
+      </c>
+      <c r="BF90">
+        <v>6</v>
+      </c>
+      <c r="BG90">
+        <v>6</v>
+      </c>
+      <c r="BH90">
+        <v>15</v>
+      </c>
+      <c r="BI90">
+        <v>6</v>
+      </c>
+      <c r="BJ90">
+        <v>21</v>
+      </c>
+      <c r="BK90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5557250</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45097.83333333334</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>87</v>
+      </c>
+      <c r="P91" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>8</v>
+      </c>
+      <c r="T91">
+        <v>2.4</v>
+      </c>
+      <c r="U91">
+        <v>1.91</v>
+      </c>
+      <c r="V91">
+        <v>5.5</v>
+      </c>
+      <c r="W91">
+        <v>1.56</v>
+      </c>
+      <c r="X91">
+        <v>2.3</v>
+      </c>
+      <c r="Y91">
+        <v>3.5</v>
+      </c>
+      <c r="Z91">
+        <v>1.29</v>
+      </c>
+      <c r="AA91">
+        <v>9</v>
+      </c>
+      <c r="AB91">
+        <v>1.05</v>
+      </c>
+      <c r="AC91">
+        <v>1.7</v>
+      </c>
+      <c r="AD91">
+        <v>3.1</v>
+      </c>
+      <c r="AE91">
+        <v>5.8</v>
+      </c>
+      <c r="AF91">
+        <v>1.12</v>
+      </c>
+      <c r="AG91">
+        <v>5.5</v>
+      </c>
+      <c r="AH91">
+        <v>1.51</v>
+      </c>
+      <c r="AI91">
+        <v>2.4</v>
+      </c>
+      <c r="AJ91">
+        <v>2.5</v>
+      </c>
+      <c r="AK91">
+        <v>1.47</v>
+      </c>
+      <c r="AL91">
+        <v>2.3</v>
+      </c>
+      <c r="AM91">
+        <v>1.55</v>
+      </c>
+      <c r="AN91">
+        <v>1.15</v>
+      </c>
+      <c r="AO91">
+        <v>1.25</v>
+      </c>
+      <c r="AP91">
+        <v>1.8</v>
+      </c>
+      <c r="AQ91">
+        <v>1.75</v>
+      </c>
+      <c r="AR91">
+        <v>1</v>
+      </c>
+      <c r="AS91">
+        <v>1.6</v>
+      </c>
+      <c r="AT91">
+        <v>1</v>
+      </c>
+      <c r="AU91">
+        <v>1.77</v>
+      </c>
+      <c r="AV91">
+        <v>1.08</v>
+      </c>
+      <c r="AW91">
+        <v>2.85</v>
+      </c>
+      <c r="AX91">
+        <v>1.57</v>
+      </c>
+      <c r="AY91">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ91">
+        <v>2.72</v>
+      </c>
+      <c r="BA91">
+        <v>1.26</v>
+      </c>
+      <c r="BB91">
+        <v>1.49</v>
+      </c>
+      <c r="BC91">
+        <v>1.93</v>
+      </c>
+      <c r="BD91">
+        <v>2.18</v>
+      </c>
+      <c r="BE91">
+        <v>3.35</v>
+      </c>
+      <c r="BF91">
+        <v>7</v>
+      </c>
+      <c r="BG91">
+        <v>3</v>
+      </c>
+      <c r="BH91">
+        <v>12</v>
+      </c>
+      <c r="BI91">
+        <v>4</v>
+      </c>
+      <c r="BJ91">
+        <v>19</v>
+      </c>
+      <c r="BK91">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,21 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['39', '43', '90+6']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['24', '54']</t>
+  </si>
+  <si>
+    <t>['46', '55']</t>
+  </si>
+  <si>
+    <t>['61', '64']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -578,6 +593,15 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['82', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['14', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1374,7 +1398,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1461,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT3">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1565,7 +1589,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1652,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1756,7 +1780,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1846,7 +1870,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2034,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
         <v>2</v>
@@ -2228,7 +2252,7 @@
         <v>2.2</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2419,7 +2443,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2520,7 +2544,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2798,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -2902,7 +2926,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3475,7 +3499,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3857,7 +3881,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -4135,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4239,7 +4263,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4329,7 +4353,7 @@
         <v>0.6</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4430,7 +4454,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4812,7 +4836,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5385,7 +5409,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5475,7 +5499,7 @@
         <v>0.8</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>2.19</v>
@@ -5767,7 +5791,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6045,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0.8</v>
@@ -6149,7 +6173,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6340,7 +6364,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6531,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6618,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>0.6</v>
@@ -6722,7 +6746,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6809,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT31">
         <v>1.33</v>
@@ -6913,7 +6937,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7000,10 +7024,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7104,7 +7128,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7194,7 +7218,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>2.06</v>
@@ -7295,7 +7319,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7385,7 +7409,7 @@
         <v>1.8</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU34">
         <v>1.46</v>
@@ -7486,7 +7510,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7576,7 +7600,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7868,7 +7892,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8337,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8441,7 +8465,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8531,7 +8555,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -8719,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>1.4</v>
@@ -9101,7 +9125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT43">
         <v>1.33</v>
@@ -9486,7 +9510,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9587,7 +9611,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9865,10 +9889,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT47">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10056,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT48">
         <v>0.25</v>
@@ -10351,7 +10375,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10632,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>2.07</v>
@@ -11011,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>0.6</v>
@@ -11202,7 +11226,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT54">
         <v>1.25</v>
@@ -11497,7 +11521,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11584,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT56">
         <v>1.4</v>
@@ -11879,7 +11903,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -11969,7 +11993,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12070,7 +12094,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12160,7 +12184,7 @@
         <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU59">
         <v>1.89</v>
@@ -12261,7 +12285,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13025,7 +13049,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13115,7 +13139,7 @@
         <v>0.8</v>
       </c>
       <c r="AT64">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>1.86</v>
@@ -13303,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT65">
         <v>0.25</v>
@@ -13494,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>0.8</v>
@@ -13879,7 +13903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -13980,7 +14004,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14452,7 +14476,7 @@
         <v>1.8</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14640,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT72">
         <v>1.6</v>
@@ -14935,7 +14959,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15213,7 +15237,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT75">
         <v>1.25</v>
@@ -15699,7 +15723,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15980,7 +16004,7 @@
         <v>2.2</v>
       </c>
       <c r="AT79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>1.18</v>
@@ -16081,7 +16105,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16171,7 +16195,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU80">
         <v>1.45</v>
@@ -16272,7 +16296,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16463,7 +16487,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16553,7 +16577,7 @@
         <v>1.4</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>2.25</v>
@@ -16654,7 +16678,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16741,7 +16765,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -16845,7 +16869,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17036,7 +17060,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17123,7 +17147,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17227,7 +17251,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17314,7 +17338,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT86">
         <v>1.33</v>
@@ -17418,7 +17442,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17609,7 +17633,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17699,7 +17723,7 @@
         <v>2.2</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU88">
         <v>1.15</v>
@@ -17800,7 +17824,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17991,7 +18015,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18182,7 +18206,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18272,7 +18296,7 @@
         <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU91">
         <v>1.77</v>
@@ -18324,6 +18348,1343 @@
       </c>
       <c r="BK91">
         <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5557263</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45101.66666666666</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>149</v>
+      </c>
+      <c r="P92" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>6</v>
+      </c>
+      <c r="S92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>2.85</v>
+      </c>
+      <c r="U92">
+        <v>1.87</v>
+      </c>
+      <c r="V92">
+        <v>4.2</v>
+      </c>
+      <c r="W92">
+        <v>1.55</v>
+      </c>
+      <c r="X92">
+        <v>2.25</v>
+      </c>
+      <c r="Y92">
+        <v>3.6</v>
+      </c>
+      <c r="Z92">
+        <v>1.25</v>
+      </c>
+      <c r="AA92">
+        <v>10.5</v>
+      </c>
+      <c r="AB92">
+        <v>1.04</v>
+      </c>
+      <c r="AC92">
+        <v>1.98</v>
+      </c>
+      <c r="AD92">
+        <v>3</v>
+      </c>
+      <c r="AE92">
+        <v>3.55</v>
+      </c>
+      <c r="AF92">
+        <v>1.11</v>
+      </c>
+      <c r="AG92">
+        <v>6</v>
+      </c>
+      <c r="AH92">
+        <v>1.5</v>
+      </c>
+      <c r="AI92">
+        <v>2.45</v>
+      </c>
+      <c r="AJ92">
+        <v>2.55</v>
+      </c>
+      <c r="AK92">
+        <v>1.5</v>
+      </c>
+      <c r="AL92">
+        <v>2.15</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>1.25</v>
+      </c>
+      <c r="AO92">
+        <v>1.4</v>
+      </c>
+      <c r="AP92">
+        <v>1.62</v>
+      </c>
+      <c r="AQ92">
+        <v>2.25</v>
+      </c>
+      <c r="AR92">
+        <v>1.4</v>
+      </c>
+      <c r="AS92">
+        <v>2</v>
+      </c>
+      <c r="AT92">
+        <v>1.33</v>
+      </c>
+      <c r="AU92">
+        <v>1.55</v>
+      </c>
+      <c r="AV92">
+        <v>1.18</v>
+      </c>
+      <c r="AW92">
+        <v>2.73</v>
+      </c>
+      <c r="AX92">
+        <v>1.61</v>
+      </c>
+      <c r="AY92">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ92">
+        <v>2.61</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>1.48</v>
+      </c>
+      <c r="BC92">
+        <v>1.88</v>
+      </c>
+      <c r="BD92">
+        <v>2.03</v>
+      </c>
+      <c r="BE92">
+        <v>2.88</v>
+      </c>
+      <c r="BF92">
+        <v>6</v>
+      </c>
+      <c r="BG92">
+        <v>7</v>
+      </c>
+      <c r="BH92">
+        <v>4</v>
+      </c>
+      <c r="BI92">
+        <v>10</v>
+      </c>
+      <c r="BJ92">
+        <v>10</v>
+      </c>
+      <c r="BK92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5557256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45101.6875</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>150</v>
+      </c>
+      <c r="P93" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>7</v>
+      </c>
+      <c r="T93">
+        <v>2.87</v>
+      </c>
+      <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
+        <v>4.2</v>
+      </c>
+      <c r="W93">
+        <v>1.58</v>
+      </c>
+      <c r="X93">
+        <v>2.2</v>
+      </c>
+      <c r="Y93">
+        <v>3.8</v>
+      </c>
+      <c r="Z93">
+        <v>1.23</v>
+      </c>
+      <c r="AA93">
+        <v>11.5</v>
+      </c>
+      <c r="AB93">
+        <v>1.04</v>
+      </c>
+      <c r="AC93">
+        <v>1.99</v>
+      </c>
+      <c r="AD93">
+        <v>2.96</v>
+      </c>
+      <c r="AE93">
+        <v>3.65</v>
+      </c>
+      <c r="AF93">
+        <v>1.12</v>
+      </c>
+      <c r="AG93">
+        <v>5.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.5</v>
+      </c>
+      <c r="AI93">
+        <v>2.5</v>
+      </c>
+      <c r="AJ93">
+        <v>2.5</v>
+      </c>
+      <c r="AK93">
+        <v>1.47</v>
+      </c>
+      <c r="AL93">
+        <v>2.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.57</v>
+      </c>
+      <c r="AN93">
+        <v>1.22</v>
+      </c>
+      <c r="AO93">
+        <v>1.3</v>
+      </c>
+      <c r="AP93">
+        <v>1.63</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
+      </c>
+      <c r="AS93">
+        <v>1</v>
+      </c>
+      <c r="AT93">
+        <v>1</v>
+      </c>
+      <c r="AU93">
+        <v>2.04</v>
+      </c>
+      <c r="AV93">
+        <v>1.15</v>
+      </c>
+      <c r="AW93">
+        <v>3.19</v>
+      </c>
+      <c r="AX93">
+        <v>1.59</v>
+      </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
+      <c r="AZ93">
+        <v>2.65</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>1.39</v>
+      </c>
+      <c r="BC93">
+        <v>1.73</v>
+      </c>
+      <c r="BD93">
+        <v>2.19</v>
+      </c>
+      <c r="BE93">
+        <v>2.42</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>2</v>
+      </c>
+      <c r="BH93">
+        <v>6</v>
+      </c>
+      <c r="BI93">
+        <v>3</v>
+      </c>
+      <c r="BJ93">
+        <v>10</v>
+      </c>
+      <c r="BK93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5557264</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45101.70833333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>151</v>
+      </c>
+      <c r="P94" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q94">
+        <v>8</v>
+      </c>
+      <c r="R94">
+        <v>9</v>
+      </c>
+      <c r="S94">
+        <v>17</v>
+      </c>
+      <c r="T94">
+        <v>2.4</v>
+      </c>
+      <c r="U94">
+        <v>1.88</v>
+      </c>
+      <c r="V94">
+        <v>5.75</v>
+      </c>
+      <c r="W94">
+        <v>1.58</v>
+      </c>
+      <c r="X94">
+        <v>2.2</v>
+      </c>
+      <c r="Y94">
+        <v>3.7</v>
+      </c>
+      <c r="Z94">
+        <v>1.24</v>
+      </c>
+      <c r="AA94">
+        <v>11</v>
+      </c>
+      <c r="AB94">
+        <v>1.04</v>
+      </c>
+      <c r="AC94">
+        <v>1.68</v>
+      </c>
+      <c r="AD94">
+        <v>3.1</v>
+      </c>
+      <c r="AE94">
+        <v>4.95</v>
+      </c>
+      <c r="AF94">
+        <v>1.12</v>
+      </c>
+      <c r="AG94">
+        <v>5.5</v>
+      </c>
+      <c r="AH94">
+        <v>1.5</v>
+      </c>
+      <c r="AI94">
+        <v>2.5</v>
+      </c>
+      <c r="AJ94">
+        <v>2.5</v>
+      </c>
+      <c r="AK94">
+        <v>1.47</v>
+      </c>
+      <c r="AL94">
+        <v>2.45</v>
+      </c>
+      <c r="AM94">
+        <v>1.47</v>
+      </c>
+      <c r="AN94">
+        <v>1.12</v>
+      </c>
+      <c r="AO94">
+        <v>1.35</v>
+      </c>
+      <c r="AP94">
+        <v>2.05</v>
+      </c>
+      <c r="AQ94">
+        <v>1.4</v>
+      </c>
+      <c r="AR94">
+        <v>0.5</v>
+      </c>
+      <c r="AS94">
+        <v>1.67</v>
+      </c>
+      <c r="AT94">
+        <v>0.4</v>
+      </c>
+      <c r="AU94">
+        <v>1.63</v>
+      </c>
+      <c r="AV94">
+        <v>1.51</v>
+      </c>
+      <c r="AW94">
+        <v>3.14</v>
+      </c>
+      <c r="AX94">
+        <v>1.38</v>
+      </c>
+      <c r="AY94">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ94">
+        <v>3.45</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>1.39</v>
+      </c>
+      <c r="BC94">
+        <v>1.73</v>
+      </c>
+      <c r="BD94">
+        <v>2.14</v>
+      </c>
+      <c r="BE94">
+        <v>2.5</v>
+      </c>
+      <c r="BF94">
+        <v>7</v>
+      </c>
+      <c r="BG94">
+        <v>3</v>
+      </c>
+      <c r="BH94">
+        <v>8</v>
+      </c>
+      <c r="BI94">
+        <v>6</v>
+      </c>
+      <c r="BJ94">
+        <v>15</v>
+      </c>
+      <c r="BK94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5557262</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>85</v>
+      </c>
+      <c r="P95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>4</v>
+      </c>
+      <c r="S95">
+        <v>5</v>
+      </c>
+      <c r="T95">
+        <v>2.88</v>
+      </c>
+      <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
+        <v>3.75</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>2.4</v>
+      </c>
+      <c r="Y95">
+        <v>3.25</v>
+      </c>
+      <c r="Z95">
+        <v>1.33</v>
+      </c>
+      <c r="AA95">
+        <v>8</v>
+      </c>
+      <c r="AB95">
+        <v>1.06</v>
+      </c>
+      <c r="AC95">
+        <v>2.45</v>
+      </c>
+      <c r="AD95">
+        <v>2.85</v>
+      </c>
+      <c r="AE95">
+        <v>2.9</v>
+      </c>
+      <c r="AF95">
+        <v>1.1</v>
+      </c>
+      <c r="AG95">
+        <v>6.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.4</v>
+      </c>
+      <c r="AI95">
+        <v>2.75</v>
+      </c>
+      <c r="AJ95">
+        <v>2.29</v>
+      </c>
+      <c r="AK95">
+        <v>1.55</v>
+      </c>
+      <c r="AL95">
+        <v>1.95</v>
+      </c>
+      <c r="AM95">
+        <v>1.75</v>
+      </c>
+      <c r="AN95">
+        <v>1.28</v>
+      </c>
+      <c r="AO95">
+        <v>1.28</v>
+      </c>
+      <c r="AP95">
+        <v>1.53</v>
+      </c>
+      <c r="AQ95">
+        <v>1.25</v>
+      </c>
+      <c r="AR95">
+        <v>1.75</v>
+      </c>
+      <c r="AS95">
+        <v>1.2</v>
+      </c>
+      <c r="AT95">
+        <v>1.6</v>
+      </c>
+      <c r="AU95">
+        <v>1.84</v>
+      </c>
+      <c r="AV95">
+        <v>1.5</v>
+      </c>
+      <c r="AW95">
+        <v>3.34</v>
+      </c>
+      <c r="AX95">
+        <v>1.86</v>
+      </c>
+      <c r="AY95">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ95">
+        <v>2.15</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>1.39</v>
+      </c>
+      <c r="BC95">
+        <v>1.73</v>
+      </c>
+      <c r="BD95">
+        <v>2.14</v>
+      </c>
+      <c r="BE95">
+        <v>2.63</v>
+      </c>
+      <c r="BF95">
+        <v>4</v>
+      </c>
+      <c r="BG95">
+        <v>4</v>
+      </c>
+      <c r="BH95">
+        <v>9</v>
+      </c>
+      <c r="BI95">
+        <v>6</v>
+      </c>
+      <c r="BJ95">
+        <v>13</v>
+      </c>
+      <c r="BK95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5557259</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45102.6875</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>66</v>
+      </c>
+      <c r="H96" t="s">
+        <v>79</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>8</v>
+      </c>
+      <c r="T96">
+        <v>2.6</v>
+      </c>
+      <c r="U96">
+        <v>1.9</v>
+      </c>
+      <c r="V96">
+        <v>4.75</v>
+      </c>
+      <c r="W96">
+        <v>1.56</v>
+      </c>
+      <c r="X96">
+        <v>2.3</v>
+      </c>
+      <c r="Y96">
+        <v>3.5</v>
+      </c>
+      <c r="Z96">
+        <v>1.26</v>
+      </c>
+      <c r="AA96">
+        <v>10</v>
+      </c>
+      <c r="AB96">
+        <v>1.04</v>
+      </c>
+      <c r="AC96">
+        <v>1.95</v>
+      </c>
+      <c r="AD96">
+        <v>2.95</v>
+      </c>
+      <c r="AE96">
+        <v>3.95</v>
+      </c>
+      <c r="AF96">
+        <v>1.11</v>
+      </c>
+      <c r="AG96">
+        <v>6</v>
+      </c>
+      <c r="AH96">
+        <v>1.5</v>
+      </c>
+      <c r="AI96">
+        <v>2.45</v>
+      </c>
+      <c r="AJ96">
+        <v>2.47</v>
+      </c>
+      <c r="AK96">
+        <v>1.48</v>
+      </c>
+      <c r="AL96">
+        <v>2.1</v>
+      </c>
+      <c r="AM96">
+        <v>1.66</v>
+      </c>
+      <c r="AN96">
+        <v>1.21</v>
+      </c>
+      <c r="AO96">
+        <v>1.34</v>
+      </c>
+      <c r="AP96">
+        <v>1.83</v>
+      </c>
+      <c r="AQ96">
+        <v>2.25</v>
+      </c>
+      <c r="AR96">
+        <v>1</v>
+      </c>
+      <c r="AS96">
+        <v>2.4</v>
+      </c>
+      <c r="AT96">
+        <v>0.75</v>
+      </c>
+      <c r="AU96">
+        <v>1.51</v>
+      </c>
+      <c r="AV96">
+        <v>1.55</v>
+      </c>
+      <c r="AW96">
+        <v>3.06</v>
+      </c>
+      <c r="AX96">
+        <v>1.65</v>
+      </c>
+      <c r="AY96">
+        <v>8.6</v>
+      </c>
+      <c r="AZ96">
+        <v>2.53</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>1.55</v>
+      </c>
+      <c r="BC96">
+        <v>1.94</v>
+      </c>
+      <c r="BD96">
+        <v>2.38</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>6</v>
+      </c>
+      <c r="BG96">
+        <v>2</v>
+      </c>
+      <c r="BH96">
+        <v>7</v>
+      </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
+      <c r="BJ96">
+        <v>13</v>
+      </c>
+      <c r="BK96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5557255</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45102.79166666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>153</v>
+      </c>
+      <c r="P97" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+      <c r="T97">
+        <v>3.27</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>3.85</v>
+      </c>
+      <c r="W97">
+        <v>1.58</v>
+      </c>
+      <c r="X97">
+        <v>2.2</v>
+      </c>
+      <c r="Y97">
+        <v>3.75</v>
+      </c>
+      <c r="Z97">
+        <v>1.23</v>
+      </c>
+      <c r="AA97">
+        <v>11</v>
+      </c>
+      <c r="AB97">
+        <v>1.04</v>
+      </c>
+      <c r="AC97">
+        <v>2.65</v>
+      </c>
+      <c r="AD97">
+        <v>2.9</v>
+      </c>
+      <c r="AE97">
+        <v>2.6</v>
+      </c>
+      <c r="AF97">
+        <v>1.11</v>
+      </c>
+      <c r="AG97">
+        <v>6</v>
+      </c>
+      <c r="AH97">
+        <v>1.53</v>
+      </c>
+      <c r="AI97">
+        <v>2.35</v>
+      </c>
+      <c r="AJ97">
+        <v>2.56</v>
+      </c>
+      <c r="AK97">
+        <v>1.45</v>
+      </c>
+      <c r="AL97">
+        <v>2.15</v>
+      </c>
+      <c r="AM97">
+        <v>1.61</v>
+      </c>
+      <c r="AN97">
+        <v>1.39</v>
+      </c>
+      <c r="AO97">
+        <v>1.37</v>
+      </c>
+      <c r="AP97">
+        <v>1.47</v>
+      </c>
+      <c r="AQ97">
+        <v>2.33</v>
+      </c>
+      <c r="AR97">
+        <v>1.4</v>
+      </c>
+      <c r="AS97">
+        <v>2</v>
+      </c>
+      <c r="AT97">
+        <v>1.33</v>
+      </c>
+      <c r="AU97">
+        <v>1.98</v>
+      </c>
+      <c r="AV97">
+        <v>1.72</v>
+      </c>
+      <c r="AW97">
+        <v>3.7</v>
+      </c>
+      <c r="AX97">
+        <v>2.11</v>
+      </c>
+      <c r="AY97">
+        <v>8.5</v>
+      </c>
+      <c r="AZ97">
+        <v>1.9</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>1.49</v>
+      </c>
+      <c r="BC97">
+        <v>1.9</v>
+      </c>
+      <c r="BD97">
+        <v>2.25</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>5</v>
+      </c>
+      <c r="BG97">
+        <v>6</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>4</v>
+      </c>
+      <c r="BJ97">
+        <v>10</v>
+      </c>
+      <c r="BK97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5557257</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45103.83333333334</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>115</v>
+      </c>
+      <c r="P98" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q98">
+        <v>6</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>8</v>
+      </c>
+      <c r="T98">
+        <v>2.38</v>
+      </c>
+      <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
+        <v>6</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>1.62</v>
+      </c>
+      <c r="AD98">
+        <v>3.25</v>
+      </c>
+      <c r="AE98">
+        <v>5.5</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>1.44</v>
+      </c>
+      <c r="AI98">
+        <v>2.4</v>
+      </c>
+      <c r="AJ98">
+        <v>2.41</v>
+      </c>
+      <c r="AK98">
+        <v>1.44</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>2.2</v>
+      </c>
+      <c r="AR98">
+        <v>1</v>
+      </c>
+      <c r="AS98">
+        <v>2.33</v>
+      </c>
+      <c r="AT98">
+        <v>0.8</v>
+      </c>
+      <c r="AU98">
+        <v>2.12</v>
+      </c>
+      <c r="AV98">
+        <v>1.06</v>
+      </c>
+      <c r="AW98">
+        <v>3.18</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>4</v>
+      </c>
+      <c r="BH98">
+        <v>9</v>
+      </c>
+      <c r="BI98">
+        <v>5</v>
+      </c>
+      <c r="BJ98">
+        <v>14</v>
+      </c>
+      <c r="BK98">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['61', '64']</t>
   </si>
   <si>
+    <t>['71', '82', '90+6']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -602,6 +605,9 @@
   </si>
   <si>
     <t>['14', '90+1']</t>
+  </si>
+  <si>
+    <t>['40', '78']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1589,7 +1595,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1780,7 +1786,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2544,7 +2550,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2631,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2926,7 +2932,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3499,7 +3505,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3881,7 +3887,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -4263,7 +4269,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4454,7 +4460,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4735,7 +4741,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4836,7 +4842,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5117,7 +5123,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU22">
         <v>1.79</v>
@@ -5409,7 +5415,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5791,7 +5797,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6173,7 +6179,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6364,7 +6370,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6555,7 +6561,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6746,7 +6752,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6937,7 +6943,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7128,7 +7134,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7319,7 +7325,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7510,7 +7516,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7597,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT35">
         <v>1.6</v>
@@ -7892,7 +7898,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8465,7 +8471,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9611,7 +9617,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10083,7 +10089,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU48">
         <v>1.56</v>
@@ -10375,7 +10381,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -11521,7 +11527,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11903,7 +11909,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -11990,7 +11996,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT58">
         <v>0.4</v>
@@ -12094,7 +12100,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12285,7 +12291,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13049,7 +13055,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13330,7 +13336,7 @@
         <v>2.33</v>
       </c>
       <c r="AT65">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -14004,7 +14010,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14959,7 +14965,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15723,7 +15729,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16105,7 +16111,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16296,7 +16302,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16487,7 +16493,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16678,7 +16684,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16869,7 +16875,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -17060,7 +17066,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17251,7 +17257,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17442,7 +17448,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17633,7 +17639,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17824,7 +17830,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17911,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18015,7 +18021,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18206,7 +18212,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18397,7 +18403,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18588,7 +18594,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19352,7 +19358,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19685,6 +19691,197 @@
       </c>
       <c r="BK98">
         <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5557261</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45104.83333333334</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99" t="s">
+        <v>154</v>
+      </c>
+      <c r="P99" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q99">
+        <v>15</v>
+      </c>
+      <c r="R99">
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>18</v>
+      </c>
+      <c r="T99">
+        <v>2.6</v>
+      </c>
+      <c r="U99">
+        <v>1.93</v>
+      </c>
+      <c r="V99">
+        <v>4.6</v>
+      </c>
+      <c r="W99">
+        <v>1.53</v>
+      </c>
+      <c r="X99">
+        <v>2.3</v>
+      </c>
+      <c r="Y99">
+        <v>3.6</v>
+      </c>
+      <c r="Z99">
+        <v>1.24</v>
+      </c>
+      <c r="AA99">
+        <v>10.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.04</v>
+      </c>
+      <c r="AC99">
+        <v>1.85</v>
+      </c>
+      <c r="AD99">
+        <v>2.9</v>
+      </c>
+      <c r="AE99">
+        <v>4.5</v>
+      </c>
+      <c r="AF99">
+        <v>1.08</v>
+      </c>
+      <c r="AG99">
+        <v>6.15</v>
+      </c>
+      <c r="AH99">
+        <v>1.49</v>
+      </c>
+      <c r="AI99">
+        <v>2.48</v>
+      </c>
+      <c r="AJ99">
+        <v>2.56</v>
+      </c>
+      <c r="AK99">
+        <v>1.45</v>
+      </c>
+      <c r="AL99">
+        <v>2.35</v>
+      </c>
+      <c r="AM99">
+        <v>1.52</v>
+      </c>
+      <c r="AN99">
+        <v>1.22</v>
+      </c>
+      <c r="AO99">
+        <v>1.32</v>
+      </c>
+      <c r="AP99">
+        <v>1.83</v>
+      </c>
+      <c r="AQ99">
+        <v>1.5</v>
+      </c>
+      <c r="AR99">
+        <v>0.25</v>
+      </c>
+      <c r="AS99">
+        <v>1.8</v>
+      </c>
+      <c r="AT99">
+        <v>0.2</v>
+      </c>
+      <c r="AU99">
+        <v>1.64</v>
+      </c>
+      <c r="AV99">
+        <v>0.87</v>
+      </c>
+      <c r="AW99">
+        <v>2.51</v>
+      </c>
+      <c r="AX99">
+        <v>1.55</v>
+      </c>
+      <c r="AY99">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ99">
+        <v>2.89</v>
+      </c>
+      <c r="BA99">
+        <v>1.28</v>
+      </c>
+      <c r="BB99">
+        <v>1.55</v>
+      </c>
+      <c r="BC99">
+        <v>1.68</v>
+      </c>
+      <c r="BD99">
+        <v>2.07</v>
+      </c>
+      <c r="BE99">
+        <v>3.5</v>
+      </c>
+      <c r="BF99">
+        <v>8</v>
+      </c>
+      <c r="BG99">
+        <v>3</v>
+      </c>
+      <c r="BH99">
+        <v>13</v>
+      </c>
+      <c r="BI99">
+        <v>3</v>
+      </c>
+      <c r="BJ99">
+        <v>21</v>
+      </c>
+      <c r="BK99">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -609,6 +609,12 @@
   <si>
     <t>['40', '78']</t>
   </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
 </sst>
 </file>
 
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2067,7 +2073,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2446,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -3213,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3592,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1.33</v>
@@ -6269,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -7794,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8370,7 +8376,7 @@
         <v>2.4</v>
       </c>
       <c r="AT39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8558,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>0.4</v>
@@ -9322,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.5</v>
@@ -9513,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>1.33</v>
@@ -10280,7 +10286,7 @@
         <v>1.6</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -12381,7 +12387,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU60">
         <v>1.61</v>
@@ -12760,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>0.6</v>
@@ -13718,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>2.01</v>
@@ -14288,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
         <v>0</v>
@@ -16774,7 +16780,7 @@
         <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -18299,7 +18305,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT91">
         <v>0.8</v>
@@ -19882,6 +19888,388 @@
       </c>
       <c r="BK99">
         <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5557260</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45105.83333333334</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>68</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>85</v>
+      </c>
+      <c r="P100" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q100">
+        <v>3</v>
+      </c>
+      <c r="R100">
+        <v>6</v>
+      </c>
+      <c r="S100">
+        <v>9</v>
+      </c>
+      <c r="T100">
+        <v>2.6</v>
+      </c>
+      <c r="U100">
+        <v>1.87</v>
+      </c>
+      <c r="V100">
+        <v>4.8</v>
+      </c>
+      <c r="W100">
+        <v>1.58</v>
+      </c>
+      <c r="X100">
+        <v>2.2</v>
+      </c>
+      <c r="Y100">
+        <v>3.7</v>
+      </c>
+      <c r="Z100">
+        <v>1.24</v>
+      </c>
+      <c r="AA100">
+        <v>11</v>
+      </c>
+      <c r="AB100">
+        <v>1.04</v>
+      </c>
+      <c r="AC100">
+        <v>1.84</v>
+      </c>
+      <c r="AD100">
+        <v>2.9</v>
+      </c>
+      <c r="AE100">
+        <v>3.69</v>
+      </c>
+      <c r="AF100">
+        <v>1.12</v>
+      </c>
+      <c r="AG100">
+        <v>5.5</v>
+      </c>
+      <c r="AH100">
+        <v>1.55</v>
+      </c>
+      <c r="AI100">
+        <v>2.4</v>
+      </c>
+      <c r="AJ100">
+        <v>2.56</v>
+      </c>
+      <c r="AK100">
+        <v>1.45</v>
+      </c>
+      <c r="AL100">
+        <v>2.3</v>
+      </c>
+      <c r="AM100">
+        <v>1.53</v>
+      </c>
+      <c r="AN100">
+        <v>1.2</v>
+      </c>
+      <c r="AO100">
+        <v>1.34</v>
+      </c>
+      <c r="AP100">
+        <v>1.83</v>
+      </c>
+      <c r="AQ100">
+        <v>1.6</v>
+      </c>
+      <c r="AR100">
+        <v>0.5</v>
+      </c>
+      <c r="AS100">
+        <v>1.33</v>
+      </c>
+      <c r="AT100">
+        <v>1</v>
+      </c>
+      <c r="AU100">
+        <v>1.87</v>
+      </c>
+      <c r="AV100">
+        <v>1.7</v>
+      </c>
+      <c r="AW100">
+        <v>3.57</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>1.63</v>
+      </c>
+      <c r="BD100">
+        <v>1.97</v>
+      </c>
+      <c r="BE100">
+        <v>2.51</v>
+      </c>
+      <c r="BF100">
+        <v>9</v>
+      </c>
+      <c r="BG100">
+        <v>5</v>
+      </c>
+      <c r="BH100">
+        <v>9</v>
+      </c>
+      <c r="BI100">
+        <v>3</v>
+      </c>
+      <c r="BJ100">
+        <v>18</v>
+      </c>
+      <c r="BK100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5557258</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45105.89583333334</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>85</v>
+      </c>
+      <c r="P101" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q101">
+        <v>9</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.91</v>
+      </c>
+      <c r="V101">
+        <v>4.5</v>
+      </c>
+      <c r="W101">
+        <v>1.58</v>
+      </c>
+      <c r="X101">
+        <v>2.2</v>
+      </c>
+      <c r="Y101">
+        <v>3.7</v>
+      </c>
+      <c r="Z101">
+        <v>1.24</v>
+      </c>
+      <c r="AA101">
+        <v>11</v>
+      </c>
+      <c r="AB101">
+        <v>1.04</v>
+      </c>
+      <c r="AC101">
+        <v>1.92</v>
+      </c>
+      <c r="AD101">
+        <v>2.78</v>
+      </c>
+      <c r="AE101">
+        <v>3.58</v>
+      </c>
+      <c r="AF101">
+        <v>1.12</v>
+      </c>
+      <c r="AG101">
+        <v>5.5</v>
+      </c>
+      <c r="AH101">
+        <v>1.53</v>
+      </c>
+      <c r="AI101">
+        <v>2.35</v>
+      </c>
+      <c r="AJ101">
+        <v>2.55</v>
+      </c>
+      <c r="AK101">
+        <v>1.5</v>
+      </c>
+      <c r="AL101">
+        <v>2.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.57</v>
+      </c>
+      <c r="AN101">
+        <v>1.24</v>
+      </c>
+      <c r="AO101">
+        <v>1.36</v>
+      </c>
+      <c r="AP101">
+        <v>1.71</v>
+      </c>
+      <c r="AQ101">
+        <v>2.5</v>
+      </c>
+      <c r="AR101">
+        <v>2</v>
+      </c>
+      <c r="AS101">
+        <v>2</v>
+      </c>
+      <c r="AT101">
+        <v>2.17</v>
+      </c>
+      <c r="AU101">
+        <v>1.57</v>
+      </c>
+      <c r="AV101">
+        <v>1.45</v>
+      </c>
+      <c r="AW101">
+        <v>3.02</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>1.51</v>
+      </c>
+      <c r="BC101">
+        <v>1.88</v>
+      </c>
+      <c r="BD101">
+        <v>2.34</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>4</v>
+      </c>
+      <c r="BG101">
+        <v>3</v>
+      </c>
+      <c r="BH101">
+        <v>21</v>
+      </c>
+      <c r="BI101">
+        <v>4</v>
+      </c>
+      <c r="BJ101">
+        <v>25</v>
+      </c>
+      <c r="BK101">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,21 @@
     <t>['71', '82', '90+6']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['30', '63']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['65', '69']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -614,6 +629,9 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['55', '60']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT2">
         <v>0.4</v>
@@ -1410,7 +1428,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1497,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1601,7 +1619,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1792,7 +1810,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1882,7 +1900,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2261,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT7">
         <v>0.8</v>
@@ -2556,7 +2574,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2938,7 +2956,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3025,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3216,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3407,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>0.6</v>
@@ -3511,7 +3529,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3598,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT14">
         <v>1.33</v>
@@ -3792,7 +3810,7 @@
         <v>0.8</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3893,7 +3911,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -3983,7 +4001,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4275,7 +4293,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4362,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4466,7 +4484,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4556,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4744,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
         <v>0.2</v>
@@ -4848,7 +4866,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4935,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5317,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5421,7 +5439,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5699,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5803,7 +5821,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5893,7 +5911,7 @@
         <v>1.4</v>
       </c>
       <c r="AT26">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU26">
         <v>2.95</v>
@@ -6084,7 +6102,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6185,7 +6203,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6376,7 +6394,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6463,10 +6481,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6567,7 +6585,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6758,7 +6776,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6949,7 +6967,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7039,7 +7057,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU32">
         <v>1.81</v>
@@ -7140,7 +7158,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7227,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7331,7 +7349,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7418,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
         <v>0.8</v>
@@ -7522,7 +7540,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7612,7 +7630,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU35">
         <v>1.34</v>
@@ -7803,7 +7821,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU36">
         <v>2.77</v>
@@ -7904,7 +7922,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -7991,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8182,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8373,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU39">
         <v>1.55</v>
@@ -8477,7 +8495,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8564,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT40">
         <v>0.4</v>
@@ -8755,10 +8773,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9328,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU44">
         <v>1.5</v>
@@ -9623,7 +9641,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9710,10 +9728,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.28</v>
@@ -9904,7 +9922,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.87</v>
@@ -10092,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT48">
         <v>0.2</v>
@@ -10283,7 +10301,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
         <v>2.17</v>
@@ -10387,7 +10405,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10474,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU50">
         <v>1.97</v>
@@ -11241,7 +11259,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11533,7 +11551,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11623,7 +11641,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11811,7 +11829,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT57">
         <v>1.33</v>
@@ -11915,7 +11933,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12106,7 +12124,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12297,7 +12315,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12384,7 +12402,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT60">
         <v>2.17</v>
@@ -12575,7 +12593,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12766,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT62">
         <v>0.6</v>
@@ -12957,10 +12975,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT63">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13061,7 +13079,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13530,10 +13548,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT66">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13724,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU67">
         <v>2.01</v>
@@ -13912,7 +13930,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14016,7 +14034,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14103,10 +14121,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14485,10 +14503,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT71">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14676,10 +14694,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT72">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.45</v>
@@ -14867,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -14971,7 +14989,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15058,10 +15076,10 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15252,7 +15270,7 @@
         <v>2.33</v>
       </c>
       <c r="AT75">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU75">
         <v>2.22</v>
@@ -15440,10 +15458,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU76">
         <v>1.71</v>
@@ -15735,7 +15753,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15825,7 +15843,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU78">
         <v>2.18</v>
@@ -16013,7 +16031,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT79">
         <v>1.33</v>
@@ -16117,7 +16135,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16204,10 +16222,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.45</v>
@@ -16308,7 +16326,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16395,7 +16413,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16499,7 +16517,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16690,7 +16708,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16881,7 +16899,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -16971,7 +16989,7 @@
         <v>0.8</v>
       </c>
       <c r="AT84">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.81</v>
@@ -17072,7 +17090,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17263,7 +17281,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17454,7 +17472,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17645,7 +17663,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17732,7 +17750,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT88">
         <v>0.4</v>
@@ -17836,7 +17854,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18027,7 +18045,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18114,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>0.6</v>
@@ -18218,7 +18236,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18409,7 +18427,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18600,7 +18618,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19072,7 +19090,7 @@
         <v>1.2</v>
       </c>
       <c r="AT95">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>1.84</v>
@@ -19260,10 +19278,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT96">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19364,7 +19382,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19451,7 +19469,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT97">
         <v>1.33</v>
@@ -19746,7 +19764,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -19937,7 +19955,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20027,7 +20045,7 @@
         <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20128,7 +20146,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20215,7 +20233,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT101">
         <v>2.17</v>
@@ -20270,6 +20288,1916 @@
       </c>
       <c r="BK101">
         <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5557267</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H102" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>85</v>
+      </c>
+      <c r="P102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>8</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
+        <v>4.4</v>
+      </c>
+      <c r="W102">
+        <v>1.53</v>
+      </c>
+      <c r="X102">
+        <v>2.38</v>
+      </c>
+      <c r="Y102">
+        <v>3.5</v>
+      </c>
+      <c r="Z102">
+        <v>1.29</v>
+      </c>
+      <c r="AA102">
+        <v>9</v>
+      </c>
+      <c r="AB102">
+        <v>1.05</v>
+      </c>
+      <c r="AC102">
+        <v>2.66</v>
+      </c>
+      <c r="AD102">
+        <v>2.37</v>
+      </c>
+      <c r="AE102">
+        <v>3.22</v>
+      </c>
+      <c r="AF102">
+        <v>1.14</v>
+      </c>
+      <c r="AG102">
+        <v>5</v>
+      </c>
+      <c r="AH102">
+        <v>1.53</v>
+      </c>
+      <c r="AI102">
+        <v>2.25</v>
+      </c>
+      <c r="AJ102">
+        <v>2.65</v>
+      </c>
+      <c r="AK102">
+        <v>1.42</v>
+      </c>
+      <c r="AL102">
+        <v>2.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.6</v>
+      </c>
+      <c r="AN102">
+        <v>1.22</v>
+      </c>
+      <c r="AO102">
+        <v>1.4</v>
+      </c>
+      <c r="AP102">
+        <v>1.67</v>
+      </c>
+      <c r="AQ102">
+        <v>2.25</v>
+      </c>
+      <c r="AR102">
+        <v>1.6</v>
+      </c>
+      <c r="AS102">
+        <v>2</v>
+      </c>
+      <c r="AT102">
+        <v>1.5</v>
+      </c>
+      <c r="AU102">
+        <v>1.93</v>
+      </c>
+      <c r="AV102">
+        <v>1.63</v>
+      </c>
+      <c r="AW102">
+        <v>3.56</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>0</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>4</v>
+      </c>
+      <c r="BG102">
+        <v>2</v>
+      </c>
+      <c r="BH102">
+        <v>22</v>
+      </c>
+      <c r="BI102">
+        <v>6</v>
+      </c>
+      <c r="BJ102">
+        <v>26</v>
+      </c>
+      <c r="BK102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5557270</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>155</v>
+      </c>
+      <c r="P103" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.85</v>
+      </c>
+      <c r="V103">
+        <v>4.4</v>
+      </c>
+      <c r="W103">
+        <v>1.53</v>
+      </c>
+      <c r="X103">
+        <v>2.38</v>
+      </c>
+      <c r="Y103">
+        <v>3.5</v>
+      </c>
+      <c r="Z103">
+        <v>1.29</v>
+      </c>
+      <c r="AA103">
+        <v>9</v>
+      </c>
+      <c r="AB103">
+        <v>1.05</v>
+      </c>
+      <c r="AC103">
+        <v>3.52</v>
+      </c>
+      <c r="AD103">
+        <v>2.34</v>
+      </c>
+      <c r="AE103">
+        <v>2.52</v>
+      </c>
+      <c r="AF103">
+        <v>1.14</v>
+      </c>
+      <c r="AG103">
+        <v>5</v>
+      </c>
+      <c r="AH103">
+        <v>1.53</v>
+      </c>
+      <c r="AI103">
+        <v>2.25</v>
+      </c>
+      <c r="AJ103">
+        <v>2.56</v>
+      </c>
+      <c r="AK103">
+        <v>1.45</v>
+      </c>
+      <c r="AL103">
+        <v>2.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.6</v>
+      </c>
+      <c r="AN103">
+        <v>1.22</v>
+      </c>
+      <c r="AO103">
+        <v>1.4</v>
+      </c>
+      <c r="AP103">
+        <v>1.67</v>
+      </c>
+      <c r="AQ103">
+        <v>1.75</v>
+      </c>
+      <c r="AR103">
+        <v>0.75</v>
+      </c>
+      <c r="AS103">
+        <v>1.6</v>
+      </c>
+      <c r="AT103">
+        <v>0.8</v>
+      </c>
+      <c r="AU103">
+        <v>1.62</v>
+      </c>
+      <c r="AV103">
+        <v>1.43</v>
+      </c>
+      <c r="AW103">
+        <v>3.05</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>0</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>0</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>4</v>
+      </c>
+      <c r="BG103">
+        <v>3</v>
+      </c>
+      <c r="BH103">
+        <v>7</v>
+      </c>
+      <c r="BI103">
+        <v>7</v>
+      </c>
+      <c r="BJ103">
+        <v>11</v>
+      </c>
+      <c r="BK103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5557266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45108.79166666666</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>69</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>85</v>
+      </c>
+      <c r="P104" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q104">
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>2.4</v>
+      </c>
+      <c r="U104">
+        <v>1.91</v>
+      </c>
+      <c r="V104">
+        <v>5.5</v>
+      </c>
+      <c r="W104">
+        <v>1.53</v>
+      </c>
+      <c r="X104">
+        <v>2.38</v>
+      </c>
+      <c r="Y104">
+        <v>3.5</v>
+      </c>
+      <c r="Z104">
+        <v>1.29</v>
+      </c>
+      <c r="AA104">
+        <v>9</v>
+      </c>
+      <c r="AB104">
+        <v>1.05</v>
+      </c>
+      <c r="AC104">
+        <v>2.1</v>
+      </c>
+      <c r="AD104">
+        <v>2.95</v>
+      </c>
+      <c r="AE104">
+        <v>3.45</v>
+      </c>
+      <c r="AF104">
+        <v>1.12</v>
+      </c>
+      <c r="AG104">
+        <v>5.5</v>
+      </c>
+      <c r="AH104">
+        <v>1.5</v>
+      </c>
+      <c r="AI104">
+        <v>2.45</v>
+      </c>
+      <c r="AJ104">
+        <v>2.56</v>
+      </c>
+      <c r="AK104">
+        <v>1.45</v>
+      </c>
+      <c r="AL104">
+        <v>2.5</v>
+      </c>
+      <c r="AM104">
+        <v>1.5</v>
+      </c>
+      <c r="AN104">
+        <v>1.12</v>
+      </c>
+      <c r="AO104">
+        <v>1.36</v>
+      </c>
+      <c r="AP104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
+        <v>2.2</v>
+      </c>
+      <c r="AR104">
+        <v>1</v>
+      </c>
+      <c r="AS104">
+        <v>1.83</v>
+      </c>
+      <c r="AT104">
+        <v>1.4</v>
+      </c>
+      <c r="AU104">
+        <v>1.18</v>
+      </c>
+      <c r="AV104">
+        <v>1.44</v>
+      </c>
+      <c r="AW104">
+        <v>2.62</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>0</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>6</v>
+      </c>
+      <c r="BG104">
+        <v>6</v>
+      </c>
+      <c r="BH104">
+        <v>7</v>
+      </c>
+      <c r="BI104">
+        <v>5</v>
+      </c>
+      <c r="BJ104">
+        <v>13</v>
+      </c>
+      <c r="BK104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5557272</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45108.79166666666</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>125</v>
+      </c>
+      <c r="P105" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q105">
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <v>6</v>
+      </c>
+      <c r="S105">
+        <v>12</v>
+      </c>
+      <c r="T105">
+        <v>2.38</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
+        <v>5.5</v>
+      </c>
+      <c r="W105">
+        <v>1.5</v>
+      </c>
+      <c r="X105">
+        <v>2.5</v>
+      </c>
+      <c r="Y105">
+        <v>3.4</v>
+      </c>
+      <c r="Z105">
+        <v>1.3</v>
+      </c>
+      <c r="AA105">
+        <v>8</v>
+      </c>
+      <c r="AB105">
+        <v>1.06</v>
+      </c>
+      <c r="AC105">
+        <v>1.73</v>
+      </c>
+      <c r="AD105">
+        <v>3.1</v>
+      </c>
+      <c r="AE105">
+        <v>4.6</v>
+      </c>
+      <c r="AF105">
+        <v>1.11</v>
+      </c>
+      <c r="AG105">
+        <v>6</v>
+      </c>
+      <c r="AH105">
+        <v>1.44</v>
+      </c>
+      <c r="AI105">
+        <v>2.4</v>
+      </c>
+      <c r="AJ105">
+        <v>2.47</v>
+      </c>
+      <c r="AK105">
+        <v>1.48</v>
+      </c>
+      <c r="AL105">
+        <v>2.3</v>
+      </c>
+      <c r="AM105">
+        <v>1.57</v>
+      </c>
+      <c r="AN105">
+        <v>1.14</v>
+      </c>
+      <c r="AO105">
+        <v>1.33</v>
+      </c>
+      <c r="AP105">
+        <v>2</v>
+      </c>
+      <c r="AQ105">
+        <v>0.6</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <v>1</v>
+      </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
+      <c r="AU105">
+        <v>1.7</v>
+      </c>
+      <c r="AV105">
+        <v>1.25</v>
+      </c>
+      <c r="AW105">
+        <v>2.95</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>0</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>3</v>
+      </c>
+      <c r="BG105">
+        <v>3</v>
+      </c>
+      <c r="BH105">
+        <v>9</v>
+      </c>
+      <c r="BI105">
+        <v>3</v>
+      </c>
+      <c r="BJ105">
+        <v>12</v>
+      </c>
+      <c r="BK105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5557274</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>156</v>
+      </c>
+      <c r="P106" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>10</v>
+      </c>
+      <c r="S106">
+        <v>13</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>4</v>
+      </c>
+      <c r="W106">
+        <v>1.53</v>
+      </c>
+      <c r="X106">
+        <v>2.38</v>
+      </c>
+      <c r="Y106">
+        <v>3.5</v>
+      </c>
+      <c r="Z106">
+        <v>1.29</v>
+      </c>
+      <c r="AA106">
+        <v>9</v>
+      </c>
+      <c r="AB106">
+        <v>1.05</v>
+      </c>
+      <c r="AC106">
+        <v>2.23</v>
+      </c>
+      <c r="AD106">
+        <v>2.68</v>
+      </c>
+      <c r="AE106">
+        <v>3.45</v>
+      </c>
+      <c r="AF106">
+        <v>1.14</v>
+      </c>
+      <c r="AG106">
+        <v>5</v>
+      </c>
+      <c r="AH106">
+        <v>1.53</v>
+      </c>
+      <c r="AI106">
+        <v>2.34</v>
+      </c>
+      <c r="AJ106">
+        <v>2.66</v>
+      </c>
+      <c r="AK106">
+        <v>1.36</v>
+      </c>
+      <c r="AL106">
+        <v>2.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.6</v>
+      </c>
+      <c r="AN106">
+        <v>1.25</v>
+      </c>
+      <c r="AO106">
+        <v>1.4</v>
+      </c>
+      <c r="AP106">
+        <v>1.57</v>
+      </c>
+      <c r="AQ106">
+        <v>2</v>
+      </c>
+      <c r="AR106">
+        <v>1.6</v>
+      </c>
+      <c r="AS106">
+        <v>2.2</v>
+      </c>
+      <c r="AT106">
+        <v>1.33</v>
+      </c>
+      <c r="AU106">
+        <v>1.66</v>
+      </c>
+      <c r="AV106">
+        <v>1.46</v>
+      </c>
+      <c r="AW106">
+        <v>3.12</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>0</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>0</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>8</v>
+      </c>
+      <c r="BG106">
+        <v>2</v>
+      </c>
+      <c r="BH106">
+        <v>5</v>
+      </c>
+      <c r="BI106">
+        <v>7</v>
+      </c>
+      <c r="BJ106">
+        <v>13</v>
+      </c>
+      <c r="BK106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5557273</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45109.6875</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>83</v>
+      </c>
+      <c r="H107" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>85</v>
+      </c>
+      <c r="P107" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>8</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.83</v>
+      </c>
+      <c r="V107">
+        <v>5</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>1.88</v>
+      </c>
+      <c r="AD107">
+        <v>2.68</v>
+      </c>
+      <c r="AE107">
+        <v>4.9</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>1.67</v>
+      </c>
+      <c r="AI107">
+        <v>2.09</v>
+      </c>
+      <c r="AJ107">
+        <v>2.9</v>
+      </c>
+      <c r="AK107">
+        <v>1.31</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>1.8</v>
+      </c>
+      <c r="AR107">
+        <v>1</v>
+      </c>
+      <c r="AS107">
+        <v>1.67</v>
+      </c>
+      <c r="AT107">
+        <v>1</v>
+      </c>
+      <c r="AU107">
+        <v>1.35</v>
+      </c>
+      <c r="AV107">
+        <v>1.35</v>
+      </c>
+      <c r="AW107">
+        <v>2.7</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>0</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>2</v>
+      </c>
+      <c r="BG107">
+        <v>2</v>
+      </c>
+      <c r="BH107">
+        <v>5</v>
+      </c>
+      <c r="BI107">
+        <v>7</v>
+      </c>
+      <c r="BJ107">
+        <v>7</v>
+      </c>
+      <c r="BK107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5557269</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45109.79166666666</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>157</v>
+      </c>
+      <c r="P108" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q108">
+        <v>6</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>2.6</v>
+      </c>
+      <c r="U108">
+        <v>1.85</v>
+      </c>
+      <c r="V108">
+        <v>5</v>
+      </c>
+      <c r="W108">
+        <v>1.6</v>
+      </c>
+      <c r="X108">
+        <v>2.2</v>
+      </c>
+      <c r="Y108">
+        <v>3.75</v>
+      </c>
+      <c r="Z108">
+        <v>1.23</v>
+      </c>
+      <c r="AA108">
+        <v>8.75</v>
+      </c>
+      <c r="AB108">
+        <v>1.03</v>
+      </c>
+      <c r="AC108">
+        <v>1.87</v>
+      </c>
+      <c r="AD108">
+        <v>2.82</v>
+      </c>
+      <c r="AE108">
+        <v>4.5</v>
+      </c>
+      <c r="AF108">
+        <v>1.12</v>
+      </c>
+      <c r="AG108">
+        <v>6.35</v>
+      </c>
+      <c r="AH108">
+        <v>1.54</v>
+      </c>
+      <c r="AI108">
+        <v>2.33</v>
+      </c>
+      <c r="AJ108">
+        <v>2.59</v>
+      </c>
+      <c r="AK108">
+        <v>1.38</v>
+      </c>
+      <c r="AL108">
+        <v>2.35</v>
+      </c>
+      <c r="AM108">
+        <v>1.53</v>
+      </c>
+      <c r="AN108">
+        <v>1.15</v>
+      </c>
+      <c r="AO108">
+        <v>1.3</v>
+      </c>
+      <c r="AP108">
+        <v>1.75</v>
+      </c>
+      <c r="AQ108">
+        <v>2.4</v>
+      </c>
+      <c r="AR108">
+        <v>1.25</v>
+      </c>
+      <c r="AS108">
+        <v>2.17</v>
+      </c>
+      <c r="AT108">
+        <v>1.2</v>
+      </c>
+      <c r="AU108">
+        <v>1.55</v>
+      </c>
+      <c r="AV108">
+        <v>1.25</v>
+      </c>
+      <c r="AW108">
+        <v>2.8</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>9</v>
+      </c>
+      <c r="BG108">
+        <v>4</v>
+      </c>
+      <c r="BH108">
+        <v>12</v>
+      </c>
+      <c r="BI108">
+        <v>8</v>
+      </c>
+      <c r="BJ108">
+        <v>21</v>
+      </c>
+      <c r="BK108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5557271</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45109.79166666666</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>85</v>
+      </c>
+      <c r="P109" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>4</v>
+      </c>
+      <c r="T109">
+        <v>3.6</v>
+      </c>
+      <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
+        <v>3.25</v>
+      </c>
+      <c r="W109">
+        <v>1.62</v>
+      </c>
+      <c r="X109">
+        <v>2.15</v>
+      </c>
+      <c r="Y109">
+        <v>3.75</v>
+      </c>
+      <c r="Z109">
+        <v>1.23</v>
+      </c>
+      <c r="AA109">
+        <v>8.75</v>
+      </c>
+      <c r="AB109">
+        <v>1.03</v>
+      </c>
+      <c r="AC109">
+        <v>2.98</v>
+      </c>
+      <c r="AD109">
+        <v>2.63</v>
+      </c>
+      <c r="AE109">
+        <v>2.53</v>
+      </c>
+      <c r="AF109">
+        <v>1.11</v>
+      </c>
+      <c r="AG109">
+        <v>6.35</v>
+      </c>
+      <c r="AH109">
+        <v>1.53</v>
+      </c>
+      <c r="AI109">
+        <v>2.34</v>
+      </c>
+      <c r="AJ109">
+        <v>2.71</v>
+      </c>
+      <c r="AK109">
+        <v>1.35</v>
+      </c>
+      <c r="AL109">
+        <v>2.15</v>
+      </c>
+      <c r="AM109">
+        <v>1.62</v>
+      </c>
+      <c r="AN109">
+        <v>1.42</v>
+      </c>
+      <c r="AO109">
+        <v>1.33</v>
+      </c>
+      <c r="AP109">
+        <v>1.33</v>
+      </c>
+      <c r="AQ109">
+        <v>1.6</v>
+      </c>
+      <c r="AR109">
+        <v>1.4</v>
+      </c>
+      <c r="AS109">
+        <v>1.5</v>
+      </c>
+      <c r="AT109">
+        <v>1.33</v>
+      </c>
+      <c r="AU109">
+        <v>1.89</v>
+      </c>
+      <c r="AV109">
+        <v>1.25</v>
+      </c>
+      <c r="AW109">
+        <v>3.14</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>0</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>3</v>
+      </c>
+      <c r="BG109">
+        <v>3</v>
+      </c>
+      <c r="BH109">
+        <v>10</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>13</v>
+      </c>
+      <c r="BK109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5557265</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>65</v>
+      </c>
+      <c r="H110" t="s">
+        <v>68</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>158</v>
+      </c>
+      <c r="P110" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>2.6</v>
+      </c>
+      <c r="U110">
+        <v>1.91</v>
+      </c>
+      <c r="V110">
+        <v>5</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>2.03</v>
+      </c>
+      <c r="AD110">
+        <v>3.15</v>
+      </c>
+      <c r="AE110">
+        <v>3.2</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>1.44</v>
+      </c>
+      <c r="AI110">
+        <v>2.4</v>
+      </c>
+      <c r="AJ110">
+        <v>2.41</v>
+      </c>
+      <c r="AK110">
+        <v>1.5</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>2</v>
+      </c>
+      <c r="AR110">
+        <v>1</v>
+      </c>
+      <c r="AS110">
+        <v>2.2</v>
+      </c>
+      <c r="AT110">
+        <v>0.83</v>
+      </c>
+      <c r="AU110">
+        <v>1.85</v>
+      </c>
+      <c r="AV110">
+        <v>1.59</v>
+      </c>
+      <c r="AW110">
+        <v>3.44</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>7</v>
+      </c>
+      <c r="BG110">
+        <v>4</v>
+      </c>
+      <c r="BH110">
+        <v>5</v>
+      </c>
+      <c r="BI110">
+        <v>7</v>
+      </c>
+      <c r="BJ110">
+        <v>12</v>
+      </c>
+      <c r="BK110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5557268</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>159</v>
+      </c>
+      <c r="P111" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>10</v>
+      </c>
+      <c r="T111">
+        <v>2.32</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
+        <v>6.12</v>
+      </c>
+      <c r="W111">
+        <v>1.01</v>
+      </c>
+      <c r="X111">
+        <v>1.53</v>
+      </c>
+      <c r="Y111">
+        <v>3.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.25</v>
+      </c>
+      <c r="AA111">
+        <v>10</v>
+      </c>
+      <c r="AB111">
+        <v>1.02</v>
+      </c>
+      <c r="AC111">
+        <v>1.55</v>
+      </c>
+      <c r="AD111">
+        <v>3.45</v>
+      </c>
+      <c r="AE111">
+        <v>5.4</v>
+      </c>
+      <c r="AF111">
+        <v>1.11</v>
+      </c>
+      <c r="AG111">
+        <v>6.6</v>
+      </c>
+      <c r="AH111">
+        <v>1.53</v>
+      </c>
+      <c r="AI111">
+        <v>2.25</v>
+      </c>
+      <c r="AJ111">
+        <v>2.45</v>
+      </c>
+      <c r="AK111">
+        <v>1.5</v>
+      </c>
+      <c r="AL111">
+        <v>2.55</v>
+      </c>
+      <c r="AM111">
+        <v>1.49</v>
+      </c>
+      <c r="AN111">
+        <v>1.1</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>2.1</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>0.8</v>
+      </c>
+      <c r="AS111">
+        <v>2.17</v>
+      </c>
+      <c r="AT111">
+        <v>0.67</v>
+      </c>
+      <c r="AU111">
+        <v>1.75</v>
+      </c>
+      <c r="AV111">
+        <v>1.42</v>
+      </c>
+      <c r="AW111">
+        <v>3.17</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>9</v>
+      </c>
+      <c r="BG111">
+        <v>3</v>
+      </c>
+      <c r="BH111">
+        <v>12</v>
+      </c>
+      <c r="BI111">
+        <v>6</v>
+      </c>
+      <c r="BJ111">
+        <v>21</v>
+      </c>
+      <c r="BK111">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie C_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,24 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['77', '86']</t>
+  </si>
+  <si>
+    <t>['18', '28', '62']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -512,9 +530,6 @@
   </si>
   <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['26', '80']</t>
@@ -632,6 +647,30 @@
   </si>
   <si>
     <t>['55', '60']</t>
+  </si>
+  <si>
+    <t>['25', '64']</t>
+  </si>
+  <si>
+    <t>['17', '80']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['71', '90']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['32', '90+1', '90+3']</t>
+  </si>
+  <si>
+    <t>['38', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1366,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1428,7 +1467,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1619,7 +1658,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1810,7 +1849,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1897,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT5">
         <v>0.8</v>
@@ -2574,7 +2613,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2661,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2956,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3043,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT11">
         <v>1.33</v>
@@ -3234,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT12">
         <v>0.83</v>
@@ -3428,7 +3467,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3529,7 +3568,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3619,7 +3658,7 @@
         <v>2.17</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3807,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3911,7 +3950,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>11</v>
@@ -3998,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT16">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4192,7 +4231,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4293,7 +4332,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4380,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4484,7 +4523,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4571,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -4762,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT20">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4866,7 +4905,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4953,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5144,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT22">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU22">
         <v>1.79</v>
@@ -5335,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5439,7 +5478,7 @@
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5526,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -5717,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5821,7 +5860,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5908,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
         <v>1.5</v>
@@ -6102,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6203,7 +6242,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6290,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT28">
         <v>2.17</v>
@@ -6394,7 +6433,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6484,7 +6523,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6585,7 +6624,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6675,7 +6714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.52</v>
@@ -6776,7 +6815,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6866,7 +6905,7 @@
         <v>2.33</v>
       </c>
       <c r="AT31">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU31">
         <v>2.25</v>
@@ -6967,7 +7006,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7158,7 +7197,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7245,7 +7284,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7349,7 +7388,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7436,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT34">
         <v>0.8</v>
@@ -7540,7 +7579,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7627,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>1.33</v>
@@ -7821,7 +7860,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU36">
         <v>2.77</v>
@@ -7922,7 +7961,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8009,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8203,7 +8242,7 @@
         <v>1.83</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU38">
         <v>1.14</v>
@@ -8495,7 +8534,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8585,7 +8624,7 @@
         <v>2.17</v>
       </c>
       <c r="AT40">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU40">
         <v>1.69</v>
@@ -8964,10 +9003,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9158,7 +9197,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9641,7 +9680,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9728,7 +9767,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT46">
         <v>1.5</v>
@@ -10113,7 +10152,7 @@
         <v>2.17</v>
       </c>
       <c r="AT48">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>1.56</v>
@@ -10405,7 +10444,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10492,10 +10531,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT50">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU50">
         <v>1.97</v>
@@ -10683,7 +10722,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT51">
         <v>1.33</v>
@@ -10874,10 +10913,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>2.39</v>
@@ -11068,7 +11107,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.42</v>
@@ -11259,7 +11298,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11447,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11551,7 +11590,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>14</v>
@@ -11832,7 +11871,7 @@
         <v>1.83</v>
       </c>
       <c r="AT57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU57">
         <v>1.25</v>
@@ -11933,7 +11972,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12020,10 +12059,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12124,7 +12163,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12211,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT59">
         <v>0.8</v>
@@ -12315,7 +12354,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12402,7 +12441,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
         <v>2.17</v>
@@ -12593,7 +12632,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12787,7 +12826,7 @@
         <v>2.17</v>
       </c>
       <c r="AT62">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -12975,7 +13014,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13079,7 +13118,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13166,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT64">
         <v>1.33</v>
@@ -13360,7 +13399,7 @@
         <v>2.33</v>
       </c>
       <c r="AT65">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -13551,7 +13590,7 @@
         <v>2.2</v>
       </c>
       <c r="AT66">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13739,7 +13778,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT67">
         <v>0.83</v>
@@ -14034,7 +14073,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14121,10 +14160,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14315,7 +14354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU70">
         <v>1.71</v>
@@ -14503,7 +14542,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
         <v>0.8</v>
@@ -14885,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -14989,7 +15028,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15076,7 +15115,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT74">
         <v>1.33</v>
@@ -15270,7 +15309,7 @@
         <v>2.33</v>
       </c>
       <c r="AT75">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU75">
         <v>2.22</v>
@@ -15461,7 +15500,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU76">
         <v>1.71</v>
@@ -15649,10 +15688,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU77">
         <v>1.76</v>
@@ -15753,7 +15792,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15840,10 +15879,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU78">
         <v>2.18</v>
@@ -16135,7 +16174,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16222,7 +16261,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT80">
         <v>1.33</v>
@@ -16326,7 +16365,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16413,7 +16452,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16517,7 +16556,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16604,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT82">
         <v>1.33</v>
@@ -16708,7 +16747,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16899,7 +16938,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -16986,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT84">
         <v>1.33</v>
@@ -17090,7 +17129,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17281,7 +17320,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17371,7 +17410,7 @@
         <v>2</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU86">
         <v>1.58</v>
@@ -17472,7 +17511,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17559,10 +17598,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17663,7 +17702,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17753,7 +17792,7 @@
         <v>1.83</v>
       </c>
       <c r="AT88">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU88">
         <v>1.15</v>
@@ -17854,7 +17893,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17941,7 +17980,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18045,7 +18084,7 @@
         <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18132,10 +18171,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT90">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.76</v>
@@ -18236,7 +18275,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18427,7 +18466,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18618,7 +18657,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18705,7 +18744,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -18899,7 +18938,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU94">
         <v>1.63</v>
@@ -19382,7 +19421,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19764,7 +19803,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q99">
         <v>15</v>
@@ -19851,10 +19890,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.64</v>
@@ -19955,7 +19994,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20146,7 +20185,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20424,7 +20463,7 @@
         <v>1.6</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT102">
         <v>1.5</v>
@@ -20615,7 +20654,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>0.8</v>
@@ -20719,7 +20758,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20809,7 +20848,7 @@
         <v>1.83</v>
       </c>
       <c r="AT104">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU104">
         <v>1.18</v>
@@ -20997,10 +21036,10 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT105">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU105">
         <v>1.7</v>
@@ -21188,7 +21227,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21379,10 +21418,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.35</v>
@@ -21573,7 +21612,7 @@
         <v>2.17</v>
       </c>
       <c r="AT108">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU108">
         <v>1.55</v>
@@ -22146,7 +22185,7 @@
         <v>2.17</v>
       </c>
       <c r="AT111">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -22198,6 +22237,1916 @@
       </c>
       <c r="BK111">
         <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5557281</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>160</v>
+      </c>
+      <c r="P112" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q112">
+        <v>9</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>12</v>
+      </c>
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
+        <v>4</v>
+      </c>
+      <c r="W112">
+        <v>1.61</v>
+      </c>
+      <c r="X112">
+        <v>2.2</v>
+      </c>
+      <c r="Y112">
+        <v>3.5</v>
+      </c>
+      <c r="Z112">
+        <v>1.29</v>
+      </c>
+      <c r="AA112">
+        <v>9</v>
+      </c>
+      <c r="AB112">
+        <v>1.05</v>
+      </c>
+      <c r="AC112">
+        <v>2.15</v>
+      </c>
+      <c r="AD112">
+        <v>2.55</v>
+      </c>
+      <c r="AE112">
+        <v>3.3</v>
+      </c>
+      <c r="AF112">
+        <v>1.14</v>
+      </c>
+      <c r="AG112">
+        <v>5</v>
+      </c>
+      <c r="AH112">
+        <v>1.53</v>
+      </c>
+      <c r="AI112">
+        <v>2.34</v>
+      </c>
+      <c r="AJ112">
+        <v>2.59</v>
+      </c>
+      <c r="AK112">
+        <v>1.44</v>
+      </c>
+      <c r="AL112">
+        <v>2.2</v>
+      </c>
+      <c r="AM112">
+        <v>1.6</v>
+      </c>
+      <c r="AN112">
+        <v>1.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.33</v>
+      </c>
+      <c r="AP112">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112">
+        <v>1.8</v>
+      </c>
+      <c r="AR112">
+        <v>1.4</v>
+      </c>
+      <c r="AS112">
+        <v>1.5</v>
+      </c>
+      <c r="AT112">
+        <v>1.67</v>
+      </c>
+      <c r="AU112">
+        <v>1.86</v>
+      </c>
+      <c r="AV112">
+        <v>1.43</v>
+      </c>
+      <c r="AW112">
+        <v>3.29</v>
+      </c>
+      <c r="AX112">
+        <v>1.73</v>
+      </c>
+      <c r="AY112">
+        <v>8.9</v>
+      </c>
+      <c r="AZ112">
+        <v>2.41</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>1.3</v>
+      </c>
+      <c r="BC112">
+        <v>1.54</v>
+      </c>
+      <c r="BD112">
+        <v>1.87</v>
+      </c>
+      <c r="BE112">
+        <v>2.31</v>
+      </c>
+      <c r="BF112">
+        <v>9</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>9</v>
+      </c>
+      <c r="BI112">
+        <v>8</v>
+      </c>
+      <c r="BJ112">
+        <v>18</v>
+      </c>
+      <c r="BK112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5557284</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>157</v>
+      </c>
+      <c r="P113" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>2.3</v>
+      </c>
+      <c r="U113">
+        <v>1.91</v>
+      </c>
+      <c r="V113">
+        <v>6</v>
+      </c>
+      <c r="W113">
+        <v>1.61</v>
+      </c>
+      <c r="X113">
+        <v>2.2</v>
+      </c>
+      <c r="Y113">
+        <v>3.5</v>
+      </c>
+      <c r="Z113">
+        <v>1.29</v>
+      </c>
+      <c r="AA113">
+        <v>9</v>
+      </c>
+      <c r="AB113">
+        <v>1.05</v>
+      </c>
+      <c r="AC113">
+        <v>1.59</v>
+      </c>
+      <c r="AD113">
+        <v>2.8</v>
+      </c>
+      <c r="AE113">
+        <v>5.75</v>
+      </c>
+      <c r="AF113">
+        <v>1.12</v>
+      </c>
+      <c r="AG113">
+        <v>5.5</v>
+      </c>
+      <c r="AH113">
+        <v>1.54</v>
+      </c>
+      <c r="AI113">
+        <v>2.32</v>
+      </c>
+      <c r="AJ113">
+        <v>2.41</v>
+      </c>
+      <c r="AK113">
+        <v>1.5</v>
+      </c>
+      <c r="AL113">
+        <v>2.5</v>
+      </c>
+      <c r="AM113">
+        <v>1.47</v>
+      </c>
+      <c r="AN113">
+        <v>1.11</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>1.95</v>
+      </c>
+      <c r="AQ113">
+        <v>2.2</v>
+      </c>
+      <c r="AR113">
+        <v>0.2</v>
+      </c>
+      <c r="AS113">
+        <v>1.83</v>
+      </c>
+      <c r="AT113">
+        <v>0.67</v>
+      </c>
+      <c r="AU113">
+        <v>1.71</v>
+      </c>
+      <c r="AV113">
+        <v>0.88</v>
+      </c>
+      <c r="AW113">
+        <v>2.59</v>
+      </c>
+      <c r="AX113">
+        <v>1.68</v>
+      </c>
+      <c r="AY113">
+        <v>8.4</v>
+      </c>
+      <c r="AZ113">
+        <v>2.55</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>1.61</v>
+      </c>
+      <c r="BC113">
+        <v>2.05</v>
+      </c>
+      <c r="BD113">
+        <v>2.28</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>3</v>
+      </c>
+      <c r="BH113">
+        <v>7</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>16</v>
+      </c>
+      <c r="BK113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5557277</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45115.79166666666</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>161</v>
+      </c>
+      <c r="P114" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q114">
+        <v>7</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>2.15</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>6.5</v>
+      </c>
+      <c r="W114">
+        <v>1.56</v>
+      </c>
+      <c r="X114">
+        <v>2.3</v>
+      </c>
+      <c r="Y114">
+        <v>3.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.33</v>
+      </c>
+      <c r="AA114">
+        <v>8</v>
+      </c>
+      <c r="AB114">
+        <v>1.06</v>
+      </c>
+      <c r="AC114">
+        <v>1.5</v>
+      </c>
+      <c r="AD114">
+        <v>3.01</v>
+      </c>
+      <c r="AE114">
+        <v>6.26</v>
+      </c>
+      <c r="AF114">
+        <v>1.09</v>
+      </c>
+      <c r="AG114">
+        <v>7.2</v>
+      </c>
+      <c r="AH114">
+        <v>1.5</v>
+      </c>
+      <c r="AI114">
+        <v>2.45</v>
+      </c>
+      <c r="AJ114">
+        <v>2.47</v>
+      </c>
+      <c r="AK114">
+        <v>1.48</v>
+      </c>
+      <c r="AL114">
+        <v>2.5</v>
+      </c>
+      <c r="AM114">
+        <v>1.47</v>
+      </c>
+      <c r="AN114">
+        <v>1.11</v>
+      </c>
+      <c r="AO114">
+        <v>1.24</v>
+      </c>
+      <c r="AP114">
+        <v>2.25</v>
+      </c>
+      <c r="AQ114">
+        <v>2</v>
+      </c>
+      <c r="AR114">
+        <v>0.67</v>
+      </c>
+      <c r="AS114">
+        <v>1.83</v>
+      </c>
+      <c r="AT114">
+        <v>0.71</v>
+      </c>
+      <c r="AU114">
+        <v>2.08</v>
+      </c>
+      <c r="AV114">
+        <v>1.36</v>
+      </c>
+      <c r="AW114">
+        <v>3.44</v>
+      </c>
+      <c r="AX114">
+        <v>1.25</v>
+      </c>
+      <c r="AY114">
+        <v>10.2</v>
+      </c>
+      <c r="AZ114">
+        <v>4.83</v>
+      </c>
+      <c r="BA114">
+        <v>1.32</v>
+      </c>
+      <c r="BB114">
+        <v>1.61</v>
+      </c>
+      <c r="BC114">
+        <v>2.03</v>
+      </c>
+      <c r="BD114">
+        <v>2.28</v>
+      </c>
+      <c r="BE114">
+        <v>3.8</v>
+      </c>
+      <c r="BF114">
+        <v>4</v>
+      </c>
+      <c r="BG114">
+        <v>6</v>
+      </c>
+      <c r="BH114">
+        <v>7</v>
+      </c>
+      <c r="BI114">
+        <v>6</v>
+      </c>
+      <c r="BJ114">
+        <v>11</v>
+      </c>
+      <c r="BK114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5557278</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45116.6875</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" t="s">
+        <v>67</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>162</v>
+      </c>
+      <c r="P115" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+      <c r="S115">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>2.15</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>6.5</v>
+      </c>
+      <c r="W115">
+        <v>1.54</v>
+      </c>
+      <c r="X115">
+        <v>2.36</v>
+      </c>
+      <c r="Y115">
+        <v>3.25</v>
+      </c>
+      <c r="Z115">
+        <v>1.33</v>
+      </c>
+      <c r="AA115">
+        <v>8</v>
+      </c>
+      <c r="AB115">
+        <v>1.06</v>
+      </c>
+      <c r="AC115">
+        <v>1.53</v>
+      </c>
+      <c r="AD115">
+        <v>3.6</v>
+      </c>
+      <c r="AE115">
+        <v>5.2</v>
+      </c>
+      <c r="AF115">
+        <v>1.11</v>
+      </c>
+      <c r="AG115">
+        <v>6</v>
+      </c>
+      <c r="AH115">
+        <v>1.44</v>
+      </c>
+      <c r="AI115">
+        <v>2.4</v>
+      </c>
+      <c r="AJ115">
+        <v>2.4</v>
+      </c>
+      <c r="AK115">
+        <v>1.53</v>
+      </c>
+      <c r="AL115">
+        <v>2.4</v>
+      </c>
+      <c r="AM115">
+        <v>1.5</v>
+      </c>
+      <c r="AN115">
+        <v>1.08</v>
+      </c>
+      <c r="AO115">
+        <v>1.22</v>
+      </c>
+      <c r="AP115">
+        <v>2.15</v>
+      </c>
+      <c r="AQ115">
+        <v>1.4</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>1.17</v>
+      </c>
+      <c r="AT115">
+        <v>0.43</v>
+      </c>
+      <c r="AU115">
+        <v>2.27</v>
+      </c>
+      <c r="AV115">
+        <v>1.19</v>
+      </c>
+      <c r="AW115">
+        <v>3.46</v>
+      </c>
+      <c r="AX115">
+        <v>1.39</v>
+      </c>
+      <c r="AY115">
+        <v>9.9</v>
+      </c>
+      <c r="AZ115">
+        <v>3.51</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>1.53</v>
+      </c>
+      <c r="BD115">
+        <v>1.88</v>
+      </c>
+      <c r="BE115">
+        <v>2.42</v>
+      </c>
+      <c r="BF115">
+        <v>9</v>
+      </c>
+      <c r="BG115">
+        <v>7</v>
+      </c>
+      <c r="BH115">
+        <v>13</v>
+      </c>
+      <c r="BI115">
+        <v>4</v>
+      </c>
+      <c r="BJ115">
+        <v>22</v>
+      </c>
+      <c r="BK115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5557279</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45116.6875</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>85</v>
+      </c>
+      <c r="P116" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q116">
+        <v>7</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>8</v>
+      </c>
+      <c r="T116">
+        <v>2.97</v>
+      </c>
+      <c r="U116">
+        <v>1.85</v>
+      </c>
+      <c r="V116">
+        <v>4.15</v>
+      </c>
+      <c r="W116">
+        <v>1.57</v>
+      </c>
+      <c r="X116">
+        <v>2.26</v>
+      </c>
+      <c r="Y116">
+        <v>3.74</v>
+      </c>
+      <c r="Z116">
+        <v>1.23</v>
+      </c>
+      <c r="AA116">
+        <v>10.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.01</v>
+      </c>
+      <c r="AC116">
+        <v>1.95</v>
+      </c>
+      <c r="AD116">
+        <v>3.05</v>
+      </c>
+      <c r="AE116">
+        <v>3.55</v>
+      </c>
+      <c r="AF116">
+        <v>1.08</v>
+      </c>
+      <c r="AG116">
+        <v>6.05</v>
+      </c>
+      <c r="AH116">
+        <v>1.57</v>
+      </c>
+      <c r="AI116">
+        <v>2.3</v>
+      </c>
+      <c r="AJ116">
+        <v>2.66</v>
+      </c>
+      <c r="AK116">
+        <v>1.36</v>
+      </c>
+      <c r="AL116">
+        <v>2.15</v>
+      </c>
+      <c r="AM116">
+        <v>1.62</v>
+      </c>
+      <c r="AN116">
+        <v>1.25</v>
+      </c>
+      <c r="AO116">
+        <v>1.33</v>
+      </c>
+      <c r="AP116">
+        <v>1.5</v>
+      </c>
+      <c r="AQ116">
+        <v>0.8</v>
+      </c>
+      <c r="AR116">
+        <v>0.4</v>
+      </c>
+      <c r="AS116">
+        <v>0.67</v>
+      </c>
+      <c r="AT116">
+        <v>0.83</v>
+      </c>
+      <c r="AU116">
+        <v>1.86</v>
+      </c>
+      <c r="AV116">
+        <v>1.48</v>
+      </c>
+      <c r="AW116">
+        <v>3.34</v>
+      </c>
+      <c r="AX116">
+        <v>1.47</v>
+      </c>
+      <c r="AY116">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ116">
+        <v>3.16</v>
+      </c>
+      <c r="BA116">
+        <v>1.21</v>
+      </c>
+      <c r="BB116">
+        <v>1.4</v>
+      </c>
+      <c r="BC116">
+        <v>1.71</v>
+      </c>
+      <c r="BD116">
+        <v>2.17</v>
+      </c>
+      <c r="BE116">
+        <v>2.95</v>
+      </c>
+      <c r="BF116">
+        <v>5</v>
+      </c>
+      <c r="BG116">
+        <v>2</v>
+      </c>
+      <c r="BH116">
+        <v>5</v>
+      </c>
+      <c r="BI116">
+        <v>5</v>
+      </c>
+      <c r="BJ116">
+        <v>10</v>
+      </c>
+      <c r="BK116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5557282</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45116.79166666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>81</v>
+      </c>
+      <c r="H117" t="s">
+        <v>65</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>163</v>
+      </c>
+      <c r="P117" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>8</v>
+      </c>
+      <c r="T117">
+        <v>2.8</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>4.27</v>
+      </c>
+      <c r="W117">
+        <v>1.54</v>
+      </c>
+      <c r="X117">
+        <v>2.36</v>
+      </c>
+      <c r="Y117">
+        <v>3.28</v>
+      </c>
+      <c r="Z117">
+        <v>1.29</v>
+      </c>
+      <c r="AA117">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB117">
+        <v>1.02</v>
+      </c>
+      <c r="AC117">
+        <v>2.47</v>
+      </c>
+      <c r="AD117">
+        <v>2.7</v>
+      </c>
+      <c r="AE117">
+        <v>2.9</v>
+      </c>
+      <c r="AF117">
+        <v>1.05</v>
+      </c>
+      <c r="AG117">
+        <v>7.2</v>
+      </c>
+      <c r="AH117">
+        <v>1.53</v>
+      </c>
+      <c r="AI117">
+        <v>2.4</v>
+      </c>
+      <c r="AJ117">
+        <v>2.4</v>
+      </c>
+      <c r="AK117">
+        <v>1.5</v>
+      </c>
+      <c r="AL117">
+        <v>1.95</v>
+      </c>
+      <c r="AM117">
+        <v>1.75</v>
+      </c>
+      <c r="AN117">
+        <v>1.25</v>
+      </c>
+      <c r="AO117">
+        <v>1.3</v>
+      </c>
+      <c r="AP117">
+        <v>1.57</v>
+      </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>1.33</v>
+      </c>
+      <c r="AS117">
+        <v>1.29</v>
+      </c>
+      <c r="AT117">
+        <v>1.14</v>
+      </c>
+      <c r="AU117">
+        <v>1.64</v>
+      </c>
+      <c r="AV117">
+        <v>1.15</v>
+      </c>
+      <c r="AW117">
+        <v>2.79</v>
+      </c>
+      <c r="AX117">
+        <v>1.53</v>
+      </c>
+      <c r="AY117">
+        <v>9.1</v>
+      </c>
+      <c r="AZ117">
+        <v>2.82</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.39</v>
+      </c>
+      <c r="BC117">
+        <v>1.68</v>
+      </c>
+      <c r="BD117">
+        <v>2.12</v>
+      </c>
+      <c r="BE117">
+        <v>3</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>2</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>3</v>
+      </c>
+      <c r="BJ117">
+        <v>10</v>
+      </c>
+      <c r="BK117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5557283</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45116.79166666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>113</v>
+      </c>
+      <c r="P118" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>12</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
+        <v>4</v>
+      </c>
+      <c r="W118">
+        <v>1.61</v>
+      </c>
+      <c r="X118">
+        <v>2.2</v>
+      </c>
+      <c r="Y118">
+        <v>3.5</v>
+      </c>
+      <c r="Z118">
+        <v>1.29</v>
+      </c>
+      <c r="AA118">
+        <v>9</v>
+      </c>
+      <c r="AB118">
+        <v>1.05</v>
+      </c>
+      <c r="AC118">
+        <v>2.25</v>
+      </c>
+      <c r="AD118">
+        <v>2.89</v>
+      </c>
+      <c r="AE118">
+        <v>3.05</v>
+      </c>
+      <c r="AF118">
+        <v>1.14</v>
+      </c>
+      <c r="AG118">
+        <v>5</v>
+      </c>
+      <c r="AH118">
+        <v>1.6</v>
+      </c>
+      <c r="AI118">
+        <v>2.25</v>
+      </c>
+      <c r="AJ118">
+        <v>2.66</v>
+      </c>
+      <c r="AK118">
+        <v>1.36</v>
+      </c>
+      <c r="AL118">
+        <v>2.15</v>
+      </c>
+      <c r="AM118">
+        <v>1.63</v>
+      </c>
+      <c r="AN118">
+        <v>1.25</v>
+      </c>
+      <c r="AO118">
+        <v>1.33</v>
+      </c>
+      <c r="AP118">
+        <v>1.5</v>
+      </c>
+      <c r="AQ118">
+        <v>1.67</v>
+      </c>
+      <c r="AR118">
+        <v>1.2</v>
+      </c>
+      <c r="AS118">
+        <v>1.57</v>
+      </c>
+      <c r="AT118">
+        <v>1.17</v>
+      </c>
+      <c r="AU118">
+        <v>1.27</v>
+      </c>
+      <c r="AV118">
+        <v>1.26</v>
+      </c>
+      <c r="AW118">
+        <v>2.53</v>
+      </c>
+      <c r="AX118">
+        <v>1.63</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>2.54</v>
+      </c>
+      <c r="BA118">
+        <v>1.25</v>
+      </c>
+      <c r="BB118">
+        <v>1.34</v>
+      </c>
+      <c r="BC118">
+        <v>1.61</v>
+      </c>
+      <c r="BD118">
+        <v>2.01</v>
+      </c>
+      <c r="BE118">
+        <v>2.64</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>15</v>
+      </c>
+      <c r="BI118">
+        <v>12</v>
+      </c>
+      <c r="BJ118">
+        <v>21</v>
+      </c>
+      <c r="BK118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5557280</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45117.83333333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>85</v>
+      </c>
+      <c r="P119" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q119">
+        <v>9</v>
+      </c>
+      <c r="R119">
+        <v>7</v>
+      </c>
+      <c r="S119">
+        <v>16</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>1.91</v>
+      </c>
+      <c r="V119">
+        <v>4</v>
+      </c>
+      <c r="W119">
+        <v>1.51</v>
+      </c>
+      <c r="X119">
+        <v>2.4</v>
+      </c>
+      <c r="Y119">
+        <v>3.4</v>
+      </c>
+      <c r="Z119">
+        <v>1.27</v>
+      </c>
+      <c r="AA119">
+        <v>9.6</v>
+      </c>
+      <c r="AB119">
+        <v>1.02</v>
+      </c>
+      <c r="AC119">
+        <v>2.23</v>
+      </c>
+      <c r="AD119">
+        <v>2.88</v>
+      </c>
+      <c r="AE119">
+        <v>3.27</v>
+      </c>
+      <c r="AF119">
+        <v>1.09</v>
+      </c>
+      <c r="AG119">
+        <v>7.65</v>
+      </c>
+      <c r="AH119">
+        <v>1.48</v>
+      </c>
+      <c r="AI119">
+        <v>2.47</v>
+      </c>
+      <c r="AJ119">
+        <v>2.45</v>
+      </c>
+      <c r="AK119">
+        <v>1.5</v>
+      </c>
+      <c r="AL119">
+        <v>2.14</v>
+      </c>
+      <c r="AM119">
+        <v>1.67</v>
+      </c>
+      <c r="AN119">
+        <v>1.25</v>
+      </c>
+      <c r="AO119">
+        <v>1.3</v>
+      </c>
+      <c r="AP119">
+        <v>1.57</v>
+      </c>
+      <c r="AQ119">
+        <v>1.6</v>
+      </c>
+      <c r="AR119">
+        <v>0.6</v>
+      </c>
+      <c r="AS119">
+        <v>1.33</v>
+      </c>
+      <c r="AT119">
+        <v>1</v>
+      </c>
+      <c r="AU119">
+        <v>1.54</v>
+      </c>
+      <c r="AV119">
+        <v>1.39</v>
+      </c>
+      <c r="AW119">
+        <v>2.93</v>
+      </c>
+      <c r="AX119">
+        <v>1.79</v>
+      </c>
+      <c r="AY119">
+        <v>8.4</v>
+      </c>
+      <c r="AZ119">
+        <v>2.27</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>1.5</v>
+      </c>
+      <c r="BC119">
+        <v>2</v>
+      </c>
+      <c r="BD119">
+        <v>2.42</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>7</v>
+      </c>
+      <c r="BG119">
+        <v>6</v>
+      </c>
+      <c r="BH119">
+        <v>8</v>
+      </c>
+      <c r="BI119">
+        <v>9</v>
+      </c>
+      <c r="BJ119">
+        <v>15</v>
+      </c>
+      <c r="BK119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5557275</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45117.83333333334</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>6</v>
+      </c>
+      <c r="O120" t="s">
+        <v>164</v>
+      </c>
+      <c r="P120" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>8</v>
+      </c>
+      <c r="S120">
+        <v>12</v>
+      </c>
+      <c r="T120">
+        <v>2.57</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
+        <v>4.92</v>
+      </c>
+      <c r="W120">
+        <v>1.51</v>
+      </c>
+      <c r="X120">
+        <v>2.4</v>
+      </c>
+      <c r="Y120">
+        <v>3.34</v>
+      </c>
+      <c r="Z120">
+        <v>1.28</v>
+      </c>
+      <c r="AA120">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB120">
+        <v>1.04</v>
+      </c>
+      <c r="AC120">
+        <v>1.98</v>
+      </c>
+      <c r="AD120">
+        <v>2.93</v>
+      </c>
+      <c r="AE120">
+        <v>3.89</v>
+      </c>
+      <c r="AF120">
+        <v>1.08</v>
+      </c>
+      <c r="AG120">
+        <v>7.9</v>
+      </c>
+      <c r="AH120">
+        <v>1.47</v>
+      </c>
+      <c r="AI120">
+        <v>2.55</v>
+      </c>
+      <c r="AJ120">
+        <v>2.4</v>
+      </c>
+      <c r="AK120">
+        <v>1.5</v>
+      </c>
+      <c r="AL120">
+        <v>2.1</v>
+      </c>
+      <c r="AM120">
+        <v>1.66</v>
+      </c>
+      <c r="AN120">
+        <v>1.2</v>
+      </c>
+      <c r="AO120">
+        <v>1.25</v>
+      </c>
+      <c r="AP120">
+        <v>1.72</v>
+      </c>
+      <c r="AQ120">
+        <v>1.67</v>
+      </c>
+      <c r="AR120">
+        <v>1</v>
+      </c>
+      <c r="AS120">
+        <v>1.57</v>
+      </c>
+      <c r="AT120">
+        <v>1</v>
+      </c>
+      <c r="AU120">
+        <v>1.64</v>
+      </c>
+      <c r="AV120">
+        <v>1.48</v>
+      </c>
+      <c r="AW120">
+        <v>3.12</v>
+      </c>
+      <c r="AX120">
+        <v>1.64</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>2.52</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>1.44</v>
+      </c>
+      <c r="BC120">
+        <v>1.61</v>
+      </c>
+      <c r="BD120">
+        <v>2.01</v>
+      </c>
+      <c r="BE120">
+        <v>2.64</v>
+      </c>
+      <c r="BF120">
+        <v>8</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>3</v>
+      </c>
+      <c r="BI120">
+        <v>7</v>
+      </c>
+      <c r="BJ120">
+        <v>11</v>
+      </c>
+      <c r="BK120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5557276</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45117.85416666666</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>82</v>
+      </c>
+      <c r="H121" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>165</v>
+      </c>
+      <c r="P121" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q121">
+        <v>5</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>2.88</v>
+      </c>
+      <c r="U121">
+        <v>1.83</v>
+      </c>
+      <c r="V121">
+        <v>4.5</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>2.21</v>
+      </c>
+      <c r="AD121">
+        <v>2.73</v>
+      </c>
+      <c r="AE121">
+        <v>3.5</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>1.57</v>
+      </c>
+      <c r="AI121">
+        <v>2.3</v>
+      </c>
+      <c r="AJ121">
+        <v>2.77</v>
+      </c>
+      <c r="AK121">
+        <v>1.39</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1</v>
+      </c>
+      <c r="AS121">
+        <v>0.83</v>
+      </c>
+      <c r="AT121">
+        <v>1.33</v>
+      </c>
+      <c r="AU121">
+        <v>1.93</v>
+      </c>
+      <c r="AV121">
+        <v>1.26</v>
+      </c>
+      <c r="AW121">
+        <v>3.19</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>3</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>5</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>8</v>
+      </c>
+      <c r="BK121">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
